--- a/中企动力/数据库结构-详细设计文档/微服务 - 公共库.xlsx
+++ b/中企动力/数据库结构-详细设计文档/微服务 - 公共库.xlsx
@@ -1272,76 +1272,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>节点类型。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>模板</t>
     </r>
     <r>
@@ -7678,6 +7608,10 @@
   </si>
   <si>
     <t>商品摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点类型。1.条件。2.时间。3.动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7912,7 +7846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7984,44 +7918,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8059,37 +8003,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8413,22 +8350,22 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F258" sqref="F258"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="36.625" customWidth="1"/>
     <col min="6" max="6" width="38.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="10" max="10" width="56.375" customWidth="1"/>
     <col min="11" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="25.625" customWidth="1"/>
   </cols>
@@ -8471,16 +8408,16 @@
         <v>24</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8502,10 +8439,10 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -8525,10 +8462,10 @@
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
@@ -8548,18 +8485,18 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H5" s="11">
         <v>20</v>
@@ -8571,14 +8508,14 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
@@ -8596,16 +8533,16 @@
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H7" s="11">
         <v>11</v>
@@ -8614,22 +8551,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>4</v>
@@ -8642,39 +8579,39 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>1</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
-        <v>1</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="59"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="2" t="s">
         <v>80</v>
       </c>
@@ -8696,10 +8633,10 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
@@ -8721,12 +8658,12 @@
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="59"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>81</v>
@@ -8739,17 +8676,17 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
@@ -8771,35 +8708,35 @@
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="45">
         <v>2</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
@@ -8814,17 +8751,17 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
@@ -8839,17 +8776,17 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
@@ -8871,10 +8808,10 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
@@ -8896,10 +8833,10 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
@@ -8914,17 +8851,17 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
@@ -8938,18 +8875,18 @@
         <v>11</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>258</v>
+      <c r="J20" s="61" t="s">
+        <v>645</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
@@ -8964,42 +8901,42 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="45">
         <v>3</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="C22" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="8" t="s">
         <v>5</v>
       </c>
@@ -9014,19 +8951,19 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="30" t="s">
-        <v>396</v>
+      <c r="M23" s="54" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
@@ -9041,17 +8978,17 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="30"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
@@ -9066,17 +9003,17 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9091,17 +9028,17 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="2" t="s">
         <v>27</v>
       </c>
@@ -9116,17 +9053,17 @@
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
@@ -9141,17 +9078,17 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
@@ -9166,17 +9103,17 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
@@ -9191,44 +9128,44 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="C31" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="30" t="s">
-        <v>400</v>
+      <c r="M31" s="54" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="8" t="s">
         <v>85</v>
       </c>
@@ -9243,17 +9180,17 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="30"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
@@ -9268,17 +9205,17 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="30"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="8" t="s">
         <v>87</v>
       </c>
@@ -9293,17 +9230,17 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="30"/>
+      <c r="M34" s="54"/>
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="8" t="s">
         <v>89</v>
       </c>
@@ -9318,17 +9255,17 @@
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="30"/>
+      <c r="M35" s="54"/>
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="8" t="s">
         <v>90</v>
       </c>
@@ -9343,17 +9280,17 @@
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="30"/>
+      <c r="M36" s="54"/>
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="8" t="s">
         <v>91</v>
       </c>
@@ -9368,17 +9305,17 @@
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="30"/>
+      <c r="M37" s="54"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="8" t="s">
         <v>92</v>
       </c>
@@ -9393,17 +9330,17 @@
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="30"/>
+      <c r="M38" s="54"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="8" t="s">
         <v>93</v>
       </c>
@@ -9418,17 +9355,17 @@
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="30"/>
+      <c r="M39" s="54"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="8" t="s">
         <v>94</v>
       </c>
@@ -9443,17 +9380,17 @@
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="30"/>
+      <c r="M40" s="54"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="8" t="s">
         <v>95</v>
       </c>
@@ -9468,17 +9405,17 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="30"/>
+      <c r="M41" s="54"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="8" t="s">
         <v>96</v>
       </c>
@@ -9493,17 +9430,17 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="30"/>
+      <c r="M42" s="54"/>
     </row>
     <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="8" t="s">
         <v>97</v>
       </c>
@@ -9518,17 +9455,17 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="30"/>
+      <c r="M43" s="54"/>
     </row>
     <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="8" t="s">
         <v>98</v>
       </c>
@@ -9543,17 +9480,17 @@
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="30"/>
+      <c r="M44" s="54"/>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="33"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="8" t="s">
         <v>99</v>
       </c>
@@ -9568,17 +9505,17 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="30"/>
+      <c r="M45" s="54"/>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="8" t="s">
         <v>74</v>
       </c>
@@ -9593,17 +9530,17 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="30"/>
+      <c r="M46" s="54"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="33"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="8" t="s">
         <v>100</v>
       </c>
@@ -9618,17 +9555,17 @@
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="30"/>
+      <c r="M47" s="54"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="33"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="8" t="s">
         <v>101</v>
       </c>
@@ -9643,17 +9580,17 @@
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="30"/>
+      <c r="M48" s="54"/>
     </row>
     <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="33"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="8" t="s">
         <v>102</v>
       </c>
@@ -9668,42 +9605,42 @@
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="30"/>
+      <c r="M49" s="54"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="47">
         <v>5</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="E50" s="35" t="s">
+      <c r="C50" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="59"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="2" t="s">
         <v>87</v>
       </c>
@@ -9718,17 +9655,17 @@
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="59"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -9743,17 +9680,17 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="59"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9768,17 +9705,17 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="59"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="9" t="s">
         <v>106</v>
       </c>
@@ -9793,19 +9730,19 @@
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="59"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="2" t="s">
         <v>107</v>
       </c>
@@ -9820,17 +9757,17 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="59"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="9" t="s">
         <v>108</v>
       </c>
@@ -9845,44 +9782,44 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="41">
+      <c r="A57" s="45">
         <v>6</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="D57" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="2" t="s">
         <v>28</v>
       </c>
@@ -9897,17 +9834,17 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="2" t="s">
         <v>49</v>
       </c>
@@ -9922,17 +9859,17 @@
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="2" t="s">
         <v>31</v>
       </c>
@@ -9947,17 +9884,17 @@
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="2" t="s">
         <v>50</v>
       </c>
@@ -9972,17 +9909,17 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
       <c r="E62" t="s">
         <v>8</v>
       </c>
@@ -10003,10 +9940,10 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="2" t="s">
         <v>69</v>
       </c>
@@ -10021,17 +9958,17 @@
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="2" t="s">
         <v>70</v>
       </c>
@@ -10046,17 +9983,17 @@
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
@@ -10071,17 +10008,17 @@
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
       <c r="E66" t="s">
         <v>223</v>
       </c>
@@ -10099,10 +10036,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="2" t="s">
         <v>39</v>
       </c>
@@ -10117,17 +10054,17 @@
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="13"/>
     </row>
     <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="2" t="s">
         <v>71</v>
       </c>
@@ -10142,17 +10079,17 @@
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
@@ -10167,17 +10104,17 @@
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="2" t="s">
         <v>65</v>
       </c>
@@ -10192,17 +10129,17 @@
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="2" t="s">
         <v>66</v>
       </c>
@@ -10217,17 +10154,17 @@
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="2" t="s">
         <v>67</v>
       </c>
@@ -10242,17 +10179,17 @@
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
@@ -10267,17 +10204,17 @@
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
@@ -10292,17 +10229,17 @@
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
       <c r="E75" t="s">
         <v>68</v>
       </c>
@@ -10320,10 +10257,10 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="2" t="s">
         <v>56</v>
       </c>
@@ -10338,17 +10275,17 @@
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="13"/>
     </row>
     <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="2" t="s">
         <v>52</v>
       </c>
@@ -10363,17 +10300,17 @@
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="2" t="s">
         <v>54</v>
       </c>
@@ -10388,17 +10325,17 @@
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="2" t="s">
         <v>53</v>
       </c>
@@ -10413,17 +10350,17 @@
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="13"/>
     </row>
     <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
       <c r="E80" t="s">
         <v>60</v>
       </c>
@@ -10441,10 +10378,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
       <c r="E81" t="s">
         <v>61</v>
       </c>
@@ -10462,10 +10399,10 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="2" t="s">
         <v>62</v>
       </c>
@@ -10480,17 +10417,17 @@
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="2" t="s">
         <v>55</v>
       </c>
@@ -10505,42 +10442,42 @@
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="41">
+      <c r="A84" s="45">
         <v>7</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
+      <c r="D84" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="13"/>
     </row>
     <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
@@ -10555,17 +10492,17 @@
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="13"/>
     </row>
     <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="2" t="s">
         <v>122</v>
       </c>
@@ -10580,17 +10517,17 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
@@ -10605,17 +10542,17 @@
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="13"/>
     </row>
     <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="2" t="s">
         <v>124</v>
       </c>
@@ -10630,42 +10567,42 @@
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="41">
+      <c r="A89" s="45">
         <v>8</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
+      <c r="C89" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="13"/>
     </row>
     <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="2" t="s">
         <v>28</v>
       </c>
@@ -10680,17 +10617,17 @@
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="2" t="s">
         <v>134</v>
       </c>
@@ -10705,17 +10642,17 @@
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="13"/>
     </row>
     <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="2" t="s">
         <v>135</v>
       </c>
@@ -10730,17 +10667,17 @@
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="13"/>
     </row>
     <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="2" t="s">
         <v>136</v>
       </c>
@@ -10755,17 +10692,17 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="13"/>
     </row>
     <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="2" t="s">
         <v>137</v>
       </c>
@@ -10780,17 +10717,17 @@
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="2" t="s">
         <v>80</v>
       </c>
@@ -10805,17 +10742,17 @@
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="13"/>
     </row>
     <row r="96" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" t="s">
         <v>110</v>
       </c>
@@ -10836,10 +10773,10 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" t="s">
         <v>138</v>
       </c>
@@ -10860,10 +10797,10 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
       <c r="E98" t="s">
         <v>140</v>
       </c>
@@ -10884,10 +10821,10 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
       <c r="E99" t="s">
         <v>142</v>
       </c>
@@ -10908,10 +10845,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
       <c r="E100" t="s">
         <v>144</v>
       </c>
@@ -10932,10 +10869,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
       <c r="E101" t="s">
         <v>146</v>
       </c>
@@ -10956,10 +10893,10 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="2" t="s">
         <v>148</v>
       </c>
@@ -10974,17 +10911,17 @@
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="2" t="s">
         <v>149</v>
       </c>
@@ -10999,17 +10936,17 @@
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="2" t="s">
         <v>30</v>
       </c>
@@ -11024,17 +10961,17 @@
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="9" t="s">
         <v>150</v>
       </c>
@@ -11049,19 +10986,19 @@
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="2" t="s">
         <v>151</v>
       </c>
@@ -11076,17 +11013,17 @@
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="2" t="s">
         <v>152</v>
       </c>
@@ -11101,17 +11038,17 @@
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="13"/>
     </row>
     <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="2" t="s">
         <v>153</v>
       </c>
@@ -11126,17 +11063,17 @@
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="13"/>
     </row>
     <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="2" t="s">
         <v>154</v>
       </c>
@@ -11151,17 +11088,17 @@
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="13"/>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="2" t="s">
         <v>155</v>
       </c>
@@ -11176,17 +11113,17 @@
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="2" t="s">
         <v>156</v>
       </c>
@@ -11201,17 +11138,17 @@
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="13"/>
     </row>
     <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="2" t="s">
         <v>157</v>
       </c>
@@ -11226,17 +11163,17 @@
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="41"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="9" t="s">
         <v>158</v>
       </c>
@@ -11251,44 +11188,44 @@
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
       <c r="M113" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A114" s="45">
+        <v>9</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" s="27" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="41">
-        <v>9</v>
-      </c>
-      <c r="B114" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
+      <c r="E114" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
       <c r="E115" s="2" t="s">
         <v>28</v>
       </c>
@@ -11303,17 +11240,17 @@
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="13"/>
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
       <c r="E116" s="2" t="s">
         <v>80</v>
       </c>
@@ -11328,17 +11265,17 @@
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="13"/>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
       <c r="E117" s="2" t="s">
         <v>49</v>
       </c>
@@ -11353,17 +11290,17 @@
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="13"/>
     </row>
     <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
       <c r="E118" s="2" t="s">
         <v>160</v>
       </c>
@@ -11378,17 +11315,17 @@
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="13"/>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
       <c r="E119" s="2" t="s">
         <v>161</v>
       </c>
@@ -11403,7 +11340,7 @@
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -11411,9 +11348,9 @@
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
       <c r="E120" t="s">
         <v>64</v>
       </c>
@@ -11431,35 +11368,35 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121" s="43">
+      <c r="A121" s="47">
         <v>10</v>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
+      <c r="C121" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="13"/>
     </row>
     <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
       <c r="E122" s="2" t="s">
         <v>42</v>
       </c>
@@ -11474,17 +11411,17 @@
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
       <c r="E123" s="2" t="s">
         <v>45</v>
       </c>
@@ -11499,44 +11436,44 @@
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="13"/>
     </row>
     <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
       <c r="E124" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H124" s="9">
         <v>11</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
       <c r="M124" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
+      <c r="A125" s="49"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
       <c r="E125" s="2" t="s">
         <v>28</v>
       </c>
@@ -11551,42 +11488,42 @@
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="13"/>
     </row>
     <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126" s="43">
+      <c r="A126" s="47">
         <v>11</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="D126" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="E126" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
+      <c r="C126" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="13"/>
     </row>
     <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="59"/>
+      <c r="A127" s="48"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="28"/>
       <c r="E127" s="2" t="s">
         <v>63</v>
       </c>
@@ -11601,17 +11538,17 @@
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="13"/>
     </row>
     <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="59"/>
+      <c r="A128" s="48"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="28"/>
       <c r="E128" s="2" t="s">
         <v>208</v>
       </c>
@@ -11626,17 +11563,17 @@
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="13"/>
     </row>
     <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="59"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="28"/>
       <c r="E129" s="2" t="s">
         <v>209</v>
       </c>
@@ -11651,17 +11588,17 @@
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="13"/>
     </row>
     <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="59"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="28"/>
       <c r="E130" s="9" t="s">
         <v>77</v>
       </c>
@@ -11678,19 +11615,19 @@
         <v>0</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="59"/>
+      <c r="A131" s="49"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="28"/>
       <c r="E131" s="2" t="s">
         <v>78</v>
       </c>
@@ -11705,42 +11642,42 @@
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="13"/>
     </row>
     <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="49">
+      <c r="A132" s="53">
         <v>12</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B132" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C132" s="56" t="s">
+      <c r="C132" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D132" s="57" t="s">
-        <v>470</v>
-      </c>
-      <c r="E132" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
-      <c r="I132" s="51"/>
-      <c r="J132" s="52"/>
+      <c r="D132" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="E132" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="39"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="13"/>
     </row>
     <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="57"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
       <c r="E133" s="6" t="s">
         <v>212</v>
       </c>
@@ -11755,17 +11692,17 @@
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="13"/>
     </row>
     <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="57"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="35"/>
       <c r="E134" s="6" t="s">
         <v>213</v>
       </c>
@@ -11780,17 +11717,17 @@
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="13"/>
     </row>
     <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="49"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="57"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="35"/>
       <c r="E135" s="6" t="s">
         <v>214</v>
       </c>
@@ -11805,17 +11742,17 @@
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="13"/>
     </row>
     <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="57"/>
+      <c r="A136" s="53"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="35"/>
       <c r="E136" s="6" t="s">
         <v>215</v>
       </c>
@@ -11830,17 +11767,17 @@
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="13"/>
     </row>
     <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="49"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="56"/>
-      <c r="D137" s="57"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="35"/>
       <c r="E137" s="6" t="s">
         <v>216</v>
       </c>
@@ -11855,17 +11792,17 @@
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="13"/>
     </row>
     <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="57"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="35"/>
       <c r="E138" s="6" t="s">
         <v>217</v>
       </c>
@@ -11880,17 +11817,17 @@
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="56"/>
-      <c r="D139" s="57"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="6" t="s">
         <v>218</v>
       </c>
@@ -11905,17 +11842,17 @@
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="13"/>
     </row>
     <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="56"/>
-      <c r="D140" s="57"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
       <c r="E140" s="6" t="s">
         <v>219</v>
       </c>
@@ -11930,17 +11867,17 @@
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="13"/>
     </row>
     <row r="141" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="56"/>
-      <c r="D141" s="57"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="35"/>
       <c r="E141" s="12" t="s">
         <v>220</v>
       </c>
@@ -11955,44 +11892,44 @@
       </c>
       <c r="I141" s="12"/>
       <c r="J141" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="49">
+      <c r="A142" s="53">
         <v>13</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C142" s="56" t="s">
+      <c r="C142" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D142" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="E142" s="50" t="s">
+      <c r="D142" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="E142" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
-      <c r="J142" s="52"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="39"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
+      <c r="A143" s="53"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="6" t="s">
         <v>76</v>
       </c>
@@ -12007,17 +11944,17 @@
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="56"/>
-      <c r="D144" s="56"/>
+      <c r="A144" s="53"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="6" t="s">
         <v>28</v>
       </c>
@@ -12032,17 +11969,17 @@
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="56"/>
-      <c r="D145" s="56"/>
+      <c r="A145" s="53"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
       <c r="E145" s="6" t="s">
         <v>39</v>
       </c>
@@ -12057,17 +11994,17 @@
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="13"/>
     </row>
     <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="56"/>
-      <c r="D146" s="56"/>
+      <c r="A146" s="53"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
       <c r="E146" s="6" t="s">
         <v>32</v>
       </c>
@@ -12082,17 +12019,17 @@
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147" s="49"/>
-      <c r="B147" s="56"/>
-      <c r="C147" s="56"/>
-      <c r="D147" s="56"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
       <c r="E147" s="12" t="s">
         <v>222</v>
       </c>
@@ -12109,44 +12046,44 @@
         <v>0</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="33">
+        <v>14</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D148" s="33" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="28">
-        <v>14</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C148" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D148" s="28" t="s">
+      <c r="E148" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="E148" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="55"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="32"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
       <c r="E149" s="13" t="s">
         <v>76</v>
       </c>
@@ -12161,17 +12098,17 @@
       </c>
       <c r="I149" s="13"/>
       <c r="J149" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
       <c r="E150" s="13" t="s">
         <v>203</v>
       </c>
@@ -12186,42 +12123,42 @@
       </c>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="28">
+      <c r="A151" s="33">
         <v>15</v>
       </c>
-      <c r="B151" s="28" t="s">
+      <c r="B151" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="D151" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="E151" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="54"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="55"/>
+      <c r="C151" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E151" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="32"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
       <c r="E152" s="13" t="s">
         <v>76</v>
       </c>
@@ -12236,17 +12173,17 @@
       </c>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
       <c r="E153" s="13" t="s">
         <v>110</v>
       </c>
@@ -12261,17 +12198,17 @@
       </c>
       <c r="I153" s="13"/>
       <c r="J153" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="28"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
       <c r="E154" s="13" t="s">
         <v>37</v>
       </c>
@@ -12286,17 +12223,17 @@
       </c>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
       <c r="E155" s="13" t="s">
         <v>112</v>
       </c>
@@ -12311,17 +12248,17 @@
       </c>
       <c r="I155" s="13"/>
       <c r="J155" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="28"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
       <c r="E156" s="14" t="s">
         <v>113</v>
       </c>
@@ -12329,7 +12266,7 @@
         <v>113</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H156" s="14">
         <v>11</v>
@@ -12338,44 +12275,44 @@
         <v>1</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K156" s="14"/>
       <c r="L156" s="14"/>
       <c r="M156" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="33">
+        <v>16</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D157" s="33" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="28">
-        <v>16</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="E157" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="F157" s="54"/>
-      <c r="G157" s="54"/>
-      <c r="H157" s="54"/>
-      <c r="I157" s="54"/>
-      <c r="J157" s="55"/>
+      <c r="E157" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="32"/>
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="28"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
       <c r="E158" s="13" t="s">
         <v>110</v>
       </c>
@@ -12390,17 +12327,17 @@
       </c>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
       <c r="E159" s="13" t="s">
         <v>115</v>
       </c>
@@ -12415,17 +12352,17 @@
       </c>
       <c r="I159" s="13"/>
       <c r="J159" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
       <c r="E160" s="13" t="s">
         <v>25</v>
       </c>
@@ -12440,42 +12377,42 @@
       </c>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="28">
+      <c r="A161" s="33">
         <v>17</v>
       </c>
-      <c r="B161" s="28" t="s">
+      <c r="B161" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="C161" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D161" s="28" t="s">
+      <c r="D161" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="E161" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="E161" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="F161" s="54"/>
-      <c r="G161" s="54"/>
-      <c r="H161" s="54"/>
-      <c r="I161" s="54"/>
-      <c r="J161" s="55"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="31"/>
+      <c r="J161" s="32"/>
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="28"/>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
       <c r="E162" s="13" t="s">
         <v>28</v>
       </c>
@@ -12490,17 +12427,17 @@
       </c>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="28"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
+      <c r="A163" s="33"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
       <c r="E163" s="13" t="s">
         <v>49</v>
       </c>
@@ -12515,42 +12452,42 @@
       </c>
       <c r="I163" s="13"/>
       <c r="J163" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="28">
+      <c r="A164" s="33">
         <v>18</v>
       </c>
-      <c r="B164" s="28" t="s">
+      <c r="B164" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C164" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="D164" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="E164" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="F164" s="54"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="55"/>
+      <c r="C164" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="E164" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
+      <c r="I164" s="31"/>
+      <c r="J164" s="32"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
       <c r="E165" s="13" t="s">
         <v>127</v>
       </c>
@@ -12565,17 +12502,17 @@
       </c>
       <c r="I165" s="13"/>
       <c r="J165" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="28"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
+      <c r="A166" s="33"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
       <c r="E166" s="13" t="s">
         <v>28</v>
       </c>
@@ -12590,17 +12527,17 @@
       </c>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
+      <c r="A167" s="33"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
       <c r="E167" s="13" t="s">
         <v>128</v>
       </c>
@@ -12615,17 +12552,17 @@
       </c>
       <c r="I167" s="13"/>
       <c r="J167" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
       <c r="E168" s="13" t="s">
         <v>75</v>
       </c>
@@ -12640,17 +12577,17 @@
       </c>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
+      <c r="A169" s="33"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
       <c r="E169" s="13" t="s">
         <v>81</v>
       </c>
@@ -12665,17 +12602,17 @@
       </c>
       <c r="I169" s="13"/>
       <c r="J169" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="A170" s="33"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
       <c r="E170" s="14" t="s">
         <v>39</v>
       </c>
@@ -12692,46 +12629,46 @@
         <v>0</v>
       </c>
       <c r="J170" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14"/>
       <c r="M170" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="A171" s="33"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
       <c r="E171" s="14" t="s">
         <v>110</v>
       </c>
       <c r="F171" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G171" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="G171" s="14" t="s">
-        <v>346</v>
       </c>
       <c r="H171" s="14">
         <v>20</v>
       </c>
       <c r="I171" s="14"/>
       <c r="J171" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14"/>
       <c r="M171" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
+      <c r="A172" s="33"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
       <c r="E172" s="14" t="s">
         <v>129</v>
       </c>
@@ -12746,19 +12683,19 @@
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
-      <c r="M172" s="25" t="s">
-        <v>476</v>
+      <c r="M172" s="60" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
+      <c r="A173" s="33"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
       <c r="E173" s="14" t="s">
         <v>130</v>
       </c>
@@ -12773,17 +12710,17 @@
       </c>
       <c r="I173" s="14"/>
       <c r="J173" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
-      <c r="M173" s="25"/>
+      <c r="M173" s="60"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
       <c r="E174" s="14" t="s">
         <v>131</v>
       </c>
@@ -12798,49 +12735,49 @@
       </c>
       <c r="I174" s="14"/>
       <c r="J174" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
-      <c r="M174" s="25"/>
+      <c r="M174" s="60"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="28"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
       <c r="E175" s="14" t="s">
         <v>125</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H175" s="14">
         <v>255</v>
       </c>
       <c r="I175" s="14"/>
       <c r="J175" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14"/>
       <c r="M175" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="28"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
       <c r="E176" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G176" s="14" t="s">
         <v>2</v>
@@ -12850,19 +12787,19 @@
       </c>
       <c r="I176" s="14"/>
       <c r="J176" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
       <c r="M176" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
+      <c r="A177" s="33"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
       <c r="E177" s="13" t="s">
         <v>132</v>
       </c>
@@ -12882,35 +12819,35 @@
       <c r="M177" s="13"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="46">
+      <c r="A178" s="50">
         <v>19</v>
       </c>
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C178" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D178" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="E178" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
+      <c r="C178" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D178" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="E178" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="F178" s="41"/>
+      <c r="G178" s="41"/>
+      <c r="H178" s="41"/>
+      <c r="I178" s="41"/>
+      <c r="J178" s="41"/>
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="13"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="47"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
+      <c r="A179" s="51"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
       <c r="E179" s="16" t="s">
         <v>164</v>
       </c>
@@ -12925,17 +12862,17 @@
       </c>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="13"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="47"/>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
+      <c r="A180" s="51"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
       <c r="E180" s="16" t="s">
         <v>42</v>
       </c>
@@ -12950,17 +12887,17 @@
       </c>
       <c r="I180" s="16"/>
       <c r="J180" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="13"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="47"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
+      <c r="A181" s="51"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
       <c r="E181" s="16" t="s">
         <v>165</v>
       </c>
@@ -12975,17 +12912,17 @@
       </c>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="13"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="47"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
+      <c r="A182" s="51"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="40"/>
       <c r="E182" s="16" t="s">
         <v>28</v>
       </c>
@@ -13000,17 +12937,17 @@
       </c>
       <c r="I182" s="16"/>
       <c r="J182" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="13"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="47"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
+      <c r="A183" s="51"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="40"/>
       <c r="E183" s="16" t="s">
         <v>45</v>
       </c>
@@ -13025,17 +12962,17 @@
       </c>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="13"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
+      <c r="A184" s="51"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
       <c r="E184" s="16" t="s">
         <v>166</v>
       </c>
@@ -13050,17 +12987,17 @@
       </c>
       <c r="I184" s="16"/>
       <c r="J184" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K184" s="16"/>
       <c r="L184" s="16"/>
       <c r="M184" s="13"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="47"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
+      <c r="A185" s="51"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="40"/>
       <c r="E185" s="16" t="s">
         <v>167</v>
       </c>
@@ -13075,17 +13012,17 @@
       </c>
       <c r="I185" s="16"/>
       <c r="J185" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K185" s="16"/>
       <c r="L185" s="16"/>
       <c r="M185" s="13"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="47"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
       <c r="E186" s="16" t="s">
         <v>46</v>
       </c>
@@ -13100,17 +13037,17 @@
       </c>
       <c r="I186" s="16"/>
       <c r="J186" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K186" s="16"/>
       <c r="L186" s="16"/>
       <c r="M186" s="13"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="47"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
+      <c r="A187" s="51"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="40"/>
       <c r="E187" s="16" t="s">
         <v>168</v>
       </c>
@@ -13125,17 +13062,17 @@
       </c>
       <c r="I187" s="16"/>
       <c r="J187" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K187" s="16"/>
       <c r="L187" s="16"/>
       <c r="M187" s="13"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="47"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
+      <c r="A188" s="51"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="40"/>
       <c r="E188" s="16" t="s">
         <v>47</v>
       </c>
@@ -13150,17 +13087,17 @@
       </c>
       <c r="I188" s="16"/>
       <c r="J188" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
       <c r="M188" s="13"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="47"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="40"/>
       <c r="E189" s="16" t="s">
         <v>169</v>
       </c>
@@ -13175,17 +13112,17 @@
       </c>
       <c r="I189" s="16"/>
       <c r="J189" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
       <c r="M189" s="13"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="47"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="40"/>
       <c r="E190" s="16" t="s">
         <v>80</v>
       </c>
@@ -13200,22 +13137,22 @@
       </c>
       <c r="I190" s="16"/>
       <c r="J190" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K190" s="16"/>
       <c r="L190" s="16"/>
       <c r="M190" s="13"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="47"/>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
+      <c r="A191" s="51"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="40"/>
       <c r="E191" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G191" s="17" t="s">
         <v>1</v>
@@ -13227,19 +13164,19 @@
         <v>0</v>
       </c>
       <c r="J191" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K191" s="17"/>
       <c r="L191" s="17"/>
       <c r="M191" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="47"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
+      <c r="A192" s="51"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="40"/>
       <c r="E192" s="16" t="s">
         <v>170</v>
       </c>
@@ -13254,17 +13191,17 @@
       </c>
       <c r="I192" s="16"/>
       <c r="J192" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K192" s="16"/>
       <c r="L192" s="16"/>
       <c r="M192" s="13"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="47"/>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
+      <c r="A193" s="51"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="40"/>
       <c r="E193" s="16" t="s">
         <v>171</v>
       </c>
@@ -13279,17 +13216,17 @@
       </c>
       <c r="I193" s="16"/>
       <c r="J193" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
       <c r="M193" s="13"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="47"/>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="29"/>
+      <c r="A194" s="51"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
       <c r="E194" s="16" t="s">
         <v>32</v>
       </c>
@@ -13304,17 +13241,17 @@
       </c>
       <c r="I194" s="16"/>
       <c r="J194" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
       <c r="M194" s="13"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="47"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
+      <c r="A195" s="51"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="40"/>
       <c r="E195" s="16" t="s">
         <v>48</v>
       </c>
@@ -13329,17 +13266,17 @@
       </c>
       <c r="I195" s="16"/>
       <c r="J195" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
       <c r="M195" s="13"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="47"/>
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="29"/>
+      <c r="A196" s="51"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
       <c r="E196" s="16" t="s">
         <v>25</v>
       </c>
@@ -13354,17 +13291,17 @@
       </c>
       <c r="I196" s="16"/>
       <c r="J196" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
       <c r="M196" s="13"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="47"/>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
+      <c r="A197" s="51"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="40"/>
       <c r="E197" s="16" t="s">
         <v>40</v>
       </c>
@@ -13379,17 +13316,17 @@
       </c>
       <c r="I197" s="16"/>
       <c r="J197" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
       <c r="M197" s="13"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="47"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
+      <c r="A198" s="51"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="40"/>
       <c r="E198" s="16" t="s">
         <v>172</v>
       </c>
@@ -13404,17 +13341,17 @@
       </c>
       <c r="I198" s="16"/>
       <c r="J198" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
       <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="47"/>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
+      <c r="A199" s="51"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
       <c r="E199" s="16" t="s">
         <v>173</v>
       </c>
@@ -13429,17 +13366,17 @@
       </c>
       <c r="I199" s="16"/>
       <c r="J199" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
       <c r="M199" s="13"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="47"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
+      <c r="A200" s="51"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
       <c r="E200" s="17" t="s">
         <v>174</v>
       </c>
@@ -13456,19 +13393,19 @@
         <v>0</v>
       </c>
       <c r="J200" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K200" s="17"/>
       <c r="L200" s="17"/>
       <c r="M200" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="47"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
+      <c r="A201" s="51"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
       <c r="E201" s="16" t="s">
         <v>175</v>
       </c>
@@ -13483,22 +13420,22 @@
       </c>
       <c r="I201" s="16"/>
       <c r="J201" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K201" s="16"/>
       <c r="L201" s="16"/>
       <c r="M201" s="13"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="47"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
+      <c r="A202" s="51"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
       <c r="E202" s="16" t="s">
         <v>176</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>7</v>
@@ -13508,17 +13445,17 @@
       </c>
       <c r="I202" s="16"/>
       <c r="J202" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
       <c r="M202" s="13"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="47"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
+      <c r="A203" s="51"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
       <c r="E203" s="17" t="s">
         <v>177</v>
       </c>
@@ -13535,96 +13472,96 @@
         <v>0</v>
       </c>
       <c r="J203" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K203" s="17"/>
       <c r="L203" s="17"/>
       <c r="M203" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="47"/>
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
+      <c r="A204" s="51"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
       <c r="E204" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H204" s="17">
         <v>11</v>
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K204" s="17"/>
       <c r="L204" s="17"/>
-      <c r="M204" s="26" t="s">
-        <v>547</v>
+      <c r="M204" s="55" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="47"/>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
+      <c r="A205" s="51"/>
+      <c r="B205" s="40"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
       <c r="E205" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H205" s="18">
         <v>255</v>
       </c>
       <c r="I205" s="18"/>
       <c r="J205" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K205" s="17"/>
       <c r="L205" s="17"/>
-      <c r="M205" s="26"/>
+      <c r="M205" s="55"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="47"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
+      <c r="A206" s="51"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
       <c r="E206" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G206" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H206" s="19">
         <v>255</v>
       </c>
       <c r="I206" s="19"/>
       <c r="J206" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K206" s="20"/>
       <c r="L206" s="20"/>
       <c r="M206" s="21"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="47"/>
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
+      <c r="A207" s="51"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
       <c r="E207" s="19" t="s">
         <v>178</v>
       </c>
@@ -13633,25 +13570,25 @@
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
       <c r="J207" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K207" s="20"/>
       <c r="L207" s="20"/>
       <c r="M207" s="21"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="47"/>
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
+      <c r="A208" s="51"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
       <c r="E208" s="18" t="s">
         <v>179</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G208" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H208" s="18">
         <v>11</v>
@@ -13660,19 +13597,19 @@
         <v>0</v>
       </c>
       <c r="J208" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K208" s="17"/>
       <c r="L208" s="17"/>
       <c r="M208" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="48"/>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="40"/>
       <c r="E209" s="19" t="s">
         <v>180</v>
       </c>
@@ -13686,39 +13623,39 @@
       <c r="K209" s="20"/>
       <c r="L209" s="20"/>
       <c r="M209" s="21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="50">
+        <v>20</v>
+      </c>
+      <c r="B210" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C210" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D210" s="40" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="46">
-        <v>20</v>
-      </c>
-      <c r="B210" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C210" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="D210" s="29" t="s">
+      <c r="E210" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="E210" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="27"/>
+      <c r="F210" s="41"/>
+      <c r="G210" s="41"/>
+      <c r="H210" s="41"/>
+      <c r="I210" s="41"/>
+      <c r="J210" s="41"/>
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
       <c r="M210" s="13"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="47"/>
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
+      <c r="A211" s="51"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="40"/>
+      <c r="D211" s="40"/>
       <c r="E211" s="16" t="s">
         <v>28</v>
       </c>
@@ -13733,17 +13670,17 @@
       </c>
       <c r="I211" s="16"/>
       <c r="J211" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
       <c r="M211" s="13"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="47"/>
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
+      <c r="A212" s="51"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
       <c r="E212" s="16" t="s">
         <v>49</v>
       </c>
@@ -13758,17 +13695,17 @@
       </c>
       <c r="I212" s="16"/>
       <c r="J212" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
       <c r="M212" s="13"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="47"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
+      <c r="A213" s="51"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
       <c r="E213" s="16" t="s">
         <v>80</v>
       </c>
@@ -13783,22 +13720,22 @@
       </c>
       <c r="I213" s="16"/>
       <c r="J213" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
       <c r="M213" s="13"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="47"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
+      <c r="A214" s="51"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="40"/>
+      <c r="D214" s="40"/>
       <c r="E214" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F214" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G214" s="17" t="s">
         <v>22</v>
@@ -13808,24 +13745,24 @@
       </c>
       <c r="I214" s="17"/>
       <c r="J214" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
-      <c r="M214" s="26" t="s">
-        <v>516</v>
+      <c r="M214" s="55" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="47"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
+      <c r="A215" s="51"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
       <c r="E215" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G215" s="17" t="s">
         <v>22</v>
@@ -13835,22 +13772,22 @@
       </c>
       <c r="I215" s="17"/>
       <c r="J215" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K215" s="17"/>
       <c r="L215" s="17"/>
-      <c r="M215" s="26"/>
+      <c r="M215" s="55"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="47"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
+      <c r="A216" s="51"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="40"/>
       <c r="E216" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G216" s="17" t="s">
         <v>22</v>
@@ -13860,17 +13797,17 @@
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K216" s="17"/>
       <c r="L216" s="17"/>
-      <c r="M216" s="26"/>
+      <c r="M216" s="55"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="47"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
       <c r="E217" s="17" t="s">
         <v>199</v>
       </c>
@@ -13887,19 +13824,19 @@
         <v>0</v>
       </c>
       <c r="J217" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K217" s="17"/>
       <c r="L217" s="17"/>
       <c r="M217" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="47"/>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
+      <c r="A218" s="51"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
       <c r="E218" s="17" t="s">
         <v>110</v>
       </c>
@@ -13907,26 +13844,26 @@
         <v>110</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H218" s="17">
         <v>20</v>
       </c>
       <c r="I218" s="17"/>
       <c r="J218" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K218" s="17"/>
       <c r="L218" s="17"/>
-      <c r="M218" s="26" t="s">
-        <v>564</v>
+      <c r="M218" s="55" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="48"/>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
       <c r="E219" s="17" t="s">
         <v>201</v>
       </c>
@@ -13934,54 +13871,54 @@
         <v>201</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H219" s="17">
         <v>20</v>
       </c>
       <c r="I219" s="17"/>
       <c r="J219" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K219" s="17"/>
       <c r="L219" s="17"/>
-      <c r="M219" s="26"/>
+      <c r="M219" s="55"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="46">
+      <c r="A220" s="50">
         <v>21</v>
       </c>
-      <c r="B220" s="29" t="s">
+      <c r="B220" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C220" s="29" t="s">
+      <c r="C220" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D220" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E220" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
+      <c r="D220" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="E220" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="F220" s="41"/>
+      <c r="G220" s="41"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="41"/>
+      <c r="J220" s="41"/>
       <c r="K220" s="16"/>
       <c r="L220" s="16"/>
       <c r="M220" s="13"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="47"/>
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="29"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="40"/>
+      <c r="D221" s="40"/>
       <c r="E221" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>22</v>
@@ -13991,19 +13928,19 @@
       </c>
       <c r="I221" s="17"/>
       <c r="J221" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K221" s="17"/>
       <c r="L221" s="17"/>
       <c r="M221" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="47"/>
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
+      <c r="A222" s="51"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
       <c r="E222" s="16" t="s">
         <v>203</v>
       </c>
@@ -14018,22 +13955,22 @@
       </c>
       <c r="I222" s="16"/>
       <c r="J222" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K222" s="16"/>
       <c r="L222" s="16"/>
       <c r="M222" s="13"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="47"/>
-      <c r="B223" s="29"/>
-      <c r="C223" s="29"/>
-      <c r="D223" s="29"/>
+      <c r="A223" s="51"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
       <c r="E223" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F223" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>3</v>
@@ -14043,17 +13980,17 @@
       </c>
       <c r="I223" s="16"/>
       <c r="J223" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K223" s="16"/>
       <c r="L223" s="16"/>
       <c r="M223" s="13"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="47"/>
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
-      <c r="D224" s="29"/>
+      <c r="A224" s="51"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
       <c r="E224" s="16" t="s">
         <v>205</v>
       </c>
@@ -14068,19 +14005,19 @@
       </c>
       <c r="I224" s="16"/>
       <c r="J224" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
       <c r="M224" s="13"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="47"/>
-      <c r="B225" s="29"/>
-      <c r="C225" s="29"/>
-      <c r="D225" s="29"/>
+      <c r="A225" s="51"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="40"/>
+      <c r="D225" s="40"/>
       <c r="E225" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F225" s="16" t="s">
         <v>206</v>
@@ -14093,25 +14030,25 @@
       </c>
       <c r="I225" s="16"/>
       <c r="J225" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K225" s="16"/>
       <c r="L225" s="16"/>
       <c r="M225" s="13"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="48"/>
-      <c r="B226" s="29"/>
-      <c r="C226" s="29"/>
-      <c r="D226" s="29"/>
+      <c r="A226" s="52"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="40"/>
+      <c r="D226" s="40"/>
       <c r="E226" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H226" s="17">
         <v>11</v>
@@ -14120,44 +14057,44 @@
         <v>0</v>
       </c>
       <c r="J226" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K226" s="17"/>
       <c r="L226" s="17"/>
       <c r="M226" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="46">
+      <c r="A227" s="50">
         <v>22</v>
       </c>
-      <c r="B227" s="29" t="s">
+      <c r="B227" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C227" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="D227" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="E227" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
+      <c r="C227" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D227" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="E227" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="F227" s="41"/>
+      <c r="G227" s="41"/>
+      <c r="H227" s="41"/>
+      <c r="I227" s="41"/>
+      <c r="J227" s="41"/>
       <c r="K227" s="16"/>
       <c r="L227" s="16"/>
       <c r="M227" s="13"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="47"/>
-      <c r="B228" s="29"/>
-      <c r="C228" s="29"/>
-      <c r="D228" s="29"/>
+      <c r="A228" s="51"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="40"/>
+      <c r="D228" s="40"/>
       <c r="E228" s="16" t="s">
         <v>182</v>
       </c>
@@ -14172,17 +14109,17 @@
       </c>
       <c r="I228" s="16"/>
       <c r="J228" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K228" s="16"/>
       <c r="L228" s="16"/>
       <c r="M228" s="13"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="47"/>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="40"/>
+      <c r="D229" s="40"/>
       <c r="E229" s="16" t="s">
         <v>183</v>
       </c>
@@ -14197,17 +14134,17 @@
       </c>
       <c r="I229" s="16"/>
       <c r="J229" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K229" s="16"/>
       <c r="L229" s="16"/>
       <c r="M229" s="13"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="47"/>
-      <c r="B230" s="29"/>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29"/>
+      <c r="A230" s="51"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="40"/>
+      <c r="D230" s="40"/>
       <c r="E230" s="16" t="s">
         <v>184</v>
       </c>
@@ -14222,17 +14159,17 @@
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K230" s="16"/>
       <c r="L230" s="16"/>
       <c r="M230" s="13"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="47"/>
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29"/>
+      <c r="A231" s="51"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="40"/>
+      <c r="D231" s="40"/>
       <c r="E231" s="16" t="s">
         <v>185</v>
       </c>
@@ -14247,17 +14184,17 @@
       </c>
       <c r="I231" s="16"/>
       <c r="J231" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K231" s="16"/>
       <c r="L231" s="16"/>
       <c r="M231" s="13"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="47"/>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
+      <c r="A232" s="51"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="40"/>
+      <c r="D232" s="40"/>
       <c r="E232" s="16" t="s">
         <v>186</v>
       </c>
@@ -14272,17 +14209,17 @@
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K232" s="16"/>
       <c r="L232" s="16"/>
       <c r="M232" s="13"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="47"/>
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
+      <c r="A233" s="51"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="40"/>
+      <c r="D233" s="40"/>
       <c r="E233" s="16" t="s">
         <v>187</v>
       </c>
@@ -14297,17 +14234,17 @@
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K233" s="16"/>
       <c r="L233" s="16"/>
       <c r="M233" s="13"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="47"/>
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
+      <c r="A234" s="51"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="40"/>
       <c r="E234" s="16" t="s">
         <v>188</v>
       </c>
@@ -14322,17 +14259,17 @@
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K234" s="16"/>
       <c r="L234" s="16"/>
       <c r="M234" s="13"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="47"/>
-      <c r="B235" s="29"/>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
+      <c r="A235" s="51"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
       <c r="E235" s="16" t="s">
         <v>189</v>
       </c>
@@ -14347,17 +14284,17 @@
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K235" s="16"/>
       <c r="L235" s="16"/>
       <c r="M235" s="13"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="47"/>
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
+      <c r="A236" s="51"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="40"/>
       <c r="E236" s="20" t="s">
         <v>5</v>
       </c>
@@ -14377,10 +14314,10 @@
       <c r="M236" s="13"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="47"/>
-      <c r="B237" s="29"/>
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
+      <c r="A237" s="51"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="40"/>
       <c r="E237" s="16" t="s">
         <v>190</v>
       </c>
@@ -14395,17 +14332,17 @@
       </c>
       <c r="I237" s="16"/>
       <c r="J237" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K237" s="16"/>
       <c r="L237" s="16"/>
       <c r="M237" s="13"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="47"/>
-      <c r="B238" s="29"/>
-      <c r="C238" s="29"/>
-      <c r="D238" s="29"/>
+      <c r="A238" s="51"/>
+      <c r="B238" s="40"/>
+      <c r="C238" s="40"/>
+      <c r="D238" s="40"/>
       <c r="E238" s="16" t="s">
         <v>191</v>
       </c>
@@ -14420,17 +14357,17 @@
       </c>
       <c r="I238" s="16"/>
       <c r="J238" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K238" s="16"/>
       <c r="L238" s="16"/>
       <c r="M238" s="13"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="47"/>
-      <c r="B239" s="29"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="29"/>
+      <c r="A239" s="51"/>
+      <c r="B239" s="40"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
       <c r="E239" s="16" t="s">
         <v>192</v>
       </c>
@@ -14445,17 +14382,17 @@
       </c>
       <c r="I239" s="16"/>
       <c r="J239" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K239" s="16"/>
       <c r="L239" s="16"/>
       <c r="M239" s="13"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="47"/>
-      <c r="B240" s="29"/>
-      <c r="C240" s="29"/>
-      <c r="D240" s="29"/>
+      <c r="A240" s="51"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="40"/>
+      <c r="D240" s="40"/>
       <c r="E240" s="17" t="s">
         <v>193</v>
       </c>
@@ -14472,19 +14409,19 @@
         <v>0</v>
       </c>
       <c r="J240" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K240" s="17"/>
       <c r="L240" s="17"/>
-      <c r="M240" s="26" t="s">
-        <v>587</v>
+      <c r="M240" s="55" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="48"/>
-      <c r="B241" s="29"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="29"/>
+      <c r="A241" s="52"/>
+      <c r="B241" s="40"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="40"/>
       <c r="E241" s="17" t="s">
         <v>194</v>
       </c>
@@ -14501,42 +14438,42 @@
         <v>1</v>
       </c>
       <c r="J241" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K241" s="17"/>
       <c r="L241" s="17"/>
-      <c r="M241" s="26"/>
+      <c r="M241" s="55"/>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="46">
+      <c r="A242" s="50">
         <v>23</v>
       </c>
-      <c r="B242" s="29" t="s">
+      <c r="B242" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="C242" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="D242" s="29" t="s">
+      <c r="D242" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="E242" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="E242" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="F242" s="27"/>
-      <c r="G242" s="27"/>
-      <c r="H242" s="27"/>
-      <c r="I242" s="27"/>
-      <c r="J242" s="27"/>
+      <c r="F242" s="41"/>
+      <c r="G242" s="41"/>
+      <c r="H242" s="41"/>
+      <c r="I242" s="41"/>
+      <c r="J242" s="41"/>
       <c r="K242" s="16"/>
       <c r="L242" s="16"/>
       <c r="M242" s="13"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="47"/>
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
+      <c r="A243" s="51"/>
+      <c r="B243" s="40"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="40"/>
       <c r="E243" s="16" t="s">
         <v>190</v>
       </c>
@@ -14551,17 +14488,17 @@
       </c>
       <c r="I243" s="16"/>
       <c r="J243" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K243" s="16"/>
       <c r="L243" s="16"/>
       <c r="M243" s="13"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="47"/>
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
+      <c r="A244" s="51"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="40"/>
+      <c r="D244" s="40"/>
       <c r="E244" s="16" t="s">
         <v>196</v>
       </c>
@@ -14576,17 +14513,17 @@
       </c>
       <c r="I244" s="16"/>
       <c r="J244" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K244" s="16"/>
       <c r="L244" s="16"/>
       <c r="M244" s="13"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="48"/>
-      <c r="B245" s="29"/>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
+      <c r="A245" s="52"/>
+      <c r="B245" s="40"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="40"/>
       <c r="E245" s="16" t="s">
         <v>197</v>
       </c>
@@ -14601,45 +14538,45 @@
       </c>
       <c r="I245" s="16"/>
       <c r="J245" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K245" s="16"/>
       <c r="L245" s="16"/>
       <c r="M245" s="13"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="31">
+      <c r="A246" s="56">
         <v>24</v>
       </c>
-      <c r="B246" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="C246" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="D246" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="E246" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="F246" s="27"/>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
-      <c r="I246" s="27"/>
-      <c r="J246" s="27"/>
+      <c r="B246" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C246" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="D246" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="E246" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="F246" s="41"/>
+      <c r="G246" s="41"/>
+      <c r="H246" s="41"/>
+      <c r="I246" s="41"/>
+      <c r="J246" s="41"/>
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="32"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="32"/>
-      <c r="D247" s="32"/>
+      <c r="A247" s="57"/>
+      <c r="B247" s="33"/>
+      <c r="C247" s="57"/>
+      <c r="D247" s="57"/>
       <c r="E247" s="13"/>
       <c r="F247" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G247" s="23" t="s">
         <v>22</v>
@@ -14649,20 +14586,20 @@
       </c>
       <c r="I247" s="23"/>
       <c r="J247" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K247" s="13"/>
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="32"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="32"/>
+      <c r="A248" s="57"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="57"/>
+      <c r="D248" s="57"/>
       <c r="E248" s="13"/>
       <c r="F248" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G248" s="23" t="s">
         <v>22</v>
@@ -14672,20 +14609,20 @@
       </c>
       <c r="I248" s="23"/>
       <c r="J248" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="32"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
+      <c r="A249" s="57"/>
+      <c r="B249" s="33"/>
+      <c r="C249" s="57"/>
+      <c r="D249" s="57"/>
       <c r="E249" s="13"/>
       <c r="F249" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G249" s="23" t="s">
         <v>22</v>
@@ -14695,20 +14632,20 @@
       </c>
       <c r="I249" s="23"/>
       <c r="J249" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K249" s="13"/>
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="32"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
+      <c r="A250" s="57"/>
+      <c r="B250" s="33"/>
+      <c r="C250" s="57"/>
+      <c r="D250" s="57"/>
       <c r="E250" s="13"/>
       <c r="F250" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G250" s="23" t="s">
         <v>22</v>
@@ -14718,20 +14655,20 @@
       </c>
       <c r="I250" s="23"/>
       <c r="J250" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="32"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="32"/>
+      <c r="A251" s="57"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="57"/>
       <c r="E251" s="13"/>
       <c r="F251" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G251" s="23" t="s">
         <v>22</v>
@@ -14741,17 +14678,17 @@
       </c>
       <c r="I251" s="23"/>
       <c r="J251" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="32"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
+      <c r="A252" s="57"/>
+      <c r="B252" s="33"/>
+      <c r="C252" s="57"/>
+      <c r="D252" s="57"/>
       <c r="E252" s="13"/>
       <c r="F252" s="23" t="s">
         <v>127</v>
@@ -14764,40 +14701,40 @@
       </c>
       <c r="I252" s="23"/>
       <c r="J252" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="32"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
+      <c r="A253" s="57"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="57"/>
       <c r="E253" s="13"/>
       <c r="F253" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="G253" s="23" t="s">
         <v>306</v>
-      </c>
-      <c r="G253" s="23" t="s">
-        <v>307</v>
       </c>
       <c r="H253" s="23">
         <v>20</v>
       </c>
       <c r="I253" s="23"/>
       <c r="J253" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="32"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="32"/>
-      <c r="D254" s="32"/>
+      <c r="A254" s="57"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
       <c r="E254" s="13"/>
       <c r="F254" s="23" t="s">
         <v>46</v>
@@ -14810,17 +14747,17 @@
       </c>
       <c r="I254" s="23"/>
       <c r="J254" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="32"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32"/>
+      <c r="A255" s="57"/>
+      <c r="B255" s="33"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="57"/>
       <c r="E255" s="13"/>
       <c r="F255" s="23" t="s">
         <v>105</v>
@@ -14833,68 +14770,68 @@
       </c>
       <c r="I255" s="23"/>
       <c r="J255" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="28">
+      <c r="A256" s="33">
         <v>25</v>
       </c>
-      <c r="B256" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C256" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="D256" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="E256" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
+      <c r="B256" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C256" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D256" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="E256" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="F256" s="41"/>
+      <c r="G256" s="41"/>
+      <c r="H256" s="41"/>
+      <c r="I256" s="41"/>
+      <c r="J256" s="41"/>
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
+      <c r="A257" s="33"/>
+      <c r="B257" s="33"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="33"/>
       <c r="E257" s="13"/>
       <c r="F257" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H257" s="13">
         <v>20</v>
       </c>
       <c r="I257" s="13"/>
       <c r="J257" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K257" s="13"/>
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
+      <c r="A258" s="33"/>
+      <c r="B258" s="33"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="33"/>
       <c r="E258" s="13"/>
       <c r="F258" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G258" s="23" t="s">
         <v>22</v>
@@ -14903,21 +14840,21 @@
         <v>255</v>
       </c>
       <c r="I258" s="23"/>
-      <c r="J258" s="60" t="s">
-        <v>645</v>
+      <c r="J258" s="25" t="s">
+        <v>644</v>
       </c>
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="28"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
+      <c r="A259" s="33"/>
+      <c r="B259" s="33"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="33"/>
       <c r="E259" s="13"/>
       <c r="F259" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G259" s="23" t="s">
         <v>22</v>
@@ -14927,20 +14864,20 @@
       </c>
       <c r="I259" s="23"/>
       <c r="J259" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K259" s="13"/>
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="28"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
+      <c r="A260" s="33"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="33"/>
       <c r="E260" s="13"/>
       <c r="F260" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G260" s="23" t="s">
         <v>22</v>
@@ -14950,20 +14887,20 @@
       </c>
       <c r="I260" s="23"/>
       <c r="J260" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
+      <c r="A261" s="33"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
       <c r="E261" s="13"/>
       <c r="F261" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G261" s="23" t="s">
         <v>22</v>
@@ -14973,20 +14910,20 @@
       </c>
       <c r="I261" s="23"/>
       <c r="J261" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="28"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="28"/>
+      <c r="A262" s="33"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
       <c r="E262" s="13"/>
       <c r="F262" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G262" s="23" t="s">
         <v>22</v>
@@ -14996,42 +14933,42 @@
       </c>
       <c r="I262" s="23"/>
       <c r="J262" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="28">
+      <c r="A263" s="33">
         <v>26</v>
       </c>
-      <c r="B263" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C263" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D263" s="28" t="s">
+      <c r="B263" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C263" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="E263" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="E263" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="F263" s="27"/>
-      <c r="G263" s="27"/>
-      <c r="H263" s="27"/>
-      <c r="I263" s="27"/>
-      <c r="J263" s="27"/>
+      <c r="F263" s="41"/>
+      <c r="G263" s="41"/>
+      <c r="H263" s="41"/>
+      <c r="I263" s="41"/>
+      <c r="J263" s="41"/>
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="28"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="28"/>
+      <c r="A264" s="33"/>
+      <c r="B264" s="33"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="33"/>
       <c r="E264" s="13"/>
       <c r="F264" s="13" t="s">
         <v>85</v>
@@ -15044,20 +14981,20 @@
       </c>
       <c r="I264" s="13"/>
       <c r="J264" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="28"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="28"/>
+      <c r="A265" s="33"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
       <c r="E265" s="13"/>
       <c r="F265" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G265" s="23" t="s">
         <v>22</v>
@@ -15067,17 +15004,17 @@
       </c>
       <c r="I265" s="23"/>
       <c r="J265" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K265" s="13"/>
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="28"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
+      <c r="A266" s="33"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
       <c r="E266" s="13"/>
       <c r="F266" s="23" t="s">
         <v>90</v>
@@ -15090,20 +15027,20 @@
       </c>
       <c r="I266" s="23"/>
       <c r="J266" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="28"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="28"/>
+      <c r="A267" s="33"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
       <c r="E267" s="13"/>
       <c r="F267" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G267" s="23" t="s">
         <v>22</v>
@@ -15113,20 +15050,20 @@
       </c>
       <c r="I267" s="23"/>
       <c r="J267" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="28"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="28"/>
+      <c r="A268" s="33"/>
+      <c r="B268" s="33"/>
+      <c r="C268" s="33"/>
+      <c r="D268" s="33"/>
       <c r="E268" s="13"/>
       <c r="F268" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G268" s="23" t="s">
         <v>22</v>
@@ -15136,20 +15073,20 @@
       </c>
       <c r="I268" s="23"/>
       <c r="J268" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="28"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
+      <c r="A269" s="33"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
       <c r="E269" s="13"/>
       <c r="F269" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G269" s="23" t="s">
         <v>22</v>
@@ -15159,20 +15096,20 @@
       </c>
       <c r="I269" s="23"/>
       <c r="J269" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="28"/>
-      <c r="B270" s="28"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="28"/>
+      <c r="A270" s="33"/>
+      <c r="B270" s="33"/>
+      <c r="C270" s="33"/>
+      <c r="D270" s="33"/>
       <c r="E270" s="13"/>
       <c r="F270" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G270" s="23" t="s">
         <v>22</v>
@@ -15182,20 +15119,20 @@
       </c>
       <c r="I270" s="23"/>
       <c r="J270" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="28"/>
-      <c r="B271" s="28"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="28"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
       <c r="E271" s="13"/>
       <c r="F271" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G271" s="23" t="s">
         <v>22</v>
@@ -15205,20 +15142,20 @@
       </c>
       <c r="I271" s="23"/>
       <c r="J271" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="28"/>
-      <c r="B272" s="28"/>
-      <c r="C272" s="28"/>
-      <c r="D272" s="28"/>
+      <c r="A272" s="33"/>
+      <c r="B272" s="33"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
       <c r="E272" s="13"/>
       <c r="F272" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G272" s="23" t="s">
         <v>22</v>
@@ -15228,20 +15165,20 @@
       </c>
       <c r="I272" s="23"/>
       <c r="J272" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="28"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="28"/>
+      <c r="A273" s="33"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
       <c r="E273" s="13"/>
       <c r="F273" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G273" s="23" t="s">
         <v>22</v>
@@ -15251,20 +15188,20 @@
       </c>
       <c r="I273" s="23"/>
       <c r="J273" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K273" s="13"/>
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="28"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="28"/>
-      <c r="D274" s="28"/>
+      <c r="A274" s="33"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="33"/>
+      <c r="D274" s="33"/>
       <c r="E274" s="13"/>
       <c r="F274" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G274" s="23" t="s">
         <v>22</v>
@@ -15274,17 +15211,17 @@
       </c>
       <c r="I274" s="23"/>
       <c r="J274" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="28"/>
-      <c r="B275" s="28"/>
-      <c r="C275" s="28"/>
-      <c r="D275" s="28"/>
+      <c r="A275" s="33"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="33"/>
+      <c r="D275" s="33"/>
       <c r="E275" s="13"/>
       <c r="F275" s="23" t="s">
         <v>104</v>
@@ -15297,20 +15234,20 @@
       </c>
       <c r="I275" s="23"/>
       <c r="J275" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K275" s="13"/>
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="28"/>
-      <c r="B276" s="28"/>
-      <c r="C276" s="28"/>
-      <c r="D276" s="28"/>
+      <c r="A276" s="33"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="33"/>
+      <c r="D276" s="33"/>
       <c r="E276" s="13"/>
       <c r="F276" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G276" s="23" t="s">
         <v>22</v>
@@ -15320,17 +15257,17 @@
       </c>
       <c r="I276" s="23"/>
       <c r="J276" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="28"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="28"/>
+      <c r="A277" s="33"/>
+      <c r="B277" s="33"/>
+      <c r="C277" s="33"/>
+      <c r="D277" s="33"/>
       <c r="E277" s="13"/>
       <c r="F277" s="23" t="s">
         <v>100</v>
@@ -15343,20 +15280,20 @@
       </c>
       <c r="I277" s="23"/>
       <c r="J277" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K277" s="13"/>
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="28"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="28"/>
-      <c r="D278" s="28"/>
+      <c r="A278" s="33"/>
+      <c r="B278" s="33"/>
+      <c r="C278" s="33"/>
+      <c r="D278" s="33"/>
       <c r="E278" s="13"/>
       <c r="F278" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G278" s="23" t="s">
         <v>22</v>
@@ -15366,20 +15303,20 @@
       </c>
       <c r="I278" s="23"/>
       <c r="J278" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="28"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="28"/>
+      <c r="A279" s="33"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
       <c r="E279" s="13"/>
       <c r="F279" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G279" s="23" t="s">
         <v>22</v>
@@ -15389,20 +15326,20 @@
       </c>
       <c r="I279" s="23"/>
       <c r="J279" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K279" s="13"/>
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="28"/>
-      <c r="B280" s="28"/>
-      <c r="C280" s="28"/>
-      <c r="D280" s="28"/>
+      <c r="A280" s="33"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
       <c r="E280" s="13"/>
       <c r="F280" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G280" s="23" t="s">
         <v>22</v>
@@ -15412,20 +15349,20 @@
       </c>
       <c r="I280" s="23"/>
       <c r="J280" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="28"/>
-      <c r="B281" s="28"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="28"/>
+      <c r="A281" s="33"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
       <c r="E281" s="13"/>
       <c r="F281" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G281" s="23" t="s">
         <v>7</v>
@@ -15435,23 +15372,23 @@
       </c>
       <c r="I281" s="23"/>
       <c r="J281" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="28"/>
-      <c r="B282" s="28"/>
-      <c r="C282" s="28"/>
-      <c r="D282" s="28"/>
+      <c r="A282" s="33"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
       <c r="E282" s="14"/>
       <c r="F282" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G282" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H282" s="24">
         <v>11</v>
@@ -15460,25 +15397,25 @@
         <v>0</v>
       </c>
       <c r="J282" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K282" s="14"/>
       <c r="L282" s="14"/>
       <c r="M282" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="28"/>
-      <c r="B283" s="28"/>
-      <c r="C283" s="28"/>
-      <c r="D283" s="28"/>
+      <c r="A283" s="33"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="33"/>
+      <c r="D283" s="33"/>
       <c r="E283" s="14"/>
       <c r="F283" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G283" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H283" s="24">
         <v>11</v>
@@ -15487,25 +15424,25 @@
         <v>0</v>
       </c>
       <c r="J283" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K283" s="14"/>
       <c r="L283" s="14"/>
       <c r="M283" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="28"/>
-      <c r="B284" s="28"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="28"/>
+      <c r="A284" s="33"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
       <c r="E284" s="14"/>
       <c r="F284" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G284" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H284" s="24">
         <v>11</v>
@@ -15514,22 +15451,22 @@
         <v>0</v>
       </c>
       <c r="J284" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K284" s="14"/>
       <c r="L284" s="14"/>
       <c r="M284" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="28"/>
-      <c r="B285" s="28"/>
-      <c r="C285" s="28"/>
-      <c r="D285" s="28"/>
+      <c r="A285" s="33"/>
+      <c r="B285" s="33"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
       <c r="E285" s="14"/>
       <c r="F285" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G285" s="24" t="s">
         <v>1</v>
@@ -15541,22 +15478,22 @@
         <v>0</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K285" s="14"/>
       <c r="L285" s="14"/>
       <c r="M285" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="28"/>
-      <c r="B286" s="28"/>
-      <c r="C286" s="28"/>
-      <c r="D286" s="28"/>
+      <c r="A286" s="33"/>
+      <c r="B286" s="33"/>
+      <c r="C286" s="33"/>
+      <c r="D286" s="33"/>
       <c r="E286" s="13"/>
       <c r="F286" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G286" s="23" t="s">
         <v>1</v>
@@ -15566,45 +15503,45 @@
       </c>
       <c r="I286" s="23"/>
       <c r="J286" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="13"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="28"/>
-      <c r="B287" s="28"/>
-      <c r="C287" s="28"/>
-      <c r="D287" s="28"/>
+      <c r="A287" s="33"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="33"/>
+      <c r="D287" s="33"/>
       <c r="E287" s="14"/>
       <c r="F287" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G287" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H287" s="24">
         <v>11</v>
       </c>
       <c r="I287" s="24"/>
       <c r="J287" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K287" s="14"/>
       <c r="L287" s="14"/>
       <c r="M287" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="28"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="28"/>
-      <c r="D288" s="28"/>
+      <c r="A288" s="33"/>
+      <c r="B288" s="33"/>
+      <c r="C288" s="33"/>
+      <c r="D288" s="33"/>
       <c r="E288" s="13"/>
       <c r="F288" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G288" s="23" t="s">
         <v>22</v>
@@ -15614,17 +15551,17 @@
       </c>
       <c r="I288" s="23"/>
       <c r="J288" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="13"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="28"/>
-      <c r="B289" s="28"/>
-      <c r="C289" s="28"/>
-      <c r="D289" s="28"/>
+      <c r="A289" s="33"/>
+      <c r="B289" s="33"/>
+      <c r="C289" s="33"/>
+      <c r="D289" s="33"/>
       <c r="E289" s="13"/>
       <c r="F289" s="23" t="s">
         <v>108</v>
@@ -15637,17 +15574,17 @@
       </c>
       <c r="I289" s="23"/>
       <c r="J289" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="28"/>
-      <c r="B290" s="28"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="28"/>
+      <c r="A290" s="33"/>
+      <c r="B290" s="33"/>
+      <c r="C290" s="33"/>
+      <c r="D290" s="33"/>
       <c r="E290" s="13"/>
       <c r="F290" s="23" t="s">
         <v>102</v>
@@ -15660,7 +15597,7 @@
       </c>
       <c r="I290" s="23"/>
       <c r="J290" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
@@ -15673,26 +15610,101 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="139">
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="B57:B83"/>
-    <mergeCell ref="C57:C83"/>
-    <mergeCell ref="D57:D83"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="M172:M174"/>
+    <mergeCell ref="M218:M219"/>
+    <mergeCell ref="M240:M241"/>
+    <mergeCell ref="E263:J263"/>
+    <mergeCell ref="D263:D290"/>
+    <mergeCell ref="C263:C290"/>
+    <mergeCell ref="B263:B290"/>
+    <mergeCell ref="A263:A290"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="E242:J242"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="E210:J210"/>
+    <mergeCell ref="B178:B209"/>
+    <mergeCell ref="C178:C209"/>
+    <mergeCell ref="D178:D209"/>
+    <mergeCell ref="E178:J178"/>
+    <mergeCell ref="B227:B241"/>
+    <mergeCell ref="C227:C241"/>
+    <mergeCell ref="D227:D241"/>
+    <mergeCell ref="E227:J227"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="M31:M49"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M214:M216"/>
+    <mergeCell ref="E246:J246"/>
+    <mergeCell ref="D246:D255"/>
+    <mergeCell ref="C246:C255"/>
+    <mergeCell ref="A246:A255"/>
+    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="E256:J256"/>
+    <mergeCell ref="D256:D262"/>
+    <mergeCell ref="C256:C262"/>
+    <mergeCell ref="B256:B262"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="B31:B49"/>
+    <mergeCell ref="C31:C49"/>
+    <mergeCell ref="D31:D49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E126:J126"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="D114:D120"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A164:A177"/>
+    <mergeCell ref="A89:A113"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A31:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A227:A241"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A57:A83"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A178:A209"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="A210:A219"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="D121:D125"/>
+    <mergeCell ref="E121:J121"/>
+    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="E220:J220"/>
+    <mergeCell ref="B164:B177"/>
+    <mergeCell ref="C164:C177"/>
+    <mergeCell ref="D164:D177"/>
+    <mergeCell ref="E164:J164"/>
+    <mergeCell ref="E151:J151"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="D157:D160"/>
+    <mergeCell ref="E157:J157"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="E142:J142"/>
+    <mergeCell ref="B210:B219"/>
+    <mergeCell ref="C210:C219"/>
     <mergeCell ref="E161:J161"/>
     <mergeCell ref="E148:J148"/>
     <mergeCell ref="B151:B156"/>
@@ -15717,101 +15729,26 @@
     <mergeCell ref="D126:D131"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E89:J89"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="D121:D125"/>
-    <mergeCell ref="E121:J121"/>
-    <mergeCell ref="E132:J132"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="E220:J220"/>
-    <mergeCell ref="B164:B177"/>
-    <mergeCell ref="C164:C177"/>
-    <mergeCell ref="D164:D177"/>
-    <mergeCell ref="E164:J164"/>
-    <mergeCell ref="E151:J151"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="D157:D160"/>
-    <mergeCell ref="E157:J157"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="E142:J142"/>
-    <mergeCell ref="B210:B219"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A164:A177"/>
-    <mergeCell ref="A89:A113"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A31:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="A227:A241"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A57:A83"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A178:A209"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="A210:A219"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="M31:M49"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M214:M216"/>
-    <mergeCell ref="E246:J246"/>
-    <mergeCell ref="D246:D255"/>
-    <mergeCell ref="C246:C255"/>
-    <mergeCell ref="A246:A255"/>
-    <mergeCell ref="B246:B255"/>
-    <mergeCell ref="E256:J256"/>
-    <mergeCell ref="D256:D262"/>
-    <mergeCell ref="C256:C262"/>
-    <mergeCell ref="B256:B262"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="B31:B49"/>
-    <mergeCell ref="C31:C49"/>
-    <mergeCell ref="D31:D49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E126:J126"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="D114:D120"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="M172:M174"/>
-    <mergeCell ref="M218:M219"/>
-    <mergeCell ref="M240:M241"/>
-    <mergeCell ref="E263:J263"/>
-    <mergeCell ref="D263:D290"/>
-    <mergeCell ref="C263:C290"/>
-    <mergeCell ref="B263:B290"/>
-    <mergeCell ref="A263:A290"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="E242:J242"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="E210:J210"/>
-    <mergeCell ref="B178:B209"/>
-    <mergeCell ref="C178:C209"/>
-    <mergeCell ref="D178:D209"/>
-    <mergeCell ref="E178:J178"/>
-    <mergeCell ref="B227:B241"/>
-    <mergeCell ref="C227:C241"/>
-    <mergeCell ref="D227:D241"/>
-    <mergeCell ref="E227:J227"/>
-    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="B57:B83"/>
+    <mergeCell ref="C57:C83"/>
+    <mergeCell ref="D57:D83"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/中企动力/数据库结构-详细设计文档/微服务 - 公共库.xlsx
+++ b/中企动力/数据库结构-详细设计文档/微服务 - 公共库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="650">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7612,6 +7612,78 @@
   </si>
   <si>
     <t>节点类型。1.条件。2.时间。3.动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外部应用权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>(CRM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限、门店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩后期添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7619,7 +7691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7684,6 +7756,13 @@
       <sz val="12"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7846,7 +7925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7919,53 +7998,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8003,28 +8076,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8348,11 +8430,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:M291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8412,12 +8494,12 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8439,10 +8521,10 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -8462,10 +8544,10 @@
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
@@ -8485,10 +8567,10 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="11" t="s">
         <v>359</v>
       </c>
@@ -8512,10 +8594,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
@@ -8533,10 +8615,10 @@
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
         <v>14</v>
@@ -8560,10 +8642,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
         <v>360</v>
@@ -8583,35 +8665,35 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="2" t="s">
         <v>80</v>
       </c>
@@ -8633,10 +8715,10 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
@@ -8658,10 +8740,10 @@
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="2" t="s">
         <v>296</v>
       </c>
@@ -8683,10 +8765,10 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
@@ -8708,35 +8790,35 @@
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="43">
         <v>2</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
@@ -8758,10 +8840,10 @@
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
@@ -8783,10 +8865,10 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
@@ -8808,10 +8890,10 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
@@ -8833,10 +8915,10 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
@@ -8858,10 +8940,10 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
@@ -8875,7 +8957,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="26" t="s">
         <v>645</v>
       </c>
       <c r="K20" s="2"/>
@@ -8883,10 +8965,10 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
@@ -8908,35 +8990,35 @@
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <v>3</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="8" t="s">
         <v>5</v>
       </c>
@@ -8955,15 +9037,15 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="54" t="s">
+      <c r="M23" s="32" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
@@ -8982,13 +9064,13 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="54"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
@@ -9010,10 +9092,10 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9035,10 +9117,10 @@
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="2" t="s">
         <v>27</v>
       </c>
@@ -9060,10 +9142,10 @@
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
@@ -9085,10 +9167,10 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
@@ -9110,10 +9192,10 @@
       <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
@@ -9135,37 +9217,37 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
+      <c r="A31" s="45">
         <v>4</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="54" t="s">
+      <c r="M31" s="32" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="8" t="s">
         <v>85</v>
       </c>
@@ -9184,13 +9266,13 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="54"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="58"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
@@ -9209,13 +9291,13 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="54"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="58"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="8" t="s">
         <v>87</v>
       </c>
@@ -9234,13 +9316,13 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="54"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="8" t="s">
         <v>89</v>
       </c>
@@ -9259,13 +9341,13 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="54"/>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="58"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="8" t="s">
         <v>90</v>
       </c>
@@ -9284,13 +9366,13 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="54"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="58"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="8" t="s">
         <v>91</v>
       </c>
@@ -9309,13 +9391,13 @@
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="54"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="58"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="8" t="s">
         <v>92</v>
       </c>
@@ -9334,13 +9416,13 @@
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="54"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="58"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="8" t="s">
         <v>93</v>
       </c>
@@ -9359,13 +9441,13 @@
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="54"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="58"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="8" t="s">
         <v>94</v>
       </c>
@@ -9384,13 +9466,13 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="54"/>
+      <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="58"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="8" t="s">
         <v>95</v>
       </c>
@@ -9409,13 +9491,13 @@
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="54"/>
+      <c r="M41" s="32"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="58"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="8" t="s">
         <v>96</v>
       </c>
@@ -9434,13 +9516,13 @@
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="54"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="58"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="8" t="s">
         <v>97</v>
       </c>
@@ -9459,13 +9541,13 @@
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="54"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="58"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="8" t="s">
         <v>98</v>
       </c>
@@ -9484,13 +9566,13 @@
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="54"/>
+      <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="58"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="8" t="s">
         <v>99</v>
       </c>
@@ -9509,13 +9591,13 @@
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="54"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="58"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="8" t="s">
         <v>74</v>
       </c>
@@ -9534,13 +9616,13 @@
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="54"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="58"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="8" t="s">
         <v>100</v>
       </c>
@@ -9559,13 +9641,13 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="54"/>
+      <c r="M47" s="32"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="58"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="8" t="s">
         <v>101</v>
       </c>
@@ -9584,13 +9666,13 @@
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="54"/>
+      <c r="M48" s="32"/>
     </row>
     <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="58"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="8" t="s">
         <v>102</v>
       </c>
@@ -9609,38 +9691,38 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="54"/>
+      <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="47">
+      <c r="A50" s="45">
         <v>5</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="2" t="s">
         <v>87</v>
       </c>
@@ -9662,10 +9744,10 @@
       <c r="M51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -9687,10 +9769,10 @@
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9712,10 +9794,10 @@
       <c r="M53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="9" t="s">
         <v>106</v>
       </c>
@@ -9739,10 +9821,10 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="2" t="s">
         <v>107</v>
       </c>
@@ -9764,10 +9846,10 @@
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="9" t="s">
         <v>108</v>
       </c>
@@ -9791,35 +9873,35 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="45">
+      <c r="A57" s="43">
         <v>6</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="2" t="s">
         <v>28</v>
       </c>
@@ -9841,10 +9923,10 @@
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="2" t="s">
         <v>49</v>
       </c>
@@ -9866,10 +9948,10 @@
       <c r="M59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="2" t="s">
         <v>31</v>
       </c>
@@ -9891,10 +9973,10 @@
       <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="2" t="s">
         <v>50</v>
       </c>
@@ -9916,10 +9998,10 @@
       <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
       <c r="E62" t="s">
         <v>8</v>
       </c>
@@ -9940,10 +10022,10 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="2" t="s">
         <v>69</v>
       </c>
@@ -9965,10 +10047,10 @@
       <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="2" t="s">
         <v>70</v>
       </c>
@@ -9990,10 +10072,10 @@
       <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
@@ -10015,10 +10097,10 @@
       <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
       <c r="E66" t="s">
         <v>223</v>
       </c>
@@ -10036,10 +10118,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="2" t="s">
         <v>39</v>
       </c>
@@ -10061,10 +10143,10 @@
       <c r="M67" s="13"/>
     </row>
     <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="2" t="s">
         <v>71</v>
       </c>
@@ -10086,10 +10168,10 @@
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
@@ -10111,10 +10193,10 @@
       <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="2" t="s">
         <v>65</v>
       </c>
@@ -10136,10 +10218,10 @@
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="2" t="s">
         <v>66</v>
       </c>
@@ -10161,10 +10243,10 @@
       <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="2" t="s">
         <v>67</v>
       </c>
@@ -10186,10 +10268,10 @@
       <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
@@ -10211,10 +10293,10 @@
       <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
@@ -10236,10 +10318,10 @@
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
       <c r="E75" t="s">
         <v>68</v>
       </c>
@@ -10257,10 +10339,10 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="2" t="s">
         <v>56</v>
       </c>
@@ -10282,10 +10364,10 @@
       <c r="M76" s="13"/>
     </row>
     <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
       <c r="E77" s="2" t="s">
         <v>52</v>
       </c>
@@ -10307,10 +10389,10 @@
       <c r="M77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="2" t="s">
         <v>54</v>
       </c>
@@ -10332,10 +10414,10 @@
       <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="2" t="s">
         <v>53</v>
       </c>
@@ -10357,10 +10439,10 @@
       <c r="M79" s="13"/>
     </row>
     <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
       <c r="E80" t="s">
         <v>60</v>
       </c>
@@ -10378,10 +10460,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
       <c r="E81" t="s">
         <v>61</v>
       </c>
@@ -10399,10 +10481,10 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="2" t="s">
         <v>62</v>
       </c>
@@ -10424,10 +10506,10 @@
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
       <c r="E83" s="2" t="s">
         <v>55</v>
       </c>
@@ -10449,35 +10531,35 @@
       <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="45">
+      <c r="A84" s="43">
         <v>7</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="13"/>
     </row>
     <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
@@ -10499,10 +10581,10 @@
       <c r="M85" s="13"/>
     </row>
     <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
       <c r="E86" s="2" t="s">
         <v>122</v>
       </c>
@@ -10524,10 +10606,10 @@
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
       <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
@@ -10549,10 +10631,10 @@
       <c r="M87" s="13"/>
     </row>
     <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="2" t="s">
         <v>124</v>
       </c>
@@ -10574,35 +10656,35 @@
       <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="45">
+      <c r="A89" s="43">
         <v>8</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="13"/>
     </row>
     <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="2" t="s">
         <v>28</v>
       </c>
@@ -10624,10 +10706,10 @@
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="2" t="s">
         <v>134</v>
       </c>
@@ -10649,10 +10731,10 @@
       <c r="M91" s="13"/>
     </row>
     <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="2" t="s">
         <v>135</v>
       </c>
@@ -10674,10 +10756,10 @@
       <c r="M92" s="13"/>
     </row>
     <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="2" t="s">
         <v>136</v>
       </c>
@@ -10699,10 +10781,10 @@
       <c r="M93" s="13"/>
     </row>
     <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="2" t="s">
         <v>137</v>
       </c>
@@ -10724,10 +10806,10 @@
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="2" t="s">
         <v>80</v>
       </c>
@@ -10749,10 +10831,10 @@
       <c r="M95" s="13"/>
     </row>
     <row r="96" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
       <c r="E96" t="s">
         <v>110</v>
       </c>
@@ -10773,10 +10855,10 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
       <c r="E97" t="s">
         <v>138</v>
       </c>
@@ -10797,10 +10879,10 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
       <c r="E98" t="s">
         <v>140</v>
       </c>
@@ -10821,10 +10903,10 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
       <c r="E99" t="s">
         <v>142</v>
       </c>
@@ -10845,10 +10927,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
       <c r="E100" t="s">
         <v>144</v>
       </c>
@@ -10869,10 +10951,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
       <c r="E101" t="s">
         <v>146</v>
       </c>
@@ -10893,10 +10975,10 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="2" t="s">
         <v>148</v>
       </c>
@@ -10918,10 +11000,10 @@
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="2" t="s">
         <v>149</v>
       </c>
@@ -10943,10 +11025,10 @@
       <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
       <c r="E104" s="2" t="s">
         <v>30</v>
       </c>
@@ -10968,10 +11050,10 @@
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
       <c r="E105" s="9" t="s">
         <v>150</v>
       </c>
@@ -10995,10 +11077,10 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="2" t="s">
         <v>151</v>
       </c>
@@ -11020,10 +11102,10 @@
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="2" t="s">
         <v>152</v>
       </c>
@@ -11045,10 +11127,10 @@
       <c r="M107" s="13"/>
     </row>
     <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
       <c r="E108" s="2" t="s">
         <v>153</v>
       </c>
@@ -11070,10 +11152,10 @@
       <c r="M108" s="13"/>
     </row>
     <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="2" t="s">
         <v>154</v>
       </c>
@@ -11095,10 +11177,10 @@
       <c r="M109" s="13"/>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
       <c r="E110" s="2" t="s">
         <v>155</v>
       </c>
@@ -11120,10 +11202,10 @@
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="2" t="s">
         <v>156</v>
       </c>
@@ -11145,10 +11227,10 @@
       <c r="M111" s="13"/>
     </row>
     <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="2" t="s">
         <v>157</v>
       </c>
@@ -11170,10 +11252,10 @@
       <c r="M112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="9" t="s">
         <v>158</v>
       </c>
@@ -11197,35 +11279,35 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="45">
+      <c r="A114" s="43">
         <v>9</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="2" t="s">
         <v>28</v>
       </c>
@@ -11247,10 +11329,10 @@
       <c r="M115" s="13"/>
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="2" t="s">
         <v>80</v>
       </c>
@@ -11272,10 +11354,10 @@
       <c r="M116" s="13"/>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="2" t="s">
         <v>49</v>
       </c>
@@ -11297,10 +11379,10 @@
       <c r="M117" s="13"/>
     </row>
     <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
       <c r="E118" s="2" t="s">
         <v>160</v>
       </c>
@@ -11322,10 +11404,10 @@
       <c r="M118" s="13"/>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="2" t="s">
         <v>161</v>
       </c>
@@ -11348,9 +11430,9 @@
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
       <c r="E120" t="s">
         <v>64</v>
       </c>
@@ -11368,35 +11450,35 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121" s="47">
+      <c r="A121" s="45">
         <v>10</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="26"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="13"/>
     </row>
     <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
+      <c r="A122" s="46"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
       <c r="E122" s="2" t="s">
         <v>42</v>
       </c>
@@ -11418,10 +11500,10 @@
       <c r="M122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
       <c r="E123" s="2" t="s">
         <v>45</v>
       </c>
@@ -11443,10 +11525,10 @@
       <c r="M123" s="13"/>
     </row>
     <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
+      <c r="A124" s="46"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="9" t="s">
         <v>366</v>
       </c>
@@ -11470,10 +11552,10 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
+      <c r="A125" s="47"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="2" t="s">
         <v>28</v>
       </c>
@@ -11495,35 +11577,35 @@
       <c r="M125" s="13"/>
     </row>
     <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126" s="47">
+      <c r="A126" s="45">
         <v>11</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D126" s="36" t="s">
+      <c r="D126" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="13"/>
     </row>
     <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="28"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="61"/>
       <c r="E127" s="2" t="s">
         <v>63</v>
       </c>
@@ -11545,10 +11627,10 @@
       <c r="M127" s="13"/>
     </row>
     <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="28"/>
+      <c r="A128" s="46"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="61"/>
       <c r="E128" s="2" t="s">
         <v>208</v>
       </c>
@@ -11570,10 +11652,10 @@
       <c r="M128" s="13"/>
     </row>
     <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="28"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="61"/>
       <c r="E129" s="2" t="s">
         <v>209</v>
       </c>
@@ -11595,10 +11677,10 @@
       <c r="M129" s="13"/>
     </row>
     <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="28"/>
+      <c r="A130" s="46"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="61"/>
       <c r="E130" s="9" t="s">
         <v>77</v>
       </c>
@@ -11624,10 +11706,10 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="28"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="61"/>
       <c r="E131" s="2" t="s">
         <v>78</v>
       </c>
@@ -11649,35 +11731,35 @@
       <c r="M131" s="13"/>
     </row>
     <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="53">
+      <c r="A132" s="51">
         <v>12</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="D132" s="35" t="s">
+      <c r="D132" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="E132" s="37" t="s">
+      <c r="E132" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="39"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="54"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="13"/>
     </row>
     <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="6" t="s">
         <v>212</v>
       </c>
@@ -11699,10 +11781,10 @@
       <c r="M133" s="13"/>
     </row>
     <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="35"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="6" t="s">
         <v>213</v>
       </c>
@@ -11724,10 +11806,10 @@
       <c r="M134" s="13"/>
     </row>
     <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="59"/>
       <c r="E135" s="6" t="s">
         <v>214</v>
       </c>
@@ -11749,10 +11831,10 @@
       <c r="M135" s="13"/>
     </row>
     <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="6" t="s">
         <v>215</v>
       </c>
@@ -11774,10 +11856,10 @@
       <c r="M136" s="13"/>
     </row>
     <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="6" t="s">
         <v>216</v>
       </c>
@@ -11799,10 +11881,10 @@
       <c r="M137" s="13"/>
     </row>
     <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="6" t="s">
         <v>217</v>
       </c>
@@ -11824,10 +11906,10 @@
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="35"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="59"/>
       <c r="E139" s="6" t="s">
         <v>218</v>
       </c>
@@ -11849,10 +11931,10 @@
       <c r="M139" s="13"/>
     </row>
     <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="59"/>
       <c r="E140" s="6" t="s">
         <v>219</v>
       </c>
@@ -11874,10 +11956,10 @@
       <c r="M140" s="13"/>
     </row>
     <row r="141" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="35"/>
+      <c r="A141" s="51"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="59"/>
       <c r="E141" s="12" t="s">
         <v>220</v>
       </c>
@@ -11901,35 +11983,35 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="53">
+      <c r="A142" s="51">
         <v>13</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="C142" s="34" t="s">
+      <c r="C142" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="E142" s="37" t="s">
+      <c r="E142" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F142" s="38"/>
-      <c r="G142" s="38"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
-      <c r="J142" s="39"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="54"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="58"/>
       <c r="E143" s="6" t="s">
         <v>76</v>
       </c>
@@ -11951,10 +12033,10 @@
       <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="58"/>
       <c r="E144" s="6" t="s">
         <v>28</v>
       </c>
@@ -11976,10 +12058,10 @@
       <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
       <c r="E145" s="6" t="s">
         <v>39</v>
       </c>
@@ -12001,10 +12083,10 @@
       <c r="M145" s="13"/>
     </row>
     <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="58"/>
       <c r="E146" s="6" t="s">
         <v>32</v>
       </c>
@@ -12026,10 +12108,10 @@
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
       <c r="E147" s="12" t="s">
         <v>222</v>
       </c>
@@ -12055,35 +12137,35 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="33">
+      <c r="A148" s="30">
         <v>14</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="32"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="57"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
       <c r="E149" s="13" t="s">
         <v>76</v>
       </c>
@@ -12105,10 +12187,10 @@
       <c r="M149" s="13"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
       <c r="E150" s="13" t="s">
         <v>203</v>
       </c>
@@ -12130,35 +12212,35 @@
       <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="33">
+      <c r="A151" s="30">
         <v>15</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C151" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D151" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="E151" s="30" t="s">
+      <c r="E151" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="32"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="56"/>
+      <c r="J151" s="57"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
       <c r="E152" s="13" t="s">
         <v>76</v>
       </c>
@@ -12180,10 +12262,10 @@
       <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="13" t="s">
         <v>110</v>
       </c>
@@ -12205,10 +12287,10 @@
       <c r="M153" s="13"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
+      <c r="A154" s="30"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
       <c r="E154" s="13" t="s">
         <v>37</v>
       </c>
@@ -12230,10 +12312,10 @@
       <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
       <c r="E155" s="13" t="s">
         <v>112</v>
       </c>
@@ -12255,10 +12337,10 @@
       <c r="M155" s="13"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
       <c r="E156" s="14" t="s">
         <v>113</v>
       </c>
@@ -12284,35 +12366,35 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="33">
+      <c r="A157" s="30">
         <v>16</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="33" t="s">
+      <c r="C157" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D157" s="33" t="s">
+      <c r="D157" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="E157" s="30" t="s">
+      <c r="E157" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="F157" s="31"/>
-      <c r="G157" s="31"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="32"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="56"/>
+      <c r="J157" s="57"/>
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
+      <c r="A158" s="30"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
       <c r="E158" s="13" t="s">
         <v>110</v>
       </c>
@@ -12334,10 +12416,10 @@
       <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
       <c r="E159" s="13" t="s">
         <v>115</v>
       </c>
@@ -12359,10 +12441,10 @@
       <c r="M159" s="13"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
       <c r="E160" s="13" t="s">
         <v>25</v>
       </c>
@@ -12384,35 +12466,35 @@
       <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="33">
+      <c r="A161" s="30">
         <v>17</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="D161" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="E161" s="30" t="s">
+      <c r="E161" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="31"/>
-      <c r="I161" s="31"/>
-      <c r="J161" s="32"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56"/>
+      <c r="H161" s="56"/>
+      <c r="I161" s="56"/>
+      <c r="J161" s="57"/>
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
       <c r="E162" s="13" t="s">
         <v>28</v>
       </c>
@@ -12434,10 +12516,10 @@
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="33"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
       <c r="E163" s="13" t="s">
         <v>49</v>
       </c>
@@ -12459,35 +12541,35 @@
       <c r="M163" s="13"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="33">
+      <c r="A164" s="30">
         <v>18</v>
       </c>
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="F164" s="31"/>
-      <c r="G164" s="31"/>
-      <c r="H164" s="31"/>
-      <c r="I164" s="31"/>
-      <c r="J164" s="32"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="56"/>
+      <c r="H164" s="56"/>
+      <c r="I164" s="56"/>
+      <c r="J164" s="57"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
       <c r="E165" s="13" t="s">
         <v>127</v>
       </c>
@@ -12509,10 +12591,10 @@
       <c r="M165" s="13"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="33"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
       <c r="E166" s="13" t="s">
         <v>28</v>
       </c>
@@ -12534,10 +12616,10 @@
       <c r="M166" s="13"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="33"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="13" t="s">
         <v>128</v>
       </c>
@@ -12559,10 +12641,10 @@
       <c r="M167" s="13"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="13" t="s">
         <v>75</v>
       </c>
@@ -12584,10 +12666,10 @@
       <c r="M168" s="13"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="33"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
       <c r="E169" s="13" t="s">
         <v>81</v>
       </c>
@@ -12609,10 +12691,10 @@
       <c r="M169" s="13"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="33"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
       <c r="E170" s="14" t="s">
         <v>39</v>
       </c>
@@ -12638,10 +12720,10 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="14" t="s">
         <v>110</v>
       </c>
@@ -12665,10 +12747,10 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="33"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
       <c r="E172" s="14" t="s">
         <v>129</v>
       </c>
@@ -12687,15 +12769,15 @@
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
-      <c r="M172" s="60" t="s">
+      <c r="M172" s="27" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="33"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
       <c r="E173" s="14" t="s">
         <v>130</v>
       </c>
@@ -12714,13 +12796,13 @@
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
-      <c r="M173" s="60"/>
+      <c r="M173" s="27"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="33"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
+      <c r="A174" s="30"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
       <c r="E174" s="14" t="s">
         <v>131</v>
       </c>
@@ -12739,13 +12821,13 @@
       </c>
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
-      <c r="M174" s="60"/>
+      <c r="M174" s="27"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
+      <c r="A175" s="30"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
       <c r="E175" s="14" t="s">
         <v>125</v>
       </c>
@@ -12769,10 +12851,10 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
+      <c r="A176" s="30"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
       <c r="E176" s="14" t="s">
         <v>64</v>
       </c>
@@ -12796,10 +12878,10 @@
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
       <c r="E177" s="13" t="s">
         <v>132</v>
       </c>
@@ -12819,35 +12901,35 @@
       <c r="M177" s="13"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="50">
+      <c r="A178" s="48">
         <v>19</v>
       </c>
-      <c r="B178" s="40" t="s">
+      <c r="B178" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C178" s="40" t="s">
+      <c r="C178" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="D178" s="40" t="s">
+      <c r="D178" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="E178" s="41" t="s">
+      <c r="E178" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="F178" s="41"/>
-      <c r="G178" s="41"/>
-      <c r="H178" s="41"/>
-      <c r="I178" s="41"/>
-      <c r="J178" s="41"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="29"/>
+      <c r="J178" s="29"/>
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="13"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="51"/>
-      <c r="B179" s="40"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
+      <c r="A179" s="49"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
       <c r="E179" s="16" t="s">
         <v>164</v>
       </c>
@@ -12869,10 +12951,10 @@
       <c r="M179" s="13"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
+      <c r="A180" s="49"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
       <c r="E180" s="16" t="s">
         <v>42</v>
       </c>
@@ -12894,10 +12976,10 @@
       <c r="M180" s="13"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
-      <c r="B181" s="40"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="40"/>
+      <c r="A181" s="49"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
       <c r="E181" s="16" t="s">
         <v>165</v>
       </c>
@@ -12919,10 +13001,10 @@
       <c r="M181" s="13"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
-      <c r="B182" s="40"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="40"/>
+      <c r="A182" s="49"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
       <c r="E182" s="16" t="s">
         <v>28</v>
       </c>
@@ -12944,10 +13026,10 @@
       <c r="M182" s="13"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
-      <c r="B183" s="40"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="40"/>
+      <c r="A183" s="49"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
       <c r="E183" s="16" t="s">
         <v>45</v>
       </c>
@@ -12969,10 +13051,10 @@
       <c r="M183" s="13"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
-      <c r="B184" s="40"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="40"/>
+      <c r="A184" s="49"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
       <c r="E184" s="16" t="s">
         <v>166</v>
       </c>
@@ -12994,10 +13076,10 @@
       <c r="M184" s="13"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
-      <c r="B185" s="40"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="40"/>
+      <c r="A185" s="49"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
       <c r="E185" s="16" t="s">
         <v>167</v>
       </c>
@@ -13019,10 +13101,10 @@
       <c r="M185" s="13"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
-      <c r="B186" s="40"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="40"/>
+      <c r="A186" s="49"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
       <c r="E186" s="16" t="s">
         <v>46</v>
       </c>
@@ -13044,10 +13126,10 @@
       <c r="M186" s="13"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
-      <c r="B187" s="40"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="40"/>
+      <c r="A187" s="49"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
       <c r="E187" s="16" t="s">
         <v>168</v>
       </c>
@@ -13069,10 +13151,10 @@
       <c r="M187" s="13"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="40"/>
+      <c r="A188" s="49"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
       <c r="E188" s="16" t="s">
         <v>47</v>
       </c>
@@ -13094,10 +13176,10 @@
       <c r="M188" s="13"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
-      <c r="B189" s="40"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="40"/>
+      <c r="A189" s="49"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
       <c r="E189" s="16" t="s">
         <v>169</v>
       </c>
@@ -13119,10 +13201,10 @@
       <c r="M189" s="13"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="40"/>
+      <c r="A190" s="49"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
       <c r="E190" s="16" t="s">
         <v>80</v>
       </c>
@@ -13144,10 +13226,10 @@
       <c r="M190" s="13"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
-      <c r="B191" s="40"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="40"/>
+      <c r="A191" s="49"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
       <c r="E191" s="17" t="s">
         <v>38</v>
       </c>
@@ -13173,10 +13255,10 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="40"/>
+      <c r="A192" s="49"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
       <c r="E192" s="16" t="s">
         <v>170</v>
       </c>
@@ -13198,10 +13280,10 @@
       <c r="M192" s="13"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="51"/>
-      <c r="B193" s="40"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="40"/>
+      <c r="A193" s="49"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
       <c r="E193" s="16" t="s">
         <v>171</v>
       </c>
@@ -13223,10 +13305,10 @@
       <c r="M193" s="13"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="51"/>
-      <c r="B194" s="40"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="40"/>
+      <c r="A194" s="49"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
       <c r="E194" s="16" t="s">
         <v>32</v>
       </c>
@@ -13248,10 +13330,10 @@
       <c r="M194" s="13"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="51"/>
-      <c r="B195" s="40"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="40"/>
+      <c r="A195" s="49"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
       <c r="E195" s="16" t="s">
         <v>48</v>
       </c>
@@ -13273,10 +13355,10 @@
       <c r="M195" s="13"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="51"/>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
       <c r="E196" s="16" t="s">
         <v>25</v>
       </c>
@@ -13298,10 +13380,10 @@
       <c r="M196" s="13"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="51"/>
-      <c r="B197" s="40"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="40"/>
+      <c r="A197" s="49"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
       <c r="E197" s="16" t="s">
         <v>40</v>
       </c>
@@ -13323,10 +13405,10 @@
       <c r="M197" s="13"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="51"/>
-      <c r="B198" s="40"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="40"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
       <c r="E198" s="16" t="s">
         <v>172</v>
       </c>
@@ -13348,10 +13430,10 @@
       <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="51"/>
-      <c r="B199" s="40"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="40"/>
+      <c r="A199" s="49"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
       <c r="E199" s="16" t="s">
         <v>173</v>
       </c>
@@ -13373,10 +13455,10 @@
       <c r="M199" s="13"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="51"/>
-      <c r="B200" s="40"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="40"/>
+      <c r="A200" s="49"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
       <c r="E200" s="17" t="s">
         <v>174</v>
       </c>
@@ -13402,10 +13484,10 @@
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="51"/>
-      <c r="B201" s="40"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="40"/>
+      <c r="A201" s="49"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
       <c r="E201" s="16" t="s">
         <v>175</v>
       </c>
@@ -13427,10 +13509,10 @@
       <c r="M201" s="13"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="51"/>
-      <c r="B202" s="40"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="40"/>
+      <c r="A202" s="49"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
       <c r="E202" s="16" t="s">
         <v>176</v>
       </c>
@@ -13452,10 +13534,10 @@
       <c r="M202" s="13"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="51"/>
-      <c r="B203" s="40"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="40"/>
+      <c r="A203" s="49"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
       <c r="E203" s="17" t="s">
         <v>177</v>
       </c>
@@ -13481,10 +13563,10 @@
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="51"/>
-      <c r="B204" s="40"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
       <c r="E204" s="17" t="s">
         <v>343</v>
       </c>
@@ -13503,15 +13585,15 @@
       </c>
       <c r="K204" s="17"/>
       <c r="L204" s="17"/>
-      <c r="M204" s="55" t="s">
+      <c r="M204" s="28" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="51"/>
-      <c r="B205" s="40"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="40"/>
+      <c r="A205" s="49"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
       <c r="E205" s="18" t="s">
         <v>64</v>
       </c>
@@ -13530,13 +13612,13 @@
       </c>
       <c r="K205" s="17"/>
       <c r="L205" s="17"/>
-      <c r="M205" s="55"/>
+      <c r="M205" s="28"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="51"/>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
+      <c r="A206" s="49"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
       <c r="E206" s="19" t="s">
         <v>383</v>
       </c>
@@ -13558,10 +13640,10 @@
       <c r="M206" s="21"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="51"/>
-      <c r="B207" s="40"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="40"/>
+      <c r="A207" s="49"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="31"/>
       <c r="E207" s="19" t="s">
         <v>178</v>
       </c>
@@ -13577,10 +13659,10 @@
       <c r="M207" s="21"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="51"/>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="31"/>
       <c r="E208" s="18" t="s">
         <v>179</v>
       </c>
@@ -13606,10 +13688,10 @@
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="52"/>
-      <c r="B209" s="40"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
+      <c r="A209" s="50"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
       <c r="E209" s="19" t="s">
         <v>180</v>
       </c>
@@ -13627,35 +13709,35 @@
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="50">
+      <c r="A210" s="48">
         <v>20</v>
       </c>
-      <c r="B210" s="40" t="s">
+      <c r="B210" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C210" s="40" t="s">
+      <c r="C210" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="D210" s="40" t="s">
+      <c r="D210" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="E210" s="41" t="s">
+      <c r="E210" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="F210" s="41"/>
-      <c r="G210" s="41"/>
-      <c r="H210" s="41"/>
-      <c r="I210" s="41"/>
-      <c r="J210" s="41"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="29"/>
+      <c r="H210" s="29"/>
+      <c r="I210" s="29"/>
+      <c r="J210" s="29"/>
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
       <c r="M210" s="13"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="51"/>
-      <c r="B211" s="40"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="40"/>
+      <c r="A211" s="49"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
       <c r="E211" s="16" t="s">
         <v>28</v>
       </c>
@@ -13677,10 +13759,10 @@
       <c r="M211" s="13"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="51"/>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
+      <c r="A212" s="49"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
       <c r="E212" s="16" t="s">
         <v>49</v>
       </c>
@@ -13702,10 +13784,10 @@
       <c r="M212" s="13"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="51"/>
-      <c r="B213" s="40"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="40"/>
+      <c r="A213" s="49"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
       <c r="E213" s="16" t="s">
         <v>80</v>
       </c>
@@ -13727,10 +13809,10 @@
       <c r="M213" s="13"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="51"/>
-      <c r="B214" s="40"/>
-      <c r="C214" s="40"/>
-      <c r="D214" s="40"/>
+      <c r="A214" s="49"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
       <c r="E214" s="17" t="s">
         <v>33</v>
       </c>
@@ -13749,15 +13831,15 @@
       </c>
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
-      <c r="M214" s="55" t="s">
+      <c r="M214" s="28" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="51"/>
-      <c r="B215" s="40"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40"/>
+      <c r="A215" s="49"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
       <c r="E215" s="17" t="s">
         <v>34</v>
       </c>
@@ -13776,13 +13858,13 @@
       </c>
       <c r="K215" s="17"/>
       <c r="L215" s="17"/>
-      <c r="M215" s="55"/>
+      <c r="M215" s="28"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="51"/>
-      <c r="B216" s="40"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="40"/>
+      <c r="A216" s="49"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="31"/>
       <c r="E216" s="17" t="s">
         <v>35</v>
       </c>
@@ -13801,13 +13883,13 @@
       </c>
       <c r="K216" s="17"/>
       <c r="L216" s="17"/>
-      <c r="M216" s="55"/>
+      <c r="M216" s="28"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="51"/>
-      <c r="B217" s="40"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
+      <c r="A217" s="49"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
       <c r="E217" s="17" t="s">
         <v>199</v>
       </c>
@@ -13833,10 +13915,10 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="51"/>
-      <c r="B218" s="40"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="40"/>
+      <c r="A218" s="49"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="31"/>
       <c r="E218" s="17" t="s">
         <v>110</v>
       </c>
@@ -13855,122 +13937,122 @@
       </c>
       <c r="K218" s="17"/>
       <c r="L218" s="17"/>
-      <c r="M218" s="55" t="s">
+      <c r="M218" s="28" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="52"/>
-      <c r="B219" s="40"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="17" t="s">
-        <v>201</v>
+      <c r="A219" s="49"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="62" t="s">
+        <v>649</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>201</v>
+        <v>646</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>353</v>
+        <v>647</v>
       </c>
       <c r="H219" s="17">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I219" s="17"/>
       <c r="J219" s="17" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="K219" s="17"/>
       <c r="L219" s="17"/>
-      <c r="M219" s="55"/>
+      <c r="M219" s="28"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="50">
+      <c r="A220" s="50"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F220" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G220" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="H220" s="17">
+        <v>20</v>
+      </c>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+      <c r="M220" s="28"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" s="48">
         <v>21</v>
       </c>
-      <c r="B220" s="40" t="s">
+      <c r="B221" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C220" s="40" t="s">
+      <c r="C221" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="D220" s="40" t="s">
+      <c r="D221" s="31" t="s">
         <v>565</v>
       </c>
-      <c r="E220" s="41" t="s">
+      <c r="E221" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="F220" s="41"/>
-      <c r="G220" s="41"/>
-      <c r="H220" s="41"/>
-      <c r="I220" s="41"/>
-      <c r="J220" s="41"/>
-      <c r="K220" s="16"/>
-      <c r="L220" s="16"/>
-      <c r="M220" s="13"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="51"/>
-      <c r="B221" s="40"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="17" t="s">
+      <c r="F221" s="29"/>
+      <c r="G221" s="29"/>
+      <c r="H221" s="29"/>
+      <c r="I221" s="29"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="16"/>
+      <c r="L221" s="16"/>
+      <c r="M221" s="13"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" s="49"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F221" s="17" t="s">
+      <c r="F222" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G221" s="17" t="s">
+      <c r="G222" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H221" s="17">
+      <c r="H222" s="17">
         <v>255</v>
       </c>
-      <c r="I221" s="17"/>
-      <c r="J221" s="17" t="s">
+      <c r="I222" s="17"/>
+      <c r="J222" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="K221" s="17"/>
-      <c r="L221" s="17"/>
-      <c r="M221" s="14" t="s">
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
+      <c r="M222" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="51"/>
-      <c r="B222" s="40"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="40"/>
-      <c r="E222" s="16" t="s">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="49"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F222" s="16" t="s">
+      <c r="F223" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="G222" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H222" s="16">
-        <v>20</v>
-      </c>
-      <c r="I222" s="16"/>
-      <c r="J222" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="K222" s="16"/>
-      <c r="L222" s="16"/>
-      <c r="M222" s="13"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="51"/>
-      <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F223" s="16" t="s">
-        <v>356</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>3</v>
@@ -13980,47 +14062,47 @@
       </c>
       <c r="I223" s="16"/>
       <c r="J223" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K223" s="16"/>
       <c r="L223" s="16"/>
       <c r="M223" s="13"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="51"/>
-      <c r="B224" s="40"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="40"/>
+      <c r="A224" s="49"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="31"/>
       <c r="E224" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="G224" s="16" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H224" s="16">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I224" s="16"/>
       <c r="J224" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
       <c r="M224" s="13"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="51"/>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
+      <c r="A225" s="49"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="31"/>
+      <c r="D225" s="31"/>
       <c r="E225" s="16" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="F225" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>22</v>
@@ -14030,101 +14112,101 @@
       </c>
       <c r="I225" s="16"/>
       <c r="J225" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K225" s="16"/>
       <c r="L225" s="16"/>
       <c r="M225" s="13"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="52"/>
-      <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40"/>
-      <c r="E226" s="17" t="s">
+      <c r="A226" s="49"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" s="16">
+        <v>255</v>
+      </c>
+      <c r="I226" s="16"/>
+      <c r="J226" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="K226" s="16"/>
+      <c r="L226" s="16"/>
+      <c r="M226" s="13"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" s="50"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="31"/>
+      <c r="E227" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F226" s="17" t="s">
+      <c r="F227" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="G226" s="17" t="s">
+      <c r="G227" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="H226" s="17">
+      <c r="H227" s="17">
         <v>11</v>
       </c>
-      <c r="I226" s="17">
+      <c r="I227" s="17">
         <v>0</v>
       </c>
-      <c r="J226" s="17" t="s">
+      <c r="J227" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="K226" s="17"/>
-      <c r="L226" s="17"/>
-      <c r="M226" s="14" t="s">
+      <c r="K227" s="17"/>
+      <c r="L227" s="17"/>
+      <c r="M227" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="50">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="48">
         <v>22</v>
       </c>
-      <c r="B227" s="40" t="s">
+      <c r="B228" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C227" s="40" t="s">
+      <c r="C228" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="D227" s="40" t="s">
+      <c r="D228" s="31" t="s">
         <v>573</v>
       </c>
-      <c r="E227" s="41" t="s">
+      <c r="E228" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="F227" s="41"/>
-      <c r="G227" s="41"/>
-      <c r="H227" s="41"/>
-      <c r="I227" s="41"/>
-      <c r="J227" s="41"/>
-      <c r="K227" s="16"/>
-      <c r="L227" s="16"/>
-      <c r="M227" s="13"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="51"/>
-      <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="40"/>
-      <c r="E228" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F228" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G228" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H228" s="16">
-        <v>200</v>
-      </c>
-      <c r="I228" s="16"/>
-      <c r="J228" s="16" t="s">
-        <v>574</v>
-      </c>
+      <c r="F228" s="29"/>
+      <c r="G228" s="29"/>
+      <c r="H228" s="29"/>
+      <c r="I228" s="29"/>
+      <c r="J228" s="29"/>
       <c r="K228" s="16"/>
       <c r="L228" s="16"/>
       <c r="M228" s="13"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="51"/>
-      <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="40"/>
+      <c r="A229" s="49"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="31"/>
       <c r="E229" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F229" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>22</v>
@@ -14134,22 +14216,22 @@
       </c>
       <c r="I229" s="16"/>
       <c r="J229" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K229" s="16"/>
       <c r="L229" s="16"/>
       <c r="M229" s="13"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="51"/>
-      <c r="B230" s="40"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="40"/>
+      <c r="A230" s="49"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="31"/>
       <c r="E230" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F230" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>22</v>
@@ -14159,97 +14241,97 @@
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K230" s="16"/>
       <c r="L230" s="16"/>
       <c r="M230" s="13"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="51"/>
-      <c r="B231" s="40"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="40"/>
+      <c r="A231" s="49"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="31"/>
+      <c r="D231" s="31"/>
       <c r="E231" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F231" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H231" s="16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I231" s="16"/>
       <c r="J231" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K231" s="16"/>
       <c r="L231" s="16"/>
       <c r="M231" s="13"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="51"/>
-      <c r="B232" s="40"/>
-      <c r="C232" s="40"/>
-      <c r="D232" s="40"/>
+      <c r="A232" s="49"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="31"/>
+      <c r="D232" s="31"/>
       <c r="E232" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F232" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H232" s="16">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K232" s="16"/>
       <c r="L232" s="16"/>
       <c r="M232" s="13"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="51"/>
-      <c r="B233" s="40"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="40"/>
+      <c r="A233" s="49"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="31"/>
       <c r="E233" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H233" s="16">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K233" s="16"/>
       <c r="L233" s="16"/>
       <c r="M233" s="13"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="51"/>
-      <c r="B234" s="40"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="40"/>
+      <c r="A234" s="49"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="31"/>
       <c r="E234" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>22</v>
@@ -14259,95 +14341,95 @@
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K234" s="16"/>
       <c r="L234" s="16"/>
       <c r="M234" s="13"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="51"/>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
+      <c r="A235" s="49"/>
+      <c r="B235" s="31"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
       <c r="E235" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H235" s="16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K235" s="16"/>
       <c r="L235" s="16"/>
       <c r="M235" s="13"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="51"/>
-      <c r="B236" s="40"/>
-      <c r="C236" s="40"/>
-      <c r="D236" s="40"/>
-      <c r="E236" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F236" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G236" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H236" s="20">
-        <v>0</v>
-      </c>
-      <c r="I236" s="20"/>
-      <c r="J236" s="20"/>
+      <c r="A236" s="49"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="31"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F236" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G236" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" s="16">
+        <v>50</v>
+      </c>
+      <c r="I236" s="16"/>
+      <c r="J236" s="16" t="s">
+        <v>581</v>
+      </c>
       <c r="K236" s="16"/>
       <c r="L236" s="16"/>
       <c r="M236" s="13"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="51"/>
-      <c r="B237" s="40"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F237" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G237" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H237" s="16">
-        <v>200</v>
-      </c>
-      <c r="I237" s="16"/>
-      <c r="J237" s="16" t="s">
-        <v>582</v>
-      </c>
+      <c r="A237" s="49"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="31"/>
+      <c r="D237" s="31"/>
+      <c r="E237" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G237" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="20">
+        <v>0</v>
+      </c>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
       <c r="K237" s="16"/>
       <c r="L237" s="16"/>
       <c r="M237" s="13"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="51"/>
-      <c r="B238" s="40"/>
-      <c r="C238" s="40"/>
-      <c r="D238" s="40"/>
+      <c r="A238" s="49"/>
+      <c r="B238" s="31"/>
+      <c r="C238" s="31"/>
+      <c r="D238" s="31"/>
       <c r="E238" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F238" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>22</v>
@@ -14357,76 +14439,72 @@
       </c>
       <c r="I238" s="16"/>
       <c r="J238" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K238" s="16"/>
       <c r="L238" s="16"/>
       <c r="M238" s="13"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="51"/>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
+      <c r="A239" s="49"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="31"/>
       <c r="E239" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H239" s="16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I239" s="16"/>
       <c r="J239" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K239" s="16"/>
       <c r="L239" s="16"/>
       <c r="M239" s="13"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
-      <c r="B240" s="40"/>
-      <c r="C240" s="40"/>
-      <c r="D240" s="40"/>
-      <c r="E240" s="17" t="s">
+      <c r="A240" s="49"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="31"/>
+      <c r="D240" s="31"/>
+      <c r="E240" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F240" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G240" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="16">
+        <v>0</v>
+      </c>
+      <c r="I240" s="16"/>
+      <c r="J240" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="K240" s="16"/>
+      <c r="L240" s="16"/>
+      <c r="M240" s="13"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" s="49"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="31"/>
+      <c r="D241" s="31"/>
+      <c r="E241" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F240" s="17" t="s">
+      <c r="F241" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="G240" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H240" s="17">
-        <v>11</v>
-      </c>
-      <c r="I240" s="17">
-        <v>0</v>
-      </c>
-      <c r="J240" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="K240" s="17"/>
-      <c r="L240" s="17"/>
-      <c r="M240" s="55" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="52"/>
-      <c r="B241" s="40"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="40"/>
-      <c r="E241" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F241" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="G241" s="17" t="s">
         <v>1</v>
@@ -14435,75 +14513,79 @@
         <v>11</v>
       </c>
       <c r="I241" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K241" s="17"/>
       <c r="L241" s="17"/>
-      <c r="M241" s="55"/>
+      <c r="M241" s="28" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="50">
+      <c r="A242" s="50"/>
+      <c r="B242" s="31"/>
+      <c r="C242" s="31"/>
+      <c r="D242" s="31"/>
+      <c r="E242" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F242" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G242" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H242" s="17">
+        <v>11</v>
+      </c>
+      <c r="I242" s="17">
+        <v>1</v>
+      </c>
+      <c r="J242" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="K242" s="17"/>
+      <c r="L242" s="17"/>
+      <c r="M242" s="28"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" s="48">
         <v>23</v>
       </c>
-      <c r="B242" s="40" t="s">
+      <c r="B243" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C242" s="40" t="s">
+      <c r="C243" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D242" s="40" t="s">
+      <c r="D243" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="E242" s="41" t="s">
+      <c r="E243" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="F242" s="41"/>
-      <c r="G242" s="41"/>
-      <c r="H242" s="41"/>
-      <c r="I242" s="41"/>
-      <c r="J242" s="41"/>
-      <c r="K242" s="16"/>
-      <c r="L242" s="16"/>
-      <c r="M242" s="13"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
-      <c r="B243" s="40"/>
-      <c r="C243" s="40"/>
-      <c r="D243" s="40"/>
-      <c r="E243" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F243" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G243" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H243" s="16">
-        <v>200</v>
-      </c>
-      <c r="I243" s="16"/>
-      <c r="J243" s="16" t="s">
-        <v>590</v>
-      </c>
+      <c r="F243" s="29"/>
+      <c r="G243" s="29"/>
+      <c r="H243" s="29"/>
+      <c r="I243" s="29"/>
+      <c r="J243" s="29"/>
       <c r="K243" s="16"/>
       <c r="L243" s="16"/>
       <c r="M243" s="13"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="51"/>
-      <c r="B244" s="40"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="40"/>
+      <c r="A244" s="49"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="31"/>
       <c r="E244" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F244" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>22</v>
@@ -14513,93 +14595,95 @@
       </c>
       <c r="I244" s="16"/>
       <c r="J244" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K244" s="16"/>
       <c r="L244" s="16"/>
       <c r="M244" s="13"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="52"/>
-      <c r="B245" s="40"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="40"/>
+      <c r="A245" s="49"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="31"/>
+      <c r="D245" s="31"/>
       <c r="E245" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F245" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H245" s="16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I245" s="16"/>
       <c r="J245" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K245" s="16"/>
       <c r="L245" s="16"/>
       <c r="M245" s="13"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="56">
+      <c r="A246" s="50"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="31"/>
+      <c r="D246" s="31"/>
+      <c r="E246" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G246" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H246" s="16">
+        <v>0</v>
+      </c>
+      <c r="I246" s="16"/>
+      <c r="J246" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="K246" s="16"/>
+      <c r="L246" s="16"/>
+      <c r="M246" s="13"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" s="33">
         <v>24</v>
       </c>
-      <c r="B246" s="56" t="s">
+      <c r="B247" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C246" s="56" t="s">
+      <c r="C247" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="D246" s="56" t="s">
+      <c r="D247" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="E246" s="41" t="s">
+      <c r="E247" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="F246" s="41"/>
-      <c r="G246" s="41"/>
-      <c r="H246" s="41"/>
-      <c r="I246" s="41"/>
-      <c r="J246" s="41"/>
-      <c r="K246" s="13"/>
-      <c r="L246" s="13"/>
-      <c r="M246" s="13"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="57"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="57"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G247" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H247" s="23">
-        <v>255</v>
-      </c>
-      <c r="I247" s="23"/>
-      <c r="J247" s="23" t="s">
-        <v>594</v>
-      </c>
+      <c r="F247" s="29"/>
+      <c r="G247" s="29"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="29"/>
+      <c r="J247" s="29"/>
       <c r="K247" s="13"/>
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="57"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="57"/>
-      <c r="D248" s="57"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="34"/>
       <c r="E248" s="13"/>
       <c r="F248" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G248" s="23" t="s">
         <v>22</v>
@@ -14609,20 +14693,20 @@
       </c>
       <c r="I248" s="23"/>
       <c r="J248" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="57"/>
-      <c r="B249" s="33"/>
-      <c r="C249" s="57"/>
-      <c r="D249" s="57"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="30"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
       <c r="E249" s="13"/>
       <c r="F249" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G249" s="23" t="s">
         <v>22</v>
@@ -14632,20 +14716,20 @@
       </c>
       <c r="I249" s="23"/>
       <c r="J249" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K249" s="13"/>
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="57"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="57"/>
-      <c r="D250" s="57"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="30"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
       <c r="E250" s="13"/>
       <c r="F250" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G250" s="23" t="s">
         <v>22</v>
@@ -14655,20 +14739,20 @@
       </c>
       <c r="I250" s="23"/>
       <c r="J250" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="57"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="57"/>
-      <c r="D251" s="57"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
       <c r="E251" s="13"/>
       <c r="F251" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G251" s="23" t="s">
         <v>22</v>
@@ -14678,20 +14762,20 @@
       </c>
       <c r="I251" s="23"/>
       <c r="J251" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="57"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="57"/>
-      <c r="D252" s="57"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="30"/>
+      <c r="C252" s="34"/>
+      <c r="D252" s="34"/>
       <c r="E252" s="13"/>
       <c r="F252" s="23" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="G252" s="23" t="s">
         <v>22</v>
@@ -14701,160 +14785,160 @@
       </c>
       <c r="I252" s="23"/>
       <c r="J252" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="57"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="57"/>
-      <c r="D253" s="57"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="30"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="34"/>
       <c r="E253" s="13"/>
       <c r="F253" s="23" t="s">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="H253" s="23">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I253" s="23"/>
       <c r="J253" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="57"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="57"/>
-      <c r="D254" s="57"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="30"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
       <c r="E254" s="13"/>
       <c r="F254" s="23" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="G254" s="23" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="H254" s="23">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I254" s="23"/>
       <c r="J254" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="57"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="57"/>
-      <c r="D255" s="57"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="30"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
       <c r="E255" s="13"/>
       <c r="F255" s="23" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G255" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H255" s="23">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="I255" s="23"/>
       <c r="J255" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="33">
-        <v>25</v>
-      </c>
-      <c r="B256" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C256" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="D256" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="E256" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="F256" s="41"/>
-      <c r="G256" s="41"/>
-      <c r="H256" s="41"/>
-      <c r="I256" s="41"/>
-      <c r="J256" s="41"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="30"/>
+      <c r="C256" s="34"/>
+      <c r="D256" s="34"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G256" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H256" s="23">
+        <v>255</v>
+      </c>
+      <c r="I256" s="23"/>
+      <c r="J256" s="23" t="s">
+        <v>602</v>
+      </c>
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="33"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="33"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="G257" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="H257" s="13">
-        <v>20</v>
-      </c>
-      <c r="I257" s="13"/>
-      <c r="J257" s="13" t="s">
-        <v>604</v>
-      </c>
+      <c r="A257" s="30">
+        <v>25</v>
+      </c>
+      <c r="B257" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C257" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D257" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E257" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
+      <c r="I257" s="29"/>
+      <c r="J257" s="29"/>
       <c r="K257" s="13"/>
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="33"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="33"/>
-      <c r="D258" s="33"/>
+      <c r="A258" s="30"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
+      <c r="D258" s="30"/>
       <c r="E258" s="13"/>
-      <c r="F258" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="G258" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H258" s="23">
-        <v>255</v>
-      </c>
-      <c r="I258" s="23"/>
-      <c r="J258" s="25" t="s">
-        <v>644</v>
+      <c r="F258" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H258" s="13">
+        <v>20</v>
+      </c>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13" t="s">
+        <v>604</v>
       </c>
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="33"/>
-      <c r="B259" s="33"/>
-      <c r="C259" s="33"/>
-      <c r="D259" s="33"/>
+      <c r="A259" s="30"/>
+      <c r="B259" s="30"/>
+      <c r="C259" s="30"/>
+      <c r="D259" s="30"/>
       <c r="E259" s="13"/>
       <c r="F259" s="23" t="s">
-        <v>337</v>
+        <v>643</v>
       </c>
       <c r="G259" s="23" t="s">
         <v>22</v>
@@ -14863,21 +14947,21 @@
         <v>255</v>
       </c>
       <c r="I259" s="23"/>
-      <c r="J259" s="23" t="s">
-        <v>605</v>
+      <c r="J259" s="25" t="s">
+        <v>644</v>
       </c>
       <c r="K259" s="13"/>
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="33"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="33"/>
-      <c r="D260" s="33"/>
+      <c r="A260" s="30"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
       <c r="E260" s="13"/>
       <c r="F260" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G260" s="23" t="s">
         <v>22</v>
@@ -14887,20 +14971,20 @@
       </c>
       <c r="I260" s="23"/>
       <c r="J260" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="33"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="33"/>
-      <c r="D261" s="33"/>
+      <c r="A261" s="30"/>
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
       <c r="E261" s="13"/>
       <c r="F261" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G261" s="23" t="s">
         <v>22</v>
@@ -14910,114 +14994,114 @@
       </c>
       <c r="I261" s="23"/>
       <c r="J261" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="33"/>
-      <c r="B262" s="33"/>
-      <c r="C262" s="33"/>
-      <c r="D262" s="33"/>
+      <c r="A262" s="30"/>
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
+      <c r="D262" s="30"/>
       <c r="E262" s="13"/>
       <c r="F262" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G262" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H262" s="23">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="I262" s="23"/>
       <c r="J262" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="33">
-        <v>26</v>
-      </c>
-      <c r="B263" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="C263" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="D263" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="E263" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="F263" s="41"/>
-      <c r="G263" s="41"/>
-      <c r="H263" s="41"/>
-      <c r="I263" s="41"/>
-      <c r="J263" s="41"/>
+      <c r="A263" s="30"/>
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G263" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H263" s="23">
+        <v>11</v>
+      </c>
+      <c r="I263" s="23"/>
+      <c r="J263" s="23" t="s">
+        <v>608</v>
+      </c>
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="33"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="13"/>
-      <c r="F264" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G264" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H264" s="13">
-        <v>20</v>
-      </c>
-      <c r="I264" s="13"/>
-      <c r="J264" s="13" t="s">
-        <v>611</v>
-      </c>
+      <c r="A264" s="30">
+        <v>26</v>
+      </c>
+      <c r="B264" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D264" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="F264" s="29"/>
+      <c r="G264" s="29"/>
+      <c r="H264" s="29"/>
+      <c r="I264" s="29"/>
+      <c r="J264" s="29"/>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="33"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
+      <c r="A265" s="30"/>
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="30"/>
       <c r="E265" s="13"/>
-      <c r="F265" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="G265" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H265" s="23">
-        <v>255</v>
-      </c>
-      <c r="I265" s="23"/>
-      <c r="J265" s="23" t="s">
-        <v>612</v>
+      <c r="F265" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G265" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="13">
+        <v>20</v>
+      </c>
+      <c r="I265" s="13"/>
+      <c r="J265" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="K265" s="13"/>
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="33"/>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
+      <c r="A266" s="30"/>
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
       <c r="E266" s="13"/>
       <c r="F266" s="23" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="G266" s="23" t="s">
         <v>22</v>
@@ -15027,43 +15111,43 @@
       </c>
       <c r="I266" s="23"/>
       <c r="J266" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="33"/>
-      <c r="B267" s="33"/>
-      <c r="C267" s="33"/>
-      <c r="D267" s="33"/>
+      <c r="A267" s="30"/>
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
       <c r="E267" s="13"/>
       <c r="F267" s="23" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="G267" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H267" s="23">
-        <v>2000</v>
+        <v>255</v>
       </c>
       <c r="I267" s="23"/>
       <c r="J267" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="33"/>
-      <c r="B268" s="33"/>
-      <c r="C268" s="33"/>
-      <c r="D268" s="33"/>
+      <c r="A268" s="30"/>
+      <c r="B268" s="30"/>
+      <c r="C268" s="30"/>
+      <c r="D268" s="30"/>
       <c r="E268" s="13"/>
       <c r="F268" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G268" s="23" t="s">
         <v>22</v>
@@ -15073,20 +15157,20 @@
       </c>
       <c r="I268" s="23"/>
       <c r="J268" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="33"/>
-      <c r="B269" s="33"/>
-      <c r="C269" s="33"/>
-      <c r="D269" s="33"/>
+      <c r="A269" s="30"/>
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
+      <c r="D269" s="30"/>
       <c r="E269" s="13"/>
       <c r="F269" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G269" s="23" t="s">
         <v>22</v>
@@ -15096,20 +15180,20 @@
       </c>
       <c r="I269" s="23"/>
       <c r="J269" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="33"/>
-      <c r="B270" s="33"/>
-      <c r="C270" s="33"/>
-      <c r="D270" s="33"/>
+      <c r="A270" s="30"/>
+      <c r="B270" s="30"/>
+      <c r="C270" s="30"/>
+      <c r="D270" s="30"/>
       <c r="E270" s="13"/>
       <c r="F270" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G270" s="23" t="s">
         <v>22</v>
@@ -15119,20 +15203,20 @@
       </c>
       <c r="I270" s="23"/>
       <c r="J270" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
+      <c r="A271" s="30"/>
+      <c r="B271" s="30"/>
+      <c r="C271" s="30"/>
+      <c r="D271" s="30"/>
       <c r="E271" s="13"/>
       <c r="F271" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G271" s="23" t="s">
         <v>22</v>
@@ -15142,20 +15226,20 @@
       </c>
       <c r="I271" s="23"/>
       <c r="J271" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="33"/>
-      <c r="B272" s="33"/>
-      <c r="C272" s="33"/>
-      <c r="D272" s="33"/>
+      <c r="A272" s="30"/>
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
+      <c r="D272" s="30"/>
       <c r="E272" s="13"/>
       <c r="F272" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G272" s="23" t="s">
         <v>22</v>
@@ -15165,20 +15249,20 @@
       </c>
       <c r="I272" s="23"/>
       <c r="J272" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="33"/>
-      <c r="B273" s="33"/>
-      <c r="C273" s="33"/>
-      <c r="D273" s="33"/>
+      <c r="A273" s="30"/>
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="30"/>
       <c r="E273" s="13"/>
       <c r="F273" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G273" s="23" t="s">
         <v>22</v>
@@ -15188,20 +15272,20 @@
       </c>
       <c r="I273" s="23"/>
       <c r="J273" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K273" s="13"/>
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="33"/>
-      <c r="B274" s="33"/>
-      <c r="C274" s="33"/>
-      <c r="D274" s="33"/>
+      <c r="A274" s="30"/>
+      <c r="B274" s="30"/>
+      <c r="C274" s="30"/>
+      <c r="D274" s="30"/>
       <c r="E274" s="13"/>
       <c r="F274" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G274" s="23" t="s">
         <v>22</v>
@@ -15211,43 +15295,43 @@
       </c>
       <c r="I274" s="23"/>
       <c r="J274" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="33"/>
-      <c r="B275" s="33"/>
-      <c r="C275" s="33"/>
-      <c r="D275" s="33"/>
+      <c r="A275" s="30"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
       <c r="E275" s="13"/>
       <c r="F275" s="23" t="s">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="G275" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H275" s="23">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="I275" s="23"/>
       <c r="J275" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K275" s="13"/>
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="33"/>
-      <c r="B276" s="33"/>
-      <c r="C276" s="33"/>
-      <c r="D276" s="33"/>
+      <c r="A276" s="30"/>
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
       <c r="E276" s="13"/>
       <c r="F276" s="23" t="s">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="G276" s="23" t="s">
         <v>22</v>
@@ -15257,20 +15341,20 @@
       </c>
       <c r="I276" s="23"/>
       <c r="J276" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="33"/>
-      <c r="B277" s="33"/>
-      <c r="C277" s="33"/>
-      <c r="D277" s="33"/>
+      <c r="A277" s="30"/>
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
       <c r="E277" s="13"/>
       <c r="F277" s="23" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="G277" s="23" t="s">
         <v>22</v>
@@ -15280,20 +15364,20 @@
       </c>
       <c r="I277" s="23"/>
       <c r="J277" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K277" s="13"/>
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="33"/>
-      <c r="B278" s="33"/>
-      <c r="C278" s="33"/>
-      <c r="D278" s="33"/>
+      <c r="A278" s="30"/>
+      <c r="B278" s="30"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
       <c r="E278" s="13"/>
       <c r="F278" s="23" t="s">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="G278" s="23" t="s">
         <v>22</v>
@@ -15303,20 +15387,20 @@
       </c>
       <c r="I278" s="23"/>
       <c r="J278" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="33"/>
-      <c r="B279" s="33"/>
-      <c r="C279" s="33"/>
-      <c r="D279" s="33"/>
+      <c r="A279" s="30"/>
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
       <c r="E279" s="13"/>
       <c r="F279" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G279" s="23" t="s">
         <v>22</v>
@@ -15326,20 +15410,20 @@
       </c>
       <c r="I279" s="23"/>
       <c r="J279" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K279" s="13"/>
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="33"/>
-      <c r="B280" s="33"/>
-      <c r="C280" s="33"/>
-      <c r="D280" s="33"/>
+      <c r="A280" s="30"/>
+      <c r="B280" s="30"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="30"/>
       <c r="E280" s="13"/>
       <c r="F280" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G280" s="23" t="s">
         <v>22</v>
@@ -15349,73 +15433,69 @@
       </c>
       <c r="I280" s="23"/>
       <c r="J280" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="33"/>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
+      <c r="A281" s="30"/>
+      <c r="B281" s="30"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="30"/>
       <c r="E281" s="13"/>
       <c r="F281" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G281" s="23" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H281" s="23">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I281" s="23"/>
       <c r="J281" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="33"/>
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="14"/>
-      <c r="F282" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="G282" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="H282" s="24">
-        <v>11</v>
-      </c>
-      <c r="I282" s="24">
+      <c r="A282" s="30"/>
+      <c r="B282" s="30"/>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G282" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H282" s="23">
         <v>0</v>
       </c>
-      <c r="J282" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="K282" s="14"/>
-      <c r="L282" s="14"/>
-      <c r="M282" s="14" t="s">
-        <v>630</v>
-      </c>
+      <c r="I282" s="23"/>
+      <c r="J282" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="K282" s="13"/>
+      <c r="L282" s="13"/>
+      <c r="M282" s="13"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="33"/>
-      <c r="B283" s="33"/>
-      <c r="C283" s="33"/>
-      <c r="D283" s="33"/>
+      <c r="A283" s="30"/>
+      <c r="B283" s="30"/>
+      <c r="C283" s="30"/>
+      <c r="D283" s="30"/>
       <c r="E283" s="14"/>
       <c r="F283" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G283" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H283" s="24">
         <v>11</v>
@@ -15424,25 +15504,25 @@
         <v>0</v>
       </c>
       <c r="J283" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K283" s="14"/>
       <c r="L283" s="14"/>
       <c r="M283" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="33"/>
-      <c r="B284" s="33"/>
-      <c r="C284" s="33"/>
-      <c r="D284" s="33"/>
+      <c r="A284" s="30"/>
+      <c r="B284" s="30"/>
+      <c r="C284" s="30"/>
+      <c r="D284" s="30"/>
       <c r="E284" s="14"/>
       <c r="F284" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G284" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H284" s="24">
         <v>11</v>
@@ -15451,25 +15531,25 @@
         <v>0</v>
       </c>
       <c r="J284" s="24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K284" s="14"/>
       <c r="L284" s="14"/>
       <c r="M284" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="33"/>
-      <c r="B285" s="33"/>
-      <c r="C285" s="33"/>
-      <c r="D285" s="33"/>
+      <c r="A285" s="30"/>
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="30"/>
       <c r="E285" s="14"/>
       <c r="F285" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G285" s="24" t="s">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="H285" s="24">
         <v>11</v>
@@ -15478,93 +15558,97 @@
         <v>0</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K285" s="14"/>
       <c r="L285" s="14"/>
       <c r="M285" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" s="30"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G286" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H286" s="24">
+        <v>11</v>
+      </c>
+      <c r="I286" s="24">
+        <v>0</v>
+      </c>
+      <c r="J286" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="K286" s="14"/>
+      <c r="L286" s="14"/>
+      <c r="M286" s="14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="33"/>
-      <c r="B286" s="33"/>
-      <c r="C286" s="33"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="13"/>
-      <c r="F286" s="23" t="s">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" s="30"/>
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="G286" s="23" t="s">
+      <c r="G287" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H286" s="23">
+      <c r="H287" s="23">
         <v>11</v>
       </c>
-      <c r="I286" s="23"/>
-      <c r="J286" s="23" t="s">
+      <c r="I287" s="23"/>
+      <c r="J287" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="K286" s="13"/>
-      <c r="L286" s="13"/>
-      <c r="M286" s="13"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="33"/>
-      <c r="B287" s="33"/>
-      <c r="C287" s="33"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="14"/>
-      <c r="F287" s="24" t="s">
+      <c r="K287" s="13"/>
+      <c r="L287" s="13"/>
+      <c r="M287" s="13"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" s="30"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="14"/>
+      <c r="F288" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="G287" s="24" t="s">
+      <c r="G288" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="H287" s="24">
+      <c r="H288" s="24">
         <v>11</v>
       </c>
-      <c r="I287" s="24"/>
-      <c r="J287" s="24" t="s">
+      <c r="I288" s="24"/>
+      <c r="J288" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="K287" s="14"/>
-      <c r="L287" s="14"/>
-      <c r="M287" s="14" t="s">
+      <c r="K288" s="14"/>
+      <c r="L288" s="14"/>
+      <c r="M288" s="14" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="33"/>
-      <c r="B288" s="33"/>
-      <c r="C288" s="33"/>
-      <c r="D288" s="33"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="G288" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H288" s="23">
-        <v>255</v>
-      </c>
-      <c r="I288" s="23"/>
-      <c r="J288" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="K288" s="13"/>
-      <c r="L288" s="13"/>
-      <c r="M288" s="13"/>
-    </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="33"/>
-      <c r="B289" s="33"/>
-      <c r="C289" s="33"/>
-      <c r="D289" s="33"/>
+      <c r="A289" s="30"/>
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
       <c r="E289" s="13"/>
       <c r="F289" s="23" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="G289" s="23" t="s">
         <v>22</v>
@@ -15574,20 +15658,20 @@
       </c>
       <c r="I289" s="23"/>
       <c r="J289" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="33"/>
-      <c r="B290" s="33"/>
-      <c r="C290" s="33"/>
-      <c r="D290" s="33"/>
+      <c r="A290" s="30"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
       <c r="E290" s="13"/>
       <c r="F290" s="23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G290" s="23" t="s">
         <v>22</v>
@@ -15597,11 +15681,34 @@
       </c>
       <c r="I290" s="23"/>
       <c r="J290" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" s="30"/>
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G291" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H291" s="23">
+        <v>255</v>
+      </c>
+      <c r="I291" s="23"/>
+      <c r="J291" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="K291" s="13"/>
+      <c r="L291" s="13"/>
+      <c r="M291" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L147">
@@ -15610,101 +15717,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="139">
-    <mergeCell ref="M172:M174"/>
-    <mergeCell ref="M218:M219"/>
-    <mergeCell ref="M240:M241"/>
-    <mergeCell ref="E263:J263"/>
-    <mergeCell ref="D263:D290"/>
-    <mergeCell ref="C263:C290"/>
-    <mergeCell ref="B263:B290"/>
-    <mergeCell ref="A263:A290"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="E242:J242"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="E210:J210"/>
-    <mergeCell ref="B178:B209"/>
-    <mergeCell ref="C178:C209"/>
-    <mergeCell ref="D178:D209"/>
-    <mergeCell ref="E178:J178"/>
-    <mergeCell ref="B227:B241"/>
-    <mergeCell ref="C227:C241"/>
-    <mergeCell ref="D227:D241"/>
-    <mergeCell ref="E227:J227"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="M31:M49"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M214:M216"/>
-    <mergeCell ref="E246:J246"/>
-    <mergeCell ref="D246:D255"/>
-    <mergeCell ref="C246:C255"/>
-    <mergeCell ref="A246:A255"/>
-    <mergeCell ref="B246:B255"/>
-    <mergeCell ref="E256:J256"/>
-    <mergeCell ref="D256:D262"/>
-    <mergeCell ref="C256:C262"/>
-    <mergeCell ref="B256:B262"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="B31:B49"/>
-    <mergeCell ref="C31:C49"/>
-    <mergeCell ref="D31:D49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E126:J126"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="D114:D120"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A164:A177"/>
-    <mergeCell ref="A89:A113"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A31:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="A227:A241"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A57:A83"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A178:A209"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="A210:A219"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="D121:D125"/>
-    <mergeCell ref="E121:J121"/>
-    <mergeCell ref="E132:J132"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="E220:J220"/>
-    <mergeCell ref="B164:B177"/>
-    <mergeCell ref="C164:C177"/>
-    <mergeCell ref="D164:D177"/>
-    <mergeCell ref="E164:J164"/>
-    <mergeCell ref="E151:J151"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="D157:D160"/>
-    <mergeCell ref="E157:J157"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="E142:J142"/>
-    <mergeCell ref="B210:B219"/>
-    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="B57:B83"/>
+    <mergeCell ref="C57:C83"/>
+    <mergeCell ref="D57:D83"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
     <mergeCell ref="E161:J161"/>
     <mergeCell ref="E148:J148"/>
     <mergeCell ref="B151:B156"/>
@@ -15729,26 +15761,101 @@
     <mergeCell ref="D126:D131"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E89:J89"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="B57:B83"/>
-    <mergeCell ref="C57:C83"/>
-    <mergeCell ref="D57:D83"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="D121:D125"/>
+    <mergeCell ref="E121:J121"/>
+    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="C221:C227"/>
+    <mergeCell ref="D221:D227"/>
+    <mergeCell ref="E221:J221"/>
+    <mergeCell ref="B164:B177"/>
+    <mergeCell ref="C164:C177"/>
+    <mergeCell ref="D164:D177"/>
+    <mergeCell ref="E164:J164"/>
+    <mergeCell ref="E151:J151"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="D157:D160"/>
+    <mergeCell ref="E157:J157"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="E142:J142"/>
+    <mergeCell ref="B210:B220"/>
+    <mergeCell ref="C210:C220"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A164:A177"/>
+    <mergeCell ref="A89:A113"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A31:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A228:A242"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A57:A83"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A178:A209"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="A210:A220"/>
+    <mergeCell ref="A221:A227"/>
+    <mergeCell ref="M31:M49"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M214:M216"/>
+    <mergeCell ref="E247:J247"/>
+    <mergeCell ref="D247:D256"/>
+    <mergeCell ref="C247:C256"/>
+    <mergeCell ref="A247:A256"/>
+    <mergeCell ref="B247:B256"/>
+    <mergeCell ref="E257:J257"/>
+    <mergeCell ref="D257:D263"/>
+    <mergeCell ref="C257:C263"/>
+    <mergeCell ref="B257:B263"/>
+    <mergeCell ref="A257:A263"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="B31:B49"/>
+    <mergeCell ref="C31:C49"/>
+    <mergeCell ref="D31:D49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E126:J126"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="D114:D120"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="M172:M174"/>
+    <mergeCell ref="M218:M220"/>
+    <mergeCell ref="M241:M242"/>
+    <mergeCell ref="E264:J264"/>
+    <mergeCell ref="D264:D291"/>
+    <mergeCell ref="C264:C291"/>
+    <mergeCell ref="B264:B291"/>
+    <mergeCell ref="A264:A291"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="C243:C246"/>
+    <mergeCell ref="D243:D246"/>
+    <mergeCell ref="E243:J243"/>
+    <mergeCell ref="D210:D220"/>
+    <mergeCell ref="E210:J210"/>
+    <mergeCell ref="B178:B209"/>
+    <mergeCell ref="C178:C209"/>
+    <mergeCell ref="D178:D209"/>
+    <mergeCell ref="E178:J178"/>
+    <mergeCell ref="B228:B242"/>
+    <mergeCell ref="C228:C242"/>
+    <mergeCell ref="D228:D242"/>
+    <mergeCell ref="E228:J228"/>
+    <mergeCell ref="M204:M205"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/中企动力/数据库结构-详细设计文档/微服务 - 公共库.xlsx
+++ b/中企动力/数据库结构-详细设计文档/微服务 - 公共库.xlsx
@@ -15,7 +15,7 @@
     <sheet name="公共库" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">公共库!$A$1:$L$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">公共库!$A$1:$L$148</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="652">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7684,6 +7684,14 @@
   </si>
   <si>
     <t>张浩后期添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7925,7 +7933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8001,35 +8009,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8037,8 +8018,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8076,37 +8096,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8430,11 +8441,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8494,12 +8505,12 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8521,10 +8532,10 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -8544,10 +8555,10 @@
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
@@ -8567,10 +8578,10 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="11" t="s">
         <v>359</v>
       </c>
@@ -8594,10 +8605,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
@@ -8615,10 +8626,10 @@
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
         <v>14</v>
@@ -8642,10 +8653,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
         <v>360</v>
@@ -8665,35 +8676,35 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="47">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="61"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="2" t="s">
         <v>80</v>
       </c>
@@ -8715,10 +8726,10 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
@@ -8740,10 +8751,10 @@
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="61"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="2" t="s">
         <v>296</v>
       </c>
@@ -8765,10 +8776,10 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
@@ -8790,35 +8801,35 @@
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="47">
         <v>2</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
@@ -8840,10 +8851,10 @@
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
@@ -8865,10 +8876,10 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
@@ -8890,10 +8901,10 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
@@ -8915,10 +8926,10 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
@@ -8940,10 +8951,10 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
@@ -8965,10 +8976,10 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
@@ -8990,35 +9001,35 @@
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="47">
         <v>3</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="8" t="s">
         <v>5</v>
       </c>
@@ -9037,15 +9048,15 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="56" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
@@ -9064,13 +9075,13 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="32"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
@@ -9092,10 +9103,10 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9117,10 +9128,10 @@
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="2" t="s">
         <v>27</v>
       </c>
@@ -9142,10 +9153,10 @@
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
@@ -9167,10 +9178,10 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
@@ -9192,10 +9203,10 @@
       <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
@@ -9217,37 +9228,37 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
+      <c r="A31" s="49">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="56" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="8" t="s">
         <v>85</v>
       </c>
@@ -9266,13 +9277,13 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="32"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
@@ -9291,13 +9302,13 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="32"/>
+      <c r="M33" s="56"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="8" t="s">
         <v>87</v>
       </c>
@@ -9316,13 +9327,13 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="8" t="s">
         <v>89</v>
       </c>
@@ -9341,13 +9352,13 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="32"/>
+      <c r="M35" s="56"/>
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="35"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="8" t="s">
         <v>90</v>
       </c>
@@ -9366,13 +9377,13 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="32"/>
+      <c r="M36" s="56"/>
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="35"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="8" t="s">
         <v>91</v>
       </c>
@@ -9391,13 +9402,13 @@
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="32"/>
+      <c r="M37" s="56"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="35"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="8" t="s">
         <v>92</v>
       </c>
@@ -9416,13 +9427,13 @@
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="32"/>
+      <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="35"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="8" t="s">
         <v>93</v>
       </c>
@@ -9441,13 +9452,13 @@
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="32"/>
+      <c r="M39" s="56"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="8" t="s">
         <v>94</v>
       </c>
@@ -9466,13 +9477,13 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="32"/>
+      <c r="M40" s="56"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="35"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="8" t="s">
         <v>95</v>
       </c>
@@ -9491,13 +9502,13 @@
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="32"/>
+      <c r="M41" s="56"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="8" t="s">
         <v>96</v>
       </c>
@@ -9516,13 +9527,13 @@
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="32"/>
+      <c r="M42" s="56"/>
     </row>
     <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="35"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="8" t="s">
         <v>97</v>
       </c>
@@ -9541,13 +9552,13 @@
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="32"/>
+      <c r="M43" s="56"/>
     </row>
     <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="35"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="8" t="s">
         <v>98</v>
       </c>
@@ -9566,13 +9577,13 @@
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="32"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="35"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="8" t="s">
         <v>99</v>
       </c>
@@ -9591,13 +9602,13 @@
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="32"/>
+      <c r="M45" s="56"/>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="35"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="8" t="s">
         <v>74</v>
       </c>
@@ -9616,13 +9627,13 @@
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="32"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="8" t="s">
         <v>100</v>
       </c>
@@ -9641,13 +9652,13 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="32"/>
+      <c r="M47" s="56"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="35"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="8" t="s">
         <v>101</v>
       </c>
@@ -9666,13 +9677,13 @@
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="35"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="8" t="s">
         <v>102</v>
       </c>
@@ -9691,38 +9702,38 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="32"/>
+      <c r="M49" s="56"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+      <c r="A50" s="49">
         <v>5</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="61"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="2" t="s">
         <v>87</v>
       </c>
@@ -9744,10 +9755,10 @@
       <c r="M51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="61"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -9769,10 +9780,10 @@
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="61"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9794,10 +9805,10 @@
       <c r="M53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="61"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="9" t="s">
         <v>106</v>
       </c>
@@ -9821,10 +9832,10 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="61"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="2" t="s">
         <v>107</v>
       </c>
@@ -9846,10 +9857,10 @@
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="61"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="9" t="s">
         <v>108</v>
       </c>
@@ -9873,35 +9884,35 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+      <c r="A57" s="47">
         <v>6</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="2" t="s">
         <v>28</v>
       </c>
@@ -9923,10 +9934,10 @@
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="2" t="s">
         <v>49</v>
       </c>
@@ -9948,10 +9959,10 @@
       <c r="M59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="2" t="s">
         <v>31</v>
       </c>
@@ -9973,10 +9984,10 @@
       <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="2" t="s">
         <v>50</v>
       </c>
@@ -9998,10 +10009,10 @@
       <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
       <c r="E62" t="s">
         <v>8</v>
       </c>
@@ -10022,10 +10033,10 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="2" t="s">
         <v>69</v>
       </c>
@@ -10047,10 +10058,10 @@
       <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="2" t="s">
         <v>70</v>
       </c>
@@ -10072,10 +10083,10 @@
       <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
@@ -10097,10 +10108,10 @@
       <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
       <c r="E66" t="s">
         <v>223</v>
       </c>
@@ -10118,10 +10129,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="2" t="s">
         <v>39</v>
       </c>
@@ -10143,10 +10154,10 @@
       <c r="M67" s="13"/>
     </row>
     <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="2" t="s">
         <v>71</v>
       </c>
@@ -10168,10 +10179,10 @@
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
@@ -10193,10 +10204,10 @@
       <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="2" t="s">
         <v>65</v>
       </c>
@@ -10218,10 +10229,10 @@
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="2" t="s">
         <v>66</v>
       </c>
@@ -10243,10 +10254,10 @@
       <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="2" t="s">
         <v>67</v>
       </c>
@@ -10268,10 +10279,10 @@
       <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
@@ -10293,10 +10304,10 @@
       <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
@@ -10318,10 +10329,10 @@
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
       <c r="E75" t="s">
         <v>68</v>
       </c>
@@ -10339,10 +10350,10 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
       <c r="E76" s="2" t="s">
         <v>56</v>
       </c>
@@ -10364,10 +10375,10 @@
       <c r="M76" s="13"/>
     </row>
     <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="2" t="s">
         <v>52</v>
       </c>
@@ -10389,10 +10400,10 @@
       <c r="M77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="2" t="s">
         <v>54</v>
       </c>
@@ -10414,10 +10425,10 @@
       <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="2" t="s">
         <v>53</v>
       </c>
@@ -10439,10 +10450,10 @@
       <c r="M79" s="13"/>
     </row>
     <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
       <c r="E80" t="s">
         <v>60</v>
       </c>
@@ -10460,10 +10471,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
       <c r="E81" t="s">
         <v>61</v>
       </c>
@@ -10481,10 +10492,10 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="2" t="s">
         <v>62</v>
       </c>
@@ -10506,10 +10517,10 @@
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="2" t="s">
         <v>55</v>
       </c>
@@ -10531,35 +10542,35 @@
       <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
+      <c r="A84" s="47">
         <v>7</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="13"/>
     </row>
     <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
@@ -10581,10 +10592,10 @@
       <c r="M85" s="13"/>
     </row>
     <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="2" t="s">
         <v>122</v>
       </c>
@@ -10606,10 +10617,10 @@
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
@@ -10631,10 +10642,10 @@
       <c r="M87" s="13"/>
     </row>
     <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="2" t="s">
         <v>124</v>
       </c>
@@ -10656,35 +10667,35 @@
       <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="43">
+      <c r="A89" s="47">
         <v>8</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="13"/>
     </row>
     <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="2" t="s">
         <v>28</v>
       </c>
@@ -10706,10 +10717,10 @@
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="2" t="s">
         <v>134</v>
       </c>
@@ -10731,10 +10742,10 @@
       <c r="M91" s="13"/>
     </row>
     <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="2" t="s">
         <v>135</v>
       </c>
@@ -10756,10 +10767,10 @@
       <c r="M92" s="13"/>
     </row>
     <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="2" t="s">
         <v>136</v>
       </c>
@@ -10781,10 +10792,10 @@
       <c r="M93" s="13"/>
     </row>
     <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="2" t="s">
         <v>137</v>
       </c>
@@ -10806,10 +10817,10 @@
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="2" t="s">
         <v>80</v>
       </c>
@@ -10831,10 +10842,10 @@
       <c r="M95" s="13"/>
     </row>
     <row r="96" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
       <c r="E96" t="s">
         <v>110</v>
       </c>
@@ -10855,10 +10866,10 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
       <c r="E97" t="s">
         <v>138</v>
       </c>
@@ -10879,10 +10890,10 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
       <c r="E98" t="s">
         <v>140</v>
       </c>
@@ -10903,10 +10914,10 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
       <c r="E99" t="s">
         <v>142</v>
       </c>
@@ -10927,10 +10938,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
       <c r="E100" t="s">
         <v>144</v>
       </c>
@@ -10951,10 +10962,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
+      <c r="A101" s="48"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
       <c r="E101" t="s">
         <v>146</v>
       </c>
@@ -10975,10 +10986,10 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
       <c r="E102" s="2" t="s">
         <v>148</v>
       </c>
@@ -11000,10 +11011,10 @@
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
       <c r="E103" s="2" t="s">
         <v>149</v>
       </c>
@@ -11025,10 +11036,10 @@
       <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
       <c r="E104" s="2" t="s">
         <v>30</v>
       </c>
@@ -11050,10 +11061,10 @@
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
       <c r="E105" s="9" t="s">
         <v>150</v>
       </c>
@@ -11077,10 +11088,10 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
       <c r="E106" s="2" t="s">
         <v>151</v>
       </c>
@@ -11102,10 +11113,10 @@
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
       <c r="E107" s="2" t="s">
         <v>152</v>
       </c>
@@ -11127,10 +11138,10 @@
       <c r="M107" s="13"/>
     </row>
     <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
       <c r="E108" s="2" t="s">
         <v>153</v>
       </c>
@@ -11152,10 +11163,10 @@
       <c r="M108" s="13"/>
     </row>
     <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
       <c r="E109" s="2" t="s">
         <v>154</v>
       </c>
@@ -11177,10 +11188,10 @@
       <c r="M109" s="13"/>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
       <c r="E110" s="2" t="s">
         <v>155</v>
       </c>
@@ -11202,10 +11213,10 @@
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
       <c r="E111" s="2" t="s">
         <v>156</v>
       </c>
@@ -11227,10 +11238,10 @@
       <c r="M111" s="13"/>
     </row>
     <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
       <c r="E112" s="2" t="s">
         <v>157</v>
       </c>
@@ -11252,10 +11263,10 @@
       <c r="M112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
       <c r="E113" s="9" t="s">
         <v>158</v>
       </c>
@@ -11279,35 +11290,35 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="43">
+      <c r="A114" s="47">
         <v>9</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D114" s="38" t="s">
+      <c r="D114" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="E114" s="37" t="s">
+      <c r="E114" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
       <c r="E115" s="2" t="s">
         <v>28</v>
       </c>
@@ -11329,10 +11340,10 @@
       <c r="M115" s="13"/>
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="2" t="s">
         <v>80</v>
       </c>
@@ -11354,10 +11365,10 @@
       <c r="M116" s="13"/>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
       <c r="E117" s="2" t="s">
         <v>49</v>
       </c>
@@ -11379,10 +11390,10 @@
       <c r="M117" s="13"/>
     </row>
     <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
       <c r="E118" s="2" t="s">
         <v>160</v>
       </c>
@@ -11403,112 +11414,112 @@
       <c r="L118" s="2"/>
       <c r="M118" s="13"/>
     </row>
-    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
+    <row r="119" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="47"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
       <c r="E119" s="2" t="s">
-        <v>161</v>
+        <v>650</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>161</v>
+        <v>650</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>3</v>
+        <v>346</v>
       </c>
       <c r="H119" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I119" s="2"/>
-      <c r="J119" s="2" t="s">
-        <v>460</v>
+      <c r="J119" s="63" t="s">
+        <v>651</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="13"/>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" t="s">
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="47"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="2">
+        <v>20</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="13"/>
+    </row>
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" t="s">
         <v>64</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>64</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>23</v>
       </c>
-      <c r="H120">
+      <c r="H121">
         <v>255</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I121" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121" s="45">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A122" s="49">
         <v>10</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B122" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C122" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="D121" s="38" t="s">
+      <c r="D122" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E121" s="37" t="s">
+      <c r="E122" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="13"/>
-    </row>
-    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="2">
-        <v>255</v>
-      </c>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
+      <c r="A123" s="50"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
       <c r="E123" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>22</v>
@@ -11518,124 +11529,124 @@
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>287</v>
+        <v>462</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="13"/>
     </row>
     <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="9" t="s">
+      <c r="A124" s="50"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="2">
+        <v>255</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="13"/>
+    </row>
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F125" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="H124" s="9">
+      <c r="H125" s="9">
         <v>11</v>
       </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9" t="s">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="14" t="s">
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="2" t="s">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H126" s="2">
         <v>255</v>
       </c>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2" t="s">
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="13"/>
-    </row>
-    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126" s="45">
-        <v>11</v>
-      </c>
-      <c r="B126" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C126" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D126" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="E126" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="13"/>
     </row>
     <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="46"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="2">
-        <v>255</v>
-      </c>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
-        <v>465</v>
-      </c>
+      <c r="A127" s="49">
+        <v>11</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D127" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="13"/>
     </row>
     <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128" s="46"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="61"/>
+      <c r="A128" s="50"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="30"/>
       <c r="E128" s="2" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>22</v>
@@ -11645,151 +11656,151 @@
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="13"/>
     </row>
     <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="61"/>
+      <c r="A129" s="50"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="30"/>
       <c r="E129" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H129" s="2">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="13"/>
     </row>
     <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A130" s="46"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="9" t="s">
+      <c r="A130" s="50"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="13"/>
+    </row>
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A131" s="50"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F131" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G131" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H131" s="9">
         <v>11</v>
       </c>
-      <c r="I130" s="9">
+      <c r="I131" s="9">
         <v>0</v>
       </c>
-      <c r="J130" s="9" t="s">
+      <c r="J131" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="14" t="s">
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="14" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="61"/>
-      <c r="E131" s="2" t="s">
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="51"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H132" s="2">
         <v>0</v>
       </c>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2" t="s">
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="13"/>
-    </row>
-    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="51">
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="13"/>
+    </row>
+    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="55">
         <v>12</v>
       </c>
-      <c r="B132" s="58" t="s">
+      <c r="B133" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C132" s="58" t="s">
+      <c r="C133" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D132" s="59" t="s">
+      <c r="D133" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="E132" s="52" t="s">
+      <c r="E133" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="13"/>
-    </row>
-    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" s="6">
-        <v>255</v>
-      </c>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6" t="s">
-        <v>470</v>
-      </c>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="41"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="13"/>
     </row>
     <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134" s="51"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="59"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="37"/>
       <c r="E134" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>22</v>
@@ -11799,22 +11810,22 @@
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6" t="s">
-        <v>291</v>
+        <v>470</v>
       </c>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="13"/>
     </row>
     <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="59"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="37"/>
       <c r="E135" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>22</v>
@@ -11824,22 +11835,22 @@
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="13"/>
     </row>
     <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="59"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>22</v>
@@ -11849,22 +11860,22 @@
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6" t="s">
-        <v>471</v>
+        <v>292</v>
       </c>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="13"/>
     </row>
     <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="59"/>
+      <c r="A137" s="55"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="37"/>
       <c r="E137" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>22</v>
@@ -11874,47 +11885,47 @@
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6" t="s">
-        <v>293</v>
+        <v>471</v>
       </c>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="13"/>
     </row>
     <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="59"/>
+      <c r="A138" s="55"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="37"/>
       <c r="E138" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="H138" s="6">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6" t="s">
-        <v>472</v>
+        <v>293</v>
       </c>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="59"/>
+      <c r="A139" s="55"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="37"/>
       <c r="E139" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>119</v>
@@ -11924,22 +11935,22 @@
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6" t="s">
-        <v>294</v>
+        <v>472</v>
       </c>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="13"/>
     </row>
     <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="59"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
       <c r="E140" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>119</v>
@@ -11949,124 +11960,124 @@
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6" t="s">
-        <v>473</v>
+        <v>294</v>
       </c>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="13"/>
     </row>
-    <row r="141" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="12" t="s">
+    <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141" s="55"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H141" s="6">
+        <v>0</v>
+      </c>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="13"/>
+    </row>
+    <row r="142" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="55"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F142" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G141" s="12" t="s">
+      <c r="G142" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H142" s="12">
         <v>255</v>
       </c>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12" t="s">
+      <c r="I142" s="12"/>
+      <c r="J142" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="14" t="s">
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="51">
+    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="55">
         <v>13</v>
       </c>
-      <c r="B142" s="58" t="s">
+      <c r="B143" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C142" s="58" t="s">
+      <c r="C143" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="D142" s="58" t="s">
+      <c r="D143" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="E142" s="52" t="s">
+      <c r="E143" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="F142" s="53"/>
-      <c r="G142" s="53"/>
-      <c r="H142" s="53"/>
-      <c r="I142" s="53"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="13"/>
-    </row>
-    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143" s="6">
-        <v>20</v>
-      </c>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6" t="s">
-        <v>476</v>
-      </c>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="41"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58"/>
+      <c r="A144" s="55"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
       <c r="E144" s="6" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H144" s="6">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
       <c r="E145" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>22</v>
@@ -12076,22 +12087,22 @@
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="13"/>
     </row>
     <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
       <c r="E146" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>22</v>
@@ -12101,101 +12112,101 @@
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="12" t="s">
+      <c r="A147" s="55"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="6">
+        <v>255</v>
+      </c>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="13"/>
+    </row>
+    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A148" s="55"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F148" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G147" s="12" t="s">
+      <c r="G148" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H147" s="12">
+      <c r="H148" s="12">
         <v>11</v>
       </c>
-      <c r="I147" s="12">
+      <c r="I148" s="12">
         <v>0</v>
       </c>
-      <c r="J147" s="12" t="s">
+      <c r="J148" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="14" t="s">
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="30">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="35">
         <v>14</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B149" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="C148" s="30" t="s">
+      <c r="C149" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="D149" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="E148" s="55" t="s">
+      <c r="E149" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="56"/>
-      <c r="J148" s="57"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="30"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H149" s="13">
-        <v>20</v>
-      </c>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13" t="s">
-        <v>484</v>
-      </c>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="30"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
       <c r="E150" s="13" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>3</v>
@@ -12205,72 +12216,72 @@
       </c>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="30">
-        <v>15</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="E151" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="56"/>
-      <c r="J151" s="57"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H151" s="13">
+        <v>20</v>
+      </c>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13" t="s">
+        <v>485</v>
+      </c>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="30"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H152" s="13">
-        <v>20</v>
-      </c>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13" t="s">
-        <v>487</v>
-      </c>
+      <c r="A152" s="35">
+        <v>15</v>
+      </c>
+      <c r="B152" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="34"/>
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="30"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
       <c r="E153" s="13" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="G153" s="13" t="s">
         <v>3</v>
@@ -12280,22 +12291,22 @@
       </c>
       <c r="I153" s="13"/>
       <c r="J153" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="30"/>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
       <c r="E154" s="13" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="G154" s="13" t="s">
         <v>3</v>
@@ -12305,22 +12316,22 @@
       </c>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="30"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
       <c r="E155" s="13" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="G155" s="13" t="s">
         <v>3</v>
@@ -12330,101 +12341,101 @@
       </c>
       <c r="I155" s="13"/>
       <c r="J155" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="30"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="14" t="s">
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" s="13">
+        <v>20</v>
+      </c>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F156" s="14" t="s">
+      <c r="F157" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G156" s="14" t="s">
+      <c r="G157" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H157" s="14">
         <v>11</v>
       </c>
-      <c r="I156" s="14">
+      <c r="I157" s="14">
         <v>1</v>
       </c>
-      <c r="J156" s="14" t="s">
+      <c r="J157" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14" t="s">
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="30">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="35">
         <v>16</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B158" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="C158" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D157" s="30" t="s">
+      <c r="D158" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="E157" s="55" t="s">
+      <c r="E158" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="56"/>
-      <c r="J157" s="57"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="30"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" s="13">
-        <v>20</v>
-      </c>
-      <c r="I158" s="13"/>
-      <c r="J158" s="13" t="s">
-        <v>494</v>
-      </c>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="34"/>
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="30"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G159" s="13" t="s">
         <v>3</v>
@@ -12434,197 +12445,197 @@
       </c>
       <c r="I159" s="13"/>
       <c r="J159" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="30"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
       <c r="E160" s="13" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H160" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="30">
-        <v>17</v>
-      </c>
-      <c r="B161" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C161" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="E161" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="56"/>
-      <c r="J161" s="57"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="13">
+        <v>0</v>
+      </c>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13" t="s">
+        <v>496</v>
+      </c>
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="30"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H162" s="13">
-        <v>50</v>
-      </c>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13" t="s">
-        <v>499</v>
-      </c>
+      <c r="A162" s="35">
+        <v>17</v>
+      </c>
+      <c r="B162" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="E162" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="34"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="30"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
       <c r="E163" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G163" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H163" s="13">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="I163" s="13"/>
       <c r="J163" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="30">
-        <v>18</v>
-      </c>
-      <c r="B164" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="E164" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="F164" s="56"/>
-      <c r="G164" s="56"/>
-      <c r="H164" s="56"/>
-      <c r="I164" s="56"/>
-      <c r="J164" s="57"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="13">
+        <v>128</v>
+      </c>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13" t="s">
+        <v>500</v>
+      </c>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="30"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G165" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H165" s="13">
-        <v>11</v>
-      </c>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13" t="s">
-        <v>502</v>
-      </c>
+      <c r="A165" s="35">
+        <v>18</v>
+      </c>
+      <c r="B165" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="E165" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="33"/>
+      <c r="J165" s="34"/>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="30"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
       <c r="E166" s="13" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H166" s="13">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="30"/>
-      <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
       <c r="E167" s="13" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="G167" s="13" t="s">
         <v>22</v>
@@ -12634,22 +12645,22 @@
       </c>
       <c r="I167" s="13"/>
       <c r="J167" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="30"/>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="13" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="G168" s="13" t="s">
         <v>22</v>
@@ -12659,130 +12670,128 @@
       </c>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="30"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
       <c r="E169" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H169" s="13">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I169" s="13"/>
       <c r="J169" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="30"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="14" t="s">
+      <c r="A170" s="35"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" s="13">
+        <v>20</v>
+      </c>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="K170" s="13"/>
+      <c r="L170" s="13"/>
+      <c r="M170" s="13"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="35"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F170" s="14" t="s">
+      <c r="F171" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G170" s="14" t="s">
+      <c r="G171" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H171" s="14">
         <v>11</v>
       </c>
-      <c r="I170" s="14">
+      <c r="I171" s="14">
         <v>0</v>
       </c>
-      <c r="J170" s="14" t="s">
+      <c r="J171" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="K170" s="14"/>
-      <c r="L170" s="14"/>
-      <c r="M170" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="30"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="G171" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="H171" s="14">
-        <v>20</v>
-      </c>
-      <c r="I171" s="14"/>
-      <c r="J171" s="14" t="s">
-        <v>509</v>
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14"/>
       <c r="M171" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="14" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="H172" s="14">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
-      <c r="M172" s="27" t="s">
-        <v>475</v>
+      <c r="M172" s="14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="30"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="35"/>
       <c r="E173" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>22</v>
@@ -12792,22 +12801,24 @@
       </c>
       <c r="I173" s="14"/>
       <c r="J173" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
-      <c r="M173" s="27"/>
+      <c r="M173" s="62" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="30"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G174" s="14" t="s">
         <v>22</v>
@@ -12817,149 +12828,149 @@
       </c>
       <c r="I174" s="14"/>
       <c r="J174" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
-      <c r="M174" s="27"/>
+      <c r="M174" s="62"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="30"/>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
       <c r="E175" s="14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>371</v>
+        <v>131</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="H175" s="14">
         <v>255</v>
       </c>
       <c r="I175" s="14"/>
       <c r="J175" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14"/>
-      <c r="M175" s="14" t="s">
-        <v>515</v>
-      </c>
+      <c r="M175" s="62"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="30"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="14" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="H176" s="14">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="I176" s="14"/>
       <c r="J176" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
       <c r="M176" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H177" s="14">
+        <v>11</v>
+      </c>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="K177" s="14"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="30"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="13" t="s">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F177" s="13" t="s">
+      <c r="F178" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G177" s="13" t="s">
+      <c r="G178" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H177" s="13">
+      <c r="H178" s="13">
         <v>255</v>
       </c>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="13"/>
-      <c r="L177" s="13"/>
-      <c r="M177" s="13"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="48">
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="13"/>
+      <c r="M178" s="13"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="52">
         <v>19</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B179" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C178" s="31" t="s">
+      <c r="C179" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D179" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="E178" s="29" t="s">
+      <c r="E179" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="29"/>
-      <c r="K178" s="16"/>
-      <c r="L178" s="16"/>
-      <c r="M178" s="13"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="49"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F179" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G179" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H179" s="16">
-        <v>255</v>
-      </c>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16" t="s">
-        <v>519</v>
-      </c>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="43"/>
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="13"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
       <c r="E180" s="16" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>22</v>
@@ -12969,22 +12980,22 @@
       </c>
       <c r="I180" s="16"/>
       <c r="J180" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="13"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="49"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
+      <c r="A181" s="53"/>
+      <c r="B181" s="42"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="42"/>
       <c r="E181" s="16" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>22</v>
@@ -12994,22 +13005,22 @@
       </c>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="13"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="49"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+      <c r="A182" s="53"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
       <c r="E182" s="16" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>22</v>
@@ -13019,22 +13030,22 @@
       </c>
       <c r="I182" s="16"/>
       <c r="J182" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="13"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="49"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
+      <c r="A183" s="53"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="42"/>
       <c r="E183" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>22</v>
@@ -13044,22 +13055,22 @@
       </c>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="13"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="49"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
+      <c r="A184" s="53"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="42"/>
       <c r="E184" s="16" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>22</v>
@@ -13069,22 +13080,22 @@
       </c>
       <c r="I184" s="16"/>
       <c r="J184" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K184" s="16"/>
       <c r="L184" s="16"/>
       <c r="M184" s="13"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="49"/>
-      <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31"/>
+      <c r="A185" s="53"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
       <c r="E185" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>22</v>
@@ -13094,22 +13105,22 @@
       </c>
       <c r="I185" s="16"/>
       <c r="J185" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K185" s="16"/>
       <c r="L185" s="16"/>
       <c r="M185" s="13"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
+      <c r="A186" s="53"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="42"/>
       <c r="E186" s="16" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>22</v>
@@ -13119,22 +13130,22 @@
       </c>
       <c r="I186" s="16"/>
       <c r="J186" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K186" s="16"/>
       <c r="L186" s="16"/>
       <c r="M186" s="13"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="49"/>
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="31"/>
+      <c r="A187" s="53"/>
+      <c r="B187" s="42"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="42"/>
       <c r="E187" s="16" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>22</v>
@@ -13144,22 +13155,22 @@
       </c>
       <c r="I187" s="16"/>
       <c r="J187" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K187" s="16"/>
       <c r="L187" s="16"/>
       <c r="M187" s="13"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="49"/>
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
+      <c r="A188" s="53"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
       <c r="E188" s="16" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>22</v>
@@ -13169,22 +13180,22 @@
       </c>
       <c r="I188" s="16"/>
       <c r="J188" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
       <c r="M188" s="13"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="49"/>
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31"/>
+      <c r="A189" s="53"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="42"/>
       <c r="E189" s="16" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="G189" s="16" t="s">
         <v>22</v>
@@ -13194,22 +13205,22 @@
       </c>
       <c r="I189" s="16"/>
       <c r="J189" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
       <c r="M189" s="13"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="49"/>
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
       <c r="E190" s="16" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>22</v>
@@ -13219,101 +13230,101 @@
       </c>
       <c r="I190" s="16"/>
       <c r="J190" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K190" s="16"/>
       <c r="L190" s="16"/>
       <c r="M190" s="13"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="17" t="s">
+      <c r="A191" s="53"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" s="16">
+        <v>255</v>
+      </c>
+      <c r="I191" s="16"/>
+      <c r="J191" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="K191" s="16"/>
+      <c r="L191" s="16"/>
+      <c r="M191" s="13"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="53"/>
+      <c r="B192" s="42"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="42"/>
+      <c r="E192" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F191" s="17" t="s">
+      <c r="F192" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="G191" s="17" t="s">
+      <c r="G192" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H191" s="17">
+      <c r="H192" s="17">
         <v>11</v>
       </c>
-      <c r="I191" s="17">
+      <c r="I192" s="17">
         <v>0</v>
       </c>
-      <c r="J191" s="17" t="s">
+      <c r="J192" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="K191" s="17"/>
-      <c r="L191" s="17"/>
-      <c r="M191" s="14" t="s">
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="49"/>
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="16" t="s">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="53"/>
+      <c r="B193" s="42"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="42"/>
+      <c r="E193" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F192" s="16" t="s">
+      <c r="F193" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G192" s="16" t="s">
+      <c r="G193" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H192" s="16">
+      <c r="H193" s="16">
         <v>20</v>
-      </c>
-      <c r="I192" s="16"/>
-      <c r="J192" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="K192" s="16"/>
-      <c r="L192" s="16"/>
-      <c r="M192" s="13"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F193" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G193" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H193" s="16">
-        <v>255</v>
       </c>
       <c r="I193" s="16"/>
       <c r="J193" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
       <c r="M193" s="13"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="31"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="42"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
       <c r="E194" s="16" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>22</v>
@@ -13323,22 +13334,22 @@
       </c>
       <c r="I194" s="16"/>
       <c r="J194" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
       <c r="M194" s="13"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="49"/>
-      <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="31"/>
+      <c r="A195" s="53"/>
+      <c r="B195" s="42"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
       <c r="E195" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>22</v>
@@ -13348,426 +13359,426 @@
       </c>
       <c r="I195" s="16"/>
       <c r="J195" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
       <c r="M195" s="13"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="49"/>
-      <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="31"/>
+      <c r="A196" s="53"/>
+      <c r="B196" s="42"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
       <c r="E196" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H196" s="16">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I196" s="16"/>
       <c r="J196" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
       <c r="M196" s="13"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
+      <c r="A197" s="53"/>
+      <c r="B197" s="42"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
       <c r="E197" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H197" s="16">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I197" s="16"/>
       <c r="J197" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
       <c r="M197" s="13"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="49"/>
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
+      <c r="A198" s="53"/>
+      <c r="B198" s="42"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
       <c r="E198" s="16" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H198" s="16">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I198" s="16"/>
       <c r="J198" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
       <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="49"/>
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
+      <c r="A199" s="53"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="42"/>
       <c r="E199" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H199" s="16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I199" s="16"/>
       <c r="J199" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
       <c r="M199" s="13"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="49"/>
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="17" t="s">
+      <c r="A200" s="53"/>
+      <c r="B200" s="42"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G200" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H200" s="16">
+        <v>11</v>
+      </c>
+      <c r="I200" s="16"/>
+      <c r="J200" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="K200" s="16"/>
+      <c r="L200" s="16"/>
+      <c r="M200" s="13"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="53"/>
+      <c r="B201" s="42"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="42"/>
+      <c r="E201" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F200" s="17" t="s">
+      <c r="F201" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G200" s="17" t="s">
+      <c r="G201" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H200" s="17">
+      <c r="H201" s="17">
         <v>11</v>
       </c>
-      <c r="I200" s="17">
+      <c r="I201" s="17">
         <v>0</v>
       </c>
-      <c r="J200" s="17" t="s">
+      <c r="J201" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="K200" s="17"/>
-      <c r="L200" s="17"/>
-      <c r="M200" s="14" t="s">
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+      <c r="M201" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="49"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="16" t="s">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="53"/>
+      <c r="B202" s="42"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="42"/>
+      <c r="E202" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F201" s="16" t="s">
+      <c r="F202" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G201" s="16" t="s">
+      <c r="G202" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H201" s="16">
+      <c r="H202" s="16">
         <v>255</v>
-      </c>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="K201" s="16"/>
-      <c r="L201" s="16"/>
-      <c r="M201" s="13"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="49"/>
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="31"/>
-      <c r="E202" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F202" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="G202" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H202" s="16">
-        <v>0</v>
       </c>
       <c r="I202" s="16"/>
       <c r="J202" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
       <c r="M202" s="13"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="49"/>
-      <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="31"/>
-      <c r="E203" s="17" t="s">
+      <c r="A203" s="53"/>
+      <c r="B203" s="42"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="42"/>
+      <c r="E203" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G203" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H203" s="16">
+        <v>0</v>
+      </c>
+      <c r="I203" s="16"/>
+      <c r="J203" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="K203" s="16"/>
+      <c r="L203" s="16"/>
+      <c r="M203" s="13"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" s="53"/>
+      <c r="B204" s="42"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
+      <c r="E204" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F203" s="17" t="s">
+      <c r="F204" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G203" s="17" t="s">
+      <c r="G204" s="17" t="s">
         <v>1</v>
-      </c>
-      <c r="H203" s="17">
-        <v>11</v>
-      </c>
-      <c r="I203" s="17">
-        <v>0</v>
-      </c>
-      <c r="J203" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="K203" s="17"/>
-      <c r="L203" s="17"/>
-      <c r="M203" s="14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
-      <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="31"/>
-      <c r="E204" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="F204" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="G204" s="17" t="s">
-        <v>347</v>
       </c>
       <c r="H204" s="17">
         <v>11</v>
       </c>
-      <c r="I204" s="17"/>
+      <c r="I204" s="17">
+        <v>0</v>
+      </c>
       <c r="J204" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K204" s="17"/>
       <c r="L204" s="17"/>
-      <c r="M204" s="28" t="s">
-        <v>546</v>
+      <c r="M204" s="14" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="49"/>
-      <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F205" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G205" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="H205" s="18">
-        <v>255</v>
-      </c>
-      <c r="I205" s="18"/>
-      <c r="J205" s="18" t="s">
-        <v>348</v>
+      <c r="A205" s="53"/>
+      <c r="B205" s="42"/>
+      <c r="C205" s="42"/>
+      <c r="D205" s="42"/>
+      <c r="E205" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="G205" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H205" s="17">
+        <v>11</v>
+      </c>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="K205" s="17"/>
       <c r="L205" s="17"/>
-      <c r="M205" s="28"/>
+      <c r="M205" s="57" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="49"/>
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="19" t="s">
+      <c r="A206" s="53"/>
+      <c r="B206" s="42"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="42"/>
+      <c r="E206" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F206" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G206" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H206" s="18">
+        <v>255</v>
+      </c>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="57"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" s="53"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="F206" s="19" t="s">
+      <c r="F207" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="G206" s="19" t="s">
+      <c r="G207" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H206" s="19">
+      <c r="H207" s="19">
         <v>255</v>
       </c>
-      <c r="I206" s="19"/>
-      <c r="J206" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="K206" s="20"/>
-      <c r="L206" s="20"/>
-      <c r="M206" s="21"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="49"/>
-      <c r="B207" s="31"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
       <c r="I207" s="19"/>
       <c r="J207" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K207" s="20"/>
       <c r="L207" s="20"/>
       <c r="M207" s="21"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="49"/>
-      <c r="B208" s="31"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="31"/>
-      <c r="E208" s="18" t="s">
+      <c r="A208" s="53"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="42"/>
+      <c r="E208" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="21"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" s="53"/>
+      <c r="B209" s="42"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="42"/>
+      <c r="E209" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F208" s="18" t="s">
+      <c r="F209" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="G208" s="18" t="s">
+      <c r="G209" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="H208" s="18">
+      <c r="H209" s="18">
         <v>11</v>
       </c>
-      <c r="I208" s="18">
+      <c r="I209" s="18">
         <v>0</v>
       </c>
-      <c r="J208" s="18" t="s">
+      <c r="J209" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="K208" s="17"/>
-      <c r="L208" s="17"/>
-      <c r="M208" s="22" t="s">
+      <c r="K209" s="17"/>
+      <c r="L209" s="17"/>
+      <c r="M209" s="22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
-      <c r="E209" s="19" t="s">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="54"/>
+      <c r="B210" s="42"/>
+      <c r="C210" s="42"/>
+      <c r="D210" s="42"/>
+      <c r="E210" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F209" s="19" t="s">
+      <c r="F210" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="20"/>
-      <c r="L209" s="20"/>
-      <c r="M209" s="21" t="s">
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="21" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="48">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" s="52">
         <v>20</v>
       </c>
-      <c r="B210" s="31" t="s">
+      <c r="B211" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C210" s="31" t="s">
+      <c r="C211" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="D210" s="31" t="s">
+      <c r="D211" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="E210" s="29" t="s">
+      <c r="E211" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="F210" s="29"/>
-      <c r="G210" s="29"/>
-      <c r="H210" s="29"/>
-      <c r="I210" s="29"/>
-      <c r="J210" s="29"/>
-      <c r="K210" s="16"/>
-      <c r="L210" s="16"/>
-      <c r="M210" s="13"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F211" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G211" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H211" s="16">
-        <v>255</v>
-      </c>
-      <c r="I211" s="16"/>
-      <c r="J211" s="16" t="s">
-        <v>554</v>
-      </c>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
       <c r="M211" s="13"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
-      <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="31"/>
+      <c r="A212" s="53"/>
+      <c r="B212" s="42"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="42"/>
       <c r="E212" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>22</v>
@@ -13777,22 +13788,22 @@
       </c>
       <c r="I212" s="16"/>
       <c r="J212" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
       <c r="M212" s="13"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
-      <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
+      <c r="A213" s="53"/>
+      <c r="B213" s="42"/>
+      <c r="C213" s="42"/>
+      <c r="D213" s="42"/>
       <c r="E213" s="16" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>22</v>
@@ -13802,49 +13813,47 @@
       </c>
       <c r="I213" s="16"/>
       <c r="J213" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
       <c r="M213" s="13"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
-      <c r="B214" s="31"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="17" t="s">
+      <c r="A214" s="53"/>
+      <c r="B214" s="42"/>
+      <c r="C214" s="42"/>
+      <c r="D214" s="42"/>
+      <c r="E214" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F214" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G214" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H214" s="16">
+        <v>255</v>
+      </c>
+      <c r="I214" s="16"/>
+      <c r="J214" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K214" s="16"/>
+      <c r="L214" s="16"/>
+      <c r="M214" s="13"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" s="53"/>
+      <c r="B215" s="42"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F214" s="17" t="s">
+      <c r="F215" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="G214" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H214" s="17">
-        <v>255</v>
-      </c>
-      <c r="I214" s="17"/>
-      <c r="J214" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="K214" s="17"/>
-      <c r="L214" s="17"/>
-      <c r="M214" s="28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="49"/>
-      <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F215" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="G215" s="17" t="s">
         <v>22</v>
@@ -13854,22 +13863,24 @@
       </c>
       <c r="I215" s="17"/>
       <c r="J215" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K215" s="17"/>
       <c r="L215" s="17"/>
-      <c r="M215" s="28"/>
+      <c r="M215" s="57" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="49"/>
-      <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
+      <c r="A216" s="53"/>
+      <c r="B216" s="42"/>
+      <c r="C216" s="42"/>
+      <c r="D216" s="42"/>
       <c r="E216" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G216" s="17" t="s">
         <v>22</v>
@@ -13879,205 +13890,205 @@
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K216" s="17"/>
       <c r="L216" s="17"/>
-      <c r="M216" s="28"/>
+      <c r="M216" s="57"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="49"/>
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="42"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42"/>
       <c r="E217" s="17" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="F217" s="17" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H217" s="17">
-        <v>11</v>
-      </c>
-      <c r="I217" s="17">
-        <v>0</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="I217" s="17"/>
       <c r="J217" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K217" s="17"/>
       <c r="L217" s="17"/>
-      <c r="M217" s="14" t="s">
-        <v>561</v>
-      </c>
+      <c r="M217" s="57"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
-      <c r="B218" s="31"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="31"/>
+      <c r="A218" s="53"/>
+      <c r="B218" s="42"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="42"/>
       <c r="E218" s="17" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="F218" s="17" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="H218" s="17">
-        <v>20</v>
-      </c>
-      <c r="I218" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="I218" s="17">
+        <v>0</v>
+      </c>
       <c r="J218" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K218" s="17"/>
       <c r="L218" s="17"/>
-      <c r="M218" s="28" t="s">
-        <v>563</v>
+      <c r="M218" s="14" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="49"/>
-      <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="62" t="s">
-        <v>649</v>
+      <c r="A219" s="53"/>
+      <c r="B219" s="42"/>
+      <c r="C219" s="42"/>
+      <c r="D219" s="42"/>
+      <c r="E219" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>646</v>
+        <v>110</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>647</v>
+        <v>352</v>
       </c>
       <c r="H219" s="17">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I219" s="17"/>
       <c r="J219" s="17" t="s">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="K219" s="17"/>
       <c r="L219" s="17"/>
-      <c r="M219" s="28"/>
+      <c r="M219" s="57" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
-      <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
-      <c r="D220" s="31"/>
-      <c r="E220" s="17" t="s">
-        <v>201</v>
+      <c r="A220" s="53"/>
+      <c r="B220" s="42"/>
+      <c r="C220" s="42"/>
+      <c r="D220" s="42"/>
+      <c r="E220" s="27" t="s">
+        <v>649</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>201</v>
+        <v>646</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>353</v>
+        <v>647</v>
       </c>
       <c r="H220" s="17">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="17" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="K220" s="17"/>
       <c r="L220" s="17"/>
-      <c r="M220" s="28"/>
+      <c r="M220" s="57"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="48">
+      <c r="A221" s="54"/>
+      <c r="B221" s="42"/>
+      <c r="C221" s="42"/>
+      <c r="D221" s="42"/>
+      <c r="E221" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F221" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G221" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="H221" s="17">
+        <v>20</v>
+      </c>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+      <c r="M221" s="57"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" s="52">
         <v>21</v>
       </c>
-      <c r="B221" s="31" t="s">
+      <c r="B222" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C221" s="31" t="s">
+      <c r="C222" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D222" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="E221" s="29" t="s">
+      <c r="E222" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29"/>
-      <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
-      <c r="J221" s="29"/>
-      <c r="K221" s="16"/>
-      <c r="L221" s="16"/>
-      <c r="M221" s="13"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="49"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="31"/>
-      <c r="E222" s="17" t="s">
+      <c r="F222" s="43"/>
+      <c r="G222" s="43"/>
+      <c r="H222" s="43"/>
+      <c r="I222" s="43"/>
+      <c r="J222" s="43"/>
+      <c r="K222" s="16"/>
+      <c r="L222" s="16"/>
+      <c r="M222" s="13"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="53"/>
+      <c r="B223" s="42"/>
+      <c r="C223" s="42"/>
+      <c r="D223" s="42"/>
+      <c r="E223" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F222" s="17" t="s">
+      <c r="F223" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G222" s="17" t="s">
+      <c r="G223" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H222" s="17">
+      <c r="H223" s="17">
         <v>255</v>
       </c>
-      <c r="I222" s="17"/>
-      <c r="J222" s="17" t="s">
+      <c r="I223" s="17"/>
+      <c r="J223" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="K222" s="17"/>
-      <c r="L222" s="17"/>
-      <c r="M222" s="14" t="s">
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+      <c r="M223" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="49"/>
-      <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
-      <c r="D223" s="31"/>
-      <c r="E223" s="16" t="s">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" s="53"/>
+      <c r="B224" s="42"/>
+      <c r="C224" s="42"/>
+      <c r="D224" s="42"/>
+      <c r="E224" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F223" s="16" t="s">
+      <c r="F224" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="G223" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H223" s="16">
-        <v>20</v>
-      </c>
-      <c r="I223" s="16"/>
-      <c r="J223" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="K223" s="16"/>
-      <c r="L223" s="16"/>
-      <c r="M223" s="13"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="49"/>
-      <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
-      <c r="D224" s="31"/>
-      <c r="E224" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F224" s="16" t="s">
-        <v>356</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>3</v>
@@ -14087,47 +14098,47 @@
       </c>
       <c r="I224" s="16"/>
       <c r="J224" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
       <c r="M224" s="13"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="49"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
-      <c r="D225" s="31"/>
+      <c r="A225" s="53"/>
+      <c r="B225" s="42"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
       <c r="E225" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F225" s="16" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="G225" s="16" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H225" s="16">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I225" s="16"/>
       <c r="J225" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K225" s="16"/>
       <c r="L225" s="16"/>
       <c r="M225" s="13"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="49"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
-      <c r="D226" s="31"/>
+      <c r="A226" s="53"/>
+      <c r="B226" s="42"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="42"/>
       <c r="E226" s="16" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="F226" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>22</v>
@@ -14137,101 +14148,101 @@
       </c>
       <c r="I226" s="16"/>
       <c r="J226" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K226" s="16"/>
       <c r="L226" s="16"/>
       <c r="M226" s="13"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="50"/>
-      <c r="B227" s="31"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="31"/>
-      <c r="E227" s="17" t="s">
+      <c r="A227" s="53"/>
+      <c r="B227" s="42"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="42"/>
+      <c r="E227" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" s="16">
+        <v>255</v>
+      </c>
+      <c r="I227" s="16"/>
+      <c r="J227" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="K227" s="16"/>
+      <c r="L227" s="16"/>
+      <c r="M227" s="13"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="54"/>
+      <c r="B228" s="42"/>
+      <c r="C228" s="42"/>
+      <c r="D228" s="42"/>
+      <c r="E228" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F227" s="17" t="s">
+      <c r="F228" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="G227" s="17" t="s">
+      <c r="G228" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="H227" s="17">
+      <c r="H228" s="17">
         <v>11</v>
       </c>
-      <c r="I227" s="17">
+      <c r="I228" s="17">
         <v>0</v>
       </c>
-      <c r="J227" s="17" t="s">
+      <c r="J228" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="K227" s="17"/>
-      <c r="L227" s="17"/>
-      <c r="M227" s="14" t="s">
+      <c r="K228" s="17"/>
+      <c r="L228" s="17"/>
+      <c r="M228" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="48">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" s="52">
         <v>22</v>
       </c>
-      <c r="B228" s="31" t="s">
+      <c r="B229" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="C228" s="31" t="s">
+      <c r="C229" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="D228" s="31" t="s">
+      <c r="D229" s="42" t="s">
         <v>573</v>
       </c>
-      <c r="E228" s="29" t="s">
+      <c r="E229" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="F228" s="29"/>
-      <c r="G228" s="29"/>
-      <c r="H228" s="29"/>
-      <c r="I228" s="29"/>
-      <c r="J228" s="29"/>
-      <c r="K228" s="16"/>
-      <c r="L228" s="16"/>
-      <c r="M228" s="13"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="49"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="31"/>
-      <c r="E229" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F229" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G229" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H229" s="16">
-        <v>200</v>
-      </c>
-      <c r="I229" s="16"/>
-      <c r="J229" s="16" t="s">
-        <v>574</v>
-      </c>
+      <c r="F229" s="43"/>
+      <c r="G229" s="43"/>
+      <c r="H229" s="43"/>
+      <c r="I229" s="43"/>
+      <c r="J229" s="43"/>
       <c r="K229" s="16"/>
       <c r="L229" s="16"/>
       <c r="M229" s="13"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="49"/>
-      <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="31"/>
+      <c r="A230" s="53"/>
+      <c r="B230" s="42"/>
+      <c r="C230" s="42"/>
+      <c r="D230" s="42"/>
       <c r="E230" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F230" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>22</v>
@@ -14241,22 +14252,22 @@
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K230" s="16"/>
       <c r="L230" s="16"/>
       <c r="M230" s="13"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="49"/>
-      <c r="B231" s="31"/>
-      <c r="C231" s="31"/>
-      <c r="D231" s="31"/>
+      <c r="A231" s="53"/>
+      <c r="B231" s="42"/>
+      <c r="C231" s="42"/>
+      <c r="D231" s="42"/>
       <c r="E231" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F231" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>22</v>
@@ -14266,97 +14277,97 @@
       </c>
       <c r="I231" s="16"/>
       <c r="J231" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K231" s="16"/>
       <c r="L231" s="16"/>
       <c r="M231" s="13"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="49"/>
-      <c r="B232" s="31"/>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
+      <c r="A232" s="53"/>
+      <c r="B232" s="42"/>
+      <c r="C232" s="42"/>
+      <c r="D232" s="42"/>
       <c r="E232" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F232" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H232" s="16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K232" s="16"/>
       <c r="L232" s="16"/>
       <c r="M232" s="13"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="49"/>
-      <c r="B233" s="31"/>
-      <c r="C233" s="31"/>
-      <c r="D233" s="31"/>
+      <c r="A233" s="53"/>
+      <c r="B233" s="42"/>
+      <c r="C233" s="42"/>
+      <c r="D233" s="42"/>
       <c r="E233" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H233" s="16">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K233" s="16"/>
       <c r="L233" s="16"/>
       <c r="M233" s="13"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="49"/>
-      <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
+      <c r="A234" s="53"/>
+      <c r="B234" s="42"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="42"/>
       <c r="E234" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H234" s="16">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K234" s="16"/>
       <c r="L234" s="16"/>
       <c r="M234" s="13"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="49"/>
-      <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="31"/>
+      <c r="A235" s="53"/>
+      <c r="B235" s="42"/>
+      <c r="C235" s="42"/>
+      <c r="D235" s="42"/>
       <c r="E235" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>22</v>
@@ -14366,95 +14377,95 @@
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K235" s="16"/>
       <c r="L235" s="16"/>
       <c r="M235" s="13"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="49"/>
-      <c r="B236" s="31"/>
-      <c r="C236" s="31"/>
-      <c r="D236" s="31"/>
+      <c r="A236" s="53"/>
+      <c r="B236" s="42"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="42"/>
       <c r="E236" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F236" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G236" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H236" s="16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I236" s="16"/>
       <c r="J236" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K236" s="16"/>
       <c r="L236" s="16"/>
       <c r="M236" s="13"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="49"/>
-      <c r="B237" s="31"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="31"/>
-      <c r="E237" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F237" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G237" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H237" s="20">
-        <v>0</v>
-      </c>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
+      <c r="A237" s="53"/>
+      <c r="B237" s="42"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="42"/>
+      <c r="E237" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G237" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" s="16">
+        <v>50</v>
+      </c>
+      <c r="I237" s="16"/>
+      <c r="J237" s="16" t="s">
+        <v>581</v>
+      </c>
       <c r="K237" s="16"/>
       <c r="L237" s="16"/>
       <c r="M237" s="13"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="49"/>
-      <c r="B238" s="31"/>
-      <c r="C238" s="31"/>
-      <c r="D238" s="31"/>
-      <c r="E238" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F238" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G238" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H238" s="16">
-        <v>200</v>
-      </c>
-      <c r="I238" s="16"/>
-      <c r="J238" s="16" t="s">
-        <v>582</v>
-      </c>
+      <c r="A238" s="53"/>
+      <c r="B238" s="42"/>
+      <c r="C238" s="42"/>
+      <c r="D238" s="42"/>
+      <c r="E238" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F238" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H238" s="20">
+        <v>0</v>
+      </c>
+      <c r="I238" s="20"/>
+      <c r="J238" s="20"/>
       <c r="K238" s="16"/>
       <c r="L238" s="16"/>
       <c r="M238" s="13"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="49"/>
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
+      <c r="A239" s="53"/>
+      <c r="B239" s="42"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="42"/>
       <c r="E239" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>22</v>
@@ -14464,76 +14475,72 @@
       </c>
       <c r="I239" s="16"/>
       <c r="J239" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K239" s="16"/>
       <c r="L239" s="16"/>
       <c r="M239" s="13"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="49"/>
-      <c r="B240" s="31"/>
-      <c r="C240" s="31"/>
-      <c r="D240" s="31"/>
+      <c r="A240" s="53"/>
+      <c r="B240" s="42"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="42"/>
       <c r="E240" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F240" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G240" s="16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H240" s="16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I240" s="16"/>
       <c r="J240" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K240" s="16"/>
       <c r="L240" s="16"/>
       <c r="M240" s="13"/>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="49"/>
-      <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
-      <c r="D241" s="31"/>
-      <c r="E241" s="17" t="s">
+      <c r="A241" s="53"/>
+      <c r="B241" s="42"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F241" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G241" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H241" s="16">
+        <v>0</v>
+      </c>
+      <c r="I241" s="16"/>
+      <c r="J241" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="K241" s="16"/>
+      <c r="L241" s="16"/>
+      <c r="M241" s="13"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" s="53"/>
+      <c r="B242" s="42"/>
+      <c r="C242" s="42"/>
+      <c r="D242" s="42"/>
+      <c r="E242" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F241" s="17" t="s">
+      <c r="F242" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="G241" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H241" s="17">
-        <v>11</v>
-      </c>
-      <c r="I241" s="17">
-        <v>0</v>
-      </c>
-      <c r="J241" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="K241" s="17"/>
-      <c r="L241" s="17"/>
-      <c r="M241" s="28" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="50"/>
-      <c r="B242" s="31"/>
-      <c r="C242" s="31"/>
-      <c r="D242" s="31"/>
-      <c r="E242" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F242" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="G242" s="17" t="s">
         <v>1</v>
@@ -14542,75 +14549,79 @@
         <v>11</v>
       </c>
       <c r="I242" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K242" s="17"/>
       <c r="L242" s="17"/>
-      <c r="M242" s="28"/>
+      <c r="M242" s="57" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="48">
+      <c r="A243" s="54"/>
+      <c r="B243" s="42"/>
+      <c r="C243" s="42"/>
+      <c r="D243" s="42"/>
+      <c r="E243" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F243" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G243" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H243" s="17">
+        <v>11</v>
+      </c>
+      <c r="I243" s="17">
+        <v>1</v>
+      </c>
+      <c r="J243" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+      <c r="M243" s="57"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" s="52">
         <v>23</v>
       </c>
-      <c r="B243" s="31" t="s">
+      <c r="B244" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C243" s="31" t="s">
+      <c r="C244" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D243" s="31" t="s">
+      <c r="D244" s="42" t="s">
         <v>588</v>
       </c>
-      <c r="E243" s="29" t="s">
+      <c r="E244" s="43" t="s">
         <v>589</v>
       </c>
-      <c r="F243" s="29"/>
-      <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
-      <c r="J243" s="29"/>
-      <c r="K243" s="16"/>
-      <c r="L243" s="16"/>
-      <c r="M243" s="13"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="49"/>
-      <c r="B244" s="31"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="31"/>
-      <c r="E244" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F244" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G244" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H244" s="16">
-        <v>200</v>
-      </c>
-      <c r="I244" s="16"/>
-      <c r="J244" s="16" t="s">
-        <v>590</v>
-      </c>
+      <c r="F244" s="43"/>
+      <c r="G244" s="43"/>
+      <c r="H244" s="43"/>
+      <c r="I244" s="43"/>
+      <c r="J244" s="43"/>
       <c r="K244" s="16"/>
       <c r="L244" s="16"/>
       <c r="M244" s="13"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="49"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="31"/>
+      <c r="A245" s="53"/>
+      <c r="B245" s="42"/>
+      <c r="C245" s="42"/>
+      <c r="D245" s="42"/>
       <c r="E245" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F245" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>22</v>
@@ -14620,93 +14631,95 @@
       </c>
       <c r="I245" s="16"/>
       <c r="J245" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K245" s="16"/>
       <c r="L245" s="16"/>
       <c r="M245" s="13"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="50"/>
-      <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
-      <c r="D246" s="31"/>
+      <c r="A246" s="53"/>
+      <c r="B246" s="42"/>
+      <c r="C246" s="42"/>
+      <c r="D246" s="42"/>
       <c r="E246" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G246" s="16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H246" s="16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I246" s="16"/>
       <c r="J246" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K246" s="16"/>
       <c r="L246" s="16"/>
       <c r="M246" s="13"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="33">
+      <c r="A247" s="54"/>
+      <c r="B247" s="42"/>
+      <c r="C247" s="42"/>
+      <c r="D247" s="42"/>
+      <c r="E247" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G247" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H247" s="16">
+        <v>0</v>
+      </c>
+      <c r="I247" s="16"/>
+      <c r="J247" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="K247" s="16"/>
+      <c r="L247" s="16"/>
+      <c r="M247" s="13"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" s="58">
         <v>24</v>
       </c>
-      <c r="B247" s="33" t="s">
+      <c r="B248" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C248" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="D247" s="33" t="s">
+      <c r="D248" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="E247" s="29" t="s">
+      <c r="E248" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="F247" s="29"/>
-      <c r="G247" s="29"/>
-      <c r="H247" s="29"/>
-      <c r="I247" s="29"/>
-      <c r="J247" s="29"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="13"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="34"/>
-      <c r="B248" s="30"/>
-      <c r="C248" s="34"/>
-      <c r="D248" s="34"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G248" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H248" s="23">
-        <v>255</v>
-      </c>
-      <c r="I248" s="23"/>
-      <c r="J248" s="23" t="s">
-        <v>594</v>
-      </c>
+      <c r="F248" s="43"/>
+      <c r="G248" s="43"/>
+      <c r="H248" s="43"/>
+      <c r="I248" s="43"/>
+      <c r="J248" s="43"/>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="34"/>
-      <c r="B249" s="30"/>
-      <c r="C249" s="34"/>
-      <c r="D249" s="34"/>
+      <c r="A249" s="59"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="59"/>
+      <c r="D249" s="59"/>
       <c r="E249" s="13"/>
       <c r="F249" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G249" s="23" t="s">
         <v>22</v>
@@ -14716,20 +14729,20 @@
       </c>
       <c r="I249" s="23"/>
       <c r="J249" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K249" s="13"/>
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="34"/>
-      <c r="B250" s="30"/>
-      <c r="C250" s="34"/>
-      <c r="D250" s="34"/>
+      <c r="A250" s="59"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="59"/>
+      <c r="D250" s="59"/>
       <c r="E250" s="13"/>
       <c r="F250" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G250" s="23" t="s">
         <v>22</v>
@@ -14739,20 +14752,20 @@
       </c>
       <c r="I250" s="23"/>
       <c r="J250" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="34"/>
-      <c r="B251" s="30"/>
-      <c r="C251" s="34"/>
-      <c r="D251" s="34"/>
+      <c r="A251" s="59"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="59"/>
+      <c r="D251" s="59"/>
       <c r="E251" s="13"/>
       <c r="F251" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G251" s="23" t="s">
         <v>22</v>
@@ -14762,20 +14775,20 @@
       </c>
       <c r="I251" s="23"/>
       <c r="J251" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="34"/>
-      <c r="B252" s="30"/>
-      <c r="C252" s="34"/>
-      <c r="D252" s="34"/>
+      <c r="A252" s="59"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="59"/>
+      <c r="D252" s="59"/>
       <c r="E252" s="13"/>
       <c r="F252" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G252" s="23" t="s">
         <v>22</v>
@@ -14785,20 +14798,20 @@
       </c>
       <c r="I252" s="23"/>
       <c r="J252" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="34"/>
-      <c r="B253" s="30"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="34"/>
+      <c r="A253" s="59"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="59"/>
+      <c r="D253" s="59"/>
       <c r="E253" s="13"/>
       <c r="F253" s="23" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="G253" s="23" t="s">
         <v>22</v>
@@ -14808,160 +14821,160 @@
       </c>
       <c r="I253" s="23"/>
       <c r="J253" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="34"/>
-      <c r="B254" s="30"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34"/>
+      <c r="A254" s="59"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="59"/>
+      <c r="D254" s="59"/>
       <c r="E254" s="13"/>
       <c r="F254" s="23" t="s">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="G254" s="23" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="H254" s="23">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I254" s="23"/>
       <c r="J254" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="34"/>
-      <c r="B255" s="30"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
+      <c r="A255" s="59"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="59"/>
+      <c r="D255" s="59"/>
       <c r="E255" s="13"/>
       <c r="F255" s="23" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="G255" s="23" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="H255" s="23">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I255" s="23"/>
       <c r="J255" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="34"/>
-      <c r="B256" s="30"/>
-      <c r="C256" s="34"/>
-      <c r="D256" s="34"/>
+      <c r="A256" s="59"/>
+      <c r="B256" s="35"/>
+      <c r="C256" s="59"/>
+      <c r="D256" s="59"/>
       <c r="E256" s="13"/>
       <c r="F256" s="23" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G256" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H256" s="23">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="I256" s="23"/>
       <c r="J256" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="30">
-        <v>25</v>
-      </c>
-      <c r="B257" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C257" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="D257" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E257" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="F257" s="29"/>
-      <c r="G257" s="29"/>
-      <c r="H257" s="29"/>
-      <c r="I257" s="29"/>
-      <c r="J257" s="29"/>
+      <c r="A257" s="59"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G257" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H257" s="23">
+        <v>255</v>
+      </c>
+      <c r="I257" s="23"/>
+      <c r="J257" s="23" t="s">
+        <v>602</v>
+      </c>
       <c r="K257" s="13"/>
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="30"/>
-      <c r="B258" s="30"/>
-      <c r="C258" s="30"/>
-      <c r="D258" s="30"/>
-      <c r="E258" s="13"/>
-      <c r="F258" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="G258" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="H258" s="13">
-        <v>20</v>
-      </c>
-      <c r="I258" s="13"/>
-      <c r="J258" s="13" t="s">
-        <v>604</v>
-      </c>
+      <c r="A258" s="35">
+        <v>25</v>
+      </c>
+      <c r="B258" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C258" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D258" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="E258" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="F258" s="43"/>
+      <c r="G258" s="43"/>
+      <c r="H258" s="43"/>
+      <c r="I258" s="43"/>
+      <c r="J258" s="43"/>
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="30"/>
-      <c r="B259" s="30"/>
-      <c r="C259" s="30"/>
-      <c r="D259" s="30"/>
+      <c r="A259" s="35"/>
+      <c r="B259" s="35"/>
+      <c r="C259" s="35"/>
+      <c r="D259" s="35"/>
       <c r="E259" s="13"/>
-      <c r="F259" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="G259" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H259" s="23">
-        <v>255</v>
-      </c>
-      <c r="I259" s="23"/>
-      <c r="J259" s="25" t="s">
-        <v>644</v>
+      <c r="F259" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G259" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H259" s="13">
+        <v>20</v>
+      </c>
+      <c r="I259" s="13"/>
+      <c r="J259" s="13" t="s">
+        <v>604</v>
       </c>
       <c r="K259" s="13"/>
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="30"/>
-      <c r="B260" s="30"/>
-      <c r="C260" s="30"/>
-      <c r="D260" s="30"/>
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="35"/>
+      <c r="D260" s="35"/>
       <c r="E260" s="13"/>
       <c r="F260" s="23" t="s">
-        <v>337</v>
+        <v>643</v>
       </c>
       <c r="G260" s="23" t="s">
         <v>22</v>
@@ -14970,21 +14983,21 @@
         <v>255</v>
       </c>
       <c r="I260" s="23"/>
-      <c r="J260" s="23" t="s">
-        <v>605</v>
+      <c r="J260" s="25" t="s">
+        <v>644</v>
       </c>
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="30"/>
-      <c r="B261" s="30"/>
-      <c r="C261" s="30"/>
-      <c r="D261" s="30"/>
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
       <c r="E261" s="13"/>
       <c r="F261" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G261" s="23" t="s">
         <v>22</v>
@@ -14994,20 +15007,20 @@
       </c>
       <c r="I261" s="23"/>
       <c r="J261" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="30"/>
-      <c r="B262" s="30"/>
-      <c r="C262" s="30"/>
-      <c r="D262" s="30"/>
+      <c r="A262" s="35"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="35"/>
+      <c r="D262" s="35"/>
       <c r="E262" s="13"/>
       <c r="F262" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G262" s="23" t="s">
         <v>22</v>
@@ -15017,114 +15030,114 @@
       </c>
       <c r="I262" s="23"/>
       <c r="J262" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="30"/>
-      <c r="B263" s="30"/>
-      <c r="C263" s="30"/>
-      <c r="D263" s="30"/>
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
       <c r="E263" s="13"/>
       <c r="F263" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G263" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H263" s="23">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="I263" s="23"/>
       <c r="J263" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="30">
-        <v>26</v>
-      </c>
-      <c r="B264" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C264" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="D264" s="30" t="s">
-        <v>609</v>
-      </c>
-      <c r="E264" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="F264" s="29"/>
-      <c r="G264" s="29"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="29"/>
-      <c r="J264" s="29"/>
+      <c r="A264" s="35"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G264" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H264" s="23">
+        <v>11</v>
+      </c>
+      <c r="I264" s="23"/>
+      <c r="J264" s="23" t="s">
+        <v>608</v>
+      </c>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="30"/>
-      <c r="B265" s="30"/>
-      <c r="C265" s="30"/>
-      <c r="D265" s="30"/>
-      <c r="E265" s="13"/>
-      <c r="F265" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G265" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H265" s="13">
-        <v>20</v>
-      </c>
-      <c r="I265" s="13"/>
-      <c r="J265" s="13" t="s">
-        <v>611</v>
-      </c>
+      <c r="A265" s="35">
+        <v>26</v>
+      </c>
+      <c r="B265" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D265" s="35" t="s">
+        <v>609</v>
+      </c>
+      <c r="E265" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
+      <c r="I265" s="43"/>
+      <c r="J265" s="43"/>
       <c r="K265" s="13"/>
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="30"/>
-      <c r="B266" s="30"/>
-      <c r="C266" s="30"/>
-      <c r="D266" s="30"/>
+      <c r="A266" s="35"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="35"/>
       <c r="E266" s="13"/>
-      <c r="F266" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="G266" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H266" s="23">
-        <v>255</v>
-      </c>
-      <c r="I266" s="23"/>
-      <c r="J266" s="23" t="s">
-        <v>612</v>
+      <c r="F266" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G266" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H266" s="13">
+        <v>20</v>
+      </c>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="30"/>
-      <c r="B267" s="30"/>
-      <c r="C267" s="30"/>
-      <c r="D267" s="30"/>
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="35"/>
+      <c r="D267" s="35"/>
       <c r="E267" s="13"/>
       <c r="F267" s="23" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="G267" s="23" t="s">
         <v>22</v>
@@ -15134,43 +15147,43 @@
       </c>
       <c r="I267" s="23"/>
       <c r="J267" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="30"/>
-      <c r="B268" s="30"/>
-      <c r="C268" s="30"/>
-      <c r="D268" s="30"/>
+      <c r="A268" s="35"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="35"/>
       <c r="E268" s="13"/>
       <c r="F268" s="23" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="G268" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H268" s="23">
-        <v>2000</v>
+        <v>255</v>
       </c>
       <c r="I268" s="23"/>
       <c r="J268" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="30"/>
-      <c r="B269" s="30"/>
-      <c r="C269" s="30"/>
-      <c r="D269" s="30"/>
+      <c r="A269" s="35"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="35"/>
       <c r="E269" s="13"/>
       <c r="F269" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G269" s="23" t="s">
         <v>22</v>
@@ -15180,20 +15193,20 @@
       </c>
       <c r="I269" s="23"/>
       <c r="J269" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="30"/>
-      <c r="B270" s="30"/>
-      <c r="C270" s="30"/>
-      <c r="D270" s="30"/>
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="35"/>
       <c r="E270" s="13"/>
       <c r="F270" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G270" s="23" t="s">
         <v>22</v>
@@ -15203,20 +15216,20 @@
       </c>
       <c r="I270" s="23"/>
       <c r="J270" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="30"/>
-      <c r="B271" s="30"/>
-      <c r="C271" s="30"/>
-      <c r="D271" s="30"/>
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="35"/>
       <c r="E271" s="13"/>
       <c r="F271" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G271" s="23" t="s">
         <v>22</v>
@@ -15226,20 +15239,20 @@
       </c>
       <c r="I271" s="23"/>
       <c r="J271" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="30"/>
-      <c r="B272" s="30"/>
-      <c r="C272" s="30"/>
-      <c r="D272" s="30"/>
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
       <c r="E272" s="13"/>
       <c r="F272" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G272" s="23" t="s">
         <v>22</v>
@@ -15249,20 +15262,20 @@
       </c>
       <c r="I272" s="23"/>
       <c r="J272" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="30"/>
-      <c r="B273" s="30"/>
-      <c r="C273" s="30"/>
-      <c r="D273" s="30"/>
+      <c r="A273" s="35"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="35"/>
       <c r="E273" s="13"/>
       <c r="F273" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G273" s="23" t="s">
         <v>22</v>
@@ -15272,20 +15285,20 @@
       </c>
       <c r="I273" s="23"/>
       <c r="J273" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K273" s="13"/>
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="30"/>
-      <c r="B274" s="30"/>
-      <c r="C274" s="30"/>
-      <c r="D274" s="30"/>
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="35"/>
       <c r="E274" s="13"/>
       <c r="F274" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G274" s="23" t="s">
         <v>22</v>
@@ -15295,20 +15308,20 @@
       </c>
       <c r="I274" s="23"/>
       <c r="J274" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="30"/>
-      <c r="B275" s="30"/>
-      <c r="C275" s="30"/>
-      <c r="D275" s="30"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
       <c r="E275" s="13"/>
       <c r="F275" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G275" s="23" t="s">
         <v>22</v>
@@ -15318,43 +15331,43 @@
       </c>
       <c r="I275" s="23"/>
       <c r="J275" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K275" s="13"/>
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="30"/>
-      <c r="B276" s="30"/>
-      <c r="C276" s="30"/>
-      <c r="D276" s="30"/>
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="35"/>
+      <c r="D276" s="35"/>
       <c r="E276" s="13"/>
       <c r="F276" s="23" t="s">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="G276" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H276" s="23">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="I276" s="23"/>
       <c r="J276" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="30"/>
-      <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
-      <c r="D277" s="30"/>
+      <c r="A277" s="35"/>
+      <c r="B277" s="35"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="35"/>
       <c r="E277" s="13"/>
       <c r="F277" s="23" t="s">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="G277" s="23" t="s">
         <v>22</v>
@@ -15364,20 +15377,20 @@
       </c>
       <c r="I277" s="23"/>
       <c r="J277" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K277" s="13"/>
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="30"/>
-      <c r="B278" s="30"/>
-      <c r="C278" s="30"/>
-      <c r="D278" s="30"/>
+      <c r="A278" s="35"/>
+      <c r="B278" s="35"/>
+      <c r="C278" s="35"/>
+      <c r="D278" s="35"/>
       <c r="E278" s="13"/>
       <c r="F278" s="23" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="G278" s="23" t="s">
         <v>22</v>
@@ -15387,20 +15400,20 @@
       </c>
       <c r="I278" s="23"/>
       <c r="J278" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="30"/>
-      <c r="B279" s="30"/>
-      <c r="C279" s="30"/>
-      <c r="D279" s="30"/>
+      <c r="A279" s="35"/>
+      <c r="B279" s="35"/>
+      <c r="C279" s="35"/>
+      <c r="D279" s="35"/>
       <c r="E279" s="13"/>
       <c r="F279" s="23" t="s">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="G279" s="23" t="s">
         <v>22</v>
@@ -15410,20 +15423,20 @@
       </c>
       <c r="I279" s="23"/>
       <c r="J279" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K279" s="13"/>
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="30"/>
-      <c r="B280" s="30"/>
-      <c r="C280" s="30"/>
-      <c r="D280" s="30"/>
+      <c r="A280" s="35"/>
+      <c r="B280" s="35"/>
+      <c r="C280" s="35"/>
+      <c r="D280" s="35"/>
       <c r="E280" s="13"/>
       <c r="F280" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G280" s="23" t="s">
         <v>22</v>
@@ -15433,20 +15446,20 @@
       </c>
       <c r="I280" s="23"/>
       <c r="J280" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="30"/>
-      <c r="B281" s="30"/>
-      <c r="C281" s="30"/>
-      <c r="D281" s="30"/>
+      <c r="A281" s="35"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="35"/>
+      <c r="D281" s="35"/>
       <c r="E281" s="13"/>
       <c r="F281" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G281" s="23" t="s">
         <v>22</v>
@@ -15456,73 +15469,69 @@
       </c>
       <c r="I281" s="23"/>
       <c r="J281" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="30"/>
-      <c r="B282" s="30"/>
-      <c r="C282" s="30"/>
-      <c r="D282" s="30"/>
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="35"/>
+      <c r="D282" s="35"/>
       <c r="E282" s="13"/>
       <c r="F282" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G282" s="23" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H282" s="23">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I282" s="23"/>
       <c r="J282" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="13"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="30"/>
-      <c r="B283" s="30"/>
-      <c r="C283" s="30"/>
-      <c r="D283" s="30"/>
-      <c r="E283" s="14"/>
-      <c r="F283" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="G283" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="H283" s="24">
-        <v>11</v>
-      </c>
-      <c r="I283" s="24">
+      <c r="A283" s="35"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="35"/>
+      <c r="D283" s="35"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G283" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H283" s="23">
         <v>0</v>
       </c>
-      <c r="J283" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="K283" s="14"/>
-      <c r="L283" s="14"/>
-      <c r="M283" s="14" t="s">
-        <v>630</v>
-      </c>
+      <c r="I283" s="23"/>
+      <c r="J283" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="K283" s="13"/>
+      <c r="L283" s="13"/>
+      <c r="M283" s="13"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="30"/>
-      <c r="B284" s="30"/>
-      <c r="C284" s="30"/>
-      <c r="D284" s="30"/>
+      <c r="A284" s="35"/>
+      <c r="B284" s="35"/>
+      <c r="C284" s="35"/>
+      <c r="D284" s="35"/>
       <c r="E284" s="14"/>
       <c r="F284" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G284" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H284" s="24">
         <v>11</v>
@@ -15531,25 +15540,25 @@
         <v>0</v>
       </c>
       <c r="J284" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K284" s="14"/>
       <c r="L284" s="14"/>
       <c r="M284" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="30"/>
-      <c r="B285" s="30"/>
-      <c r="C285" s="30"/>
-      <c r="D285" s="30"/>
+      <c r="A285" s="35"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="35"/>
+      <c r="D285" s="35"/>
       <c r="E285" s="14"/>
       <c r="F285" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G285" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H285" s="24">
         <v>11</v>
@@ -15558,25 +15567,25 @@
         <v>0</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K285" s="14"/>
       <c r="L285" s="14"/>
       <c r="M285" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="30"/>
-      <c r="B286" s="30"/>
-      <c r="C286" s="30"/>
-      <c r="D286" s="30"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="35"/>
+      <c r="C286" s="35"/>
+      <c r="D286" s="35"/>
       <c r="E286" s="14"/>
       <c r="F286" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G286" s="24" t="s">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="H286" s="24">
         <v>11</v>
@@ -15585,93 +15594,97 @@
         <v>0</v>
       </c>
       <c r="J286" s="24" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K286" s="14"/>
       <c r="L286" s="14"/>
       <c r="M286" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="35"/>
+      <c r="D287" s="35"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G287" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H287" s="24">
+        <v>11</v>
+      </c>
+      <c r="I287" s="24">
+        <v>0</v>
+      </c>
+      <c r="J287" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="30"/>
-      <c r="B287" s="30"/>
-      <c r="C287" s="30"/>
-      <c r="D287" s="30"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="23" t="s">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" s="35"/>
+      <c r="B288" s="35"/>
+      <c r="C288" s="35"/>
+      <c r="D288" s="35"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="G287" s="23" t="s">
+      <c r="G288" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H287" s="23">
+      <c r="H288" s="23">
         <v>11</v>
       </c>
-      <c r="I287" s="23"/>
-      <c r="J287" s="23" t="s">
+      <c r="I288" s="23"/>
+      <c r="J288" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="K287" s="13"/>
-      <c r="L287" s="13"/>
-      <c r="M287" s="13"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="30"/>
-      <c r="B288" s="30"/>
-      <c r="C288" s="30"/>
-      <c r="D288" s="30"/>
-      <c r="E288" s="14"/>
-      <c r="F288" s="24" t="s">
+      <c r="K288" s="13"/>
+      <c r="L288" s="13"/>
+      <c r="M288" s="13"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" s="35"/>
+      <c r="B289" s="35"/>
+      <c r="C289" s="35"/>
+      <c r="D289" s="35"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="G288" s="24" t="s">
+      <c r="G289" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="H288" s="24">
+      <c r="H289" s="24">
         <v>11</v>
       </c>
-      <c r="I288" s="24"/>
-      <c r="J288" s="24" t="s">
+      <c r="I289" s="24"/>
+      <c r="J289" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="K288" s="14"/>
-      <c r="L288" s="14"/>
-      <c r="M288" s="14" t="s">
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
+      <c r="M289" s="14" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="30"/>
-      <c r="B289" s="30"/>
-      <c r="C289" s="30"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="13"/>
-      <c r="F289" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="G289" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H289" s="23">
-        <v>255</v>
-      </c>
-      <c r="I289" s="23"/>
-      <c r="J289" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="K289" s="13"/>
-      <c r="L289" s="13"/>
-      <c r="M289" s="13"/>
-    </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="30"/>
-      <c r="B290" s="30"/>
-      <c r="C290" s="30"/>
-      <c r="D290" s="30"/>
+      <c r="A290" s="35"/>
+      <c r="B290" s="35"/>
+      <c r="C290" s="35"/>
+      <c r="D290" s="35"/>
       <c r="E290" s="13"/>
       <c r="F290" s="23" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="G290" s="23" t="s">
         <v>22</v>
@@ -15681,20 +15694,20 @@
       </c>
       <c r="I290" s="23"/>
       <c r="J290" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="30"/>
-      <c r="B291" s="30"/>
-      <c r="C291" s="30"/>
-      <c r="D291" s="30"/>
+      <c r="A291" s="35"/>
+      <c r="B291" s="35"/>
+      <c r="C291" s="35"/>
+      <c r="D291" s="35"/>
       <c r="E291" s="13"/>
       <c r="F291" s="23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G291" s="23" t="s">
         <v>22</v>
@@ -15704,28 +15717,161 @@
       </c>
       <c r="I291" s="23"/>
       <c r="J291" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="13"/>
     </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" s="35"/>
+      <c r="B292" s="35"/>
+      <c r="C292" s="35"/>
+      <c r="D292" s="35"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G292" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H292" s="23">
+        <v>255</v>
+      </c>
+      <c r="I292" s="23"/>
+      <c r="J292" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="K292" s="13"/>
+      <c r="L292" s="13"/>
+      <c r="M292" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L147">
+  <autoFilter ref="A1:L148">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="139">
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="M173:M175"/>
+    <mergeCell ref="M219:M221"/>
+    <mergeCell ref="M242:M243"/>
+    <mergeCell ref="E265:J265"/>
+    <mergeCell ref="D265:D292"/>
+    <mergeCell ref="C265:C292"/>
+    <mergeCell ref="B265:B292"/>
+    <mergeCell ref="A265:A292"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="E244:J244"/>
+    <mergeCell ref="D211:D221"/>
+    <mergeCell ref="E211:J211"/>
+    <mergeCell ref="B179:B210"/>
+    <mergeCell ref="C179:C210"/>
+    <mergeCell ref="D179:D210"/>
+    <mergeCell ref="E179:J179"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="D229:D243"/>
+    <mergeCell ref="E229:J229"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="M31:M49"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M215:M217"/>
+    <mergeCell ref="E248:J248"/>
+    <mergeCell ref="D248:D257"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="A248:A257"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="E258:J258"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="C258:C264"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="A258:A264"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="B31:B49"/>
+    <mergeCell ref="C31:C49"/>
+    <mergeCell ref="D31:D49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E127:J127"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="C114:C121"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A165:A178"/>
+    <mergeCell ref="A89:A113"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A31:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A229:A243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A57:A83"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A133:A142"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A179:A210"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A211:A221"/>
+    <mergeCell ref="A222:A228"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:J122"/>
+    <mergeCell ref="E133:J133"/>
+    <mergeCell ref="B222:B228"/>
+    <mergeCell ref="C222:C228"/>
+    <mergeCell ref="D222:D228"/>
+    <mergeCell ref="E222:J222"/>
+    <mergeCell ref="B165:B178"/>
+    <mergeCell ref="C165:C178"/>
+    <mergeCell ref="D165:D178"/>
+    <mergeCell ref="E165:J165"/>
+    <mergeCell ref="E152:J152"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:J158"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="E143:J143"/>
+    <mergeCell ref="B211:B221"/>
+    <mergeCell ref="C211:C221"/>
+    <mergeCell ref="E162:J162"/>
+    <mergeCell ref="E149:J149"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="D143:D148"/>
+    <mergeCell ref="B89:B113"/>
+    <mergeCell ref="C89:C113"/>
+    <mergeCell ref="D89:D113"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="C133:C142"/>
+    <mergeCell ref="D133:D142"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E89:J89"/>
     <mergeCell ref="B84:B88"/>
     <mergeCell ref="C84:C88"/>
     <mergeCell ref="D84:D88"/>
@@ -15737,125 +15883,15 @@
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="C50:C56"/>
     <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E161:J161"/>
-    <mergeCell ref="E148:J148"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="C151:C156"/>
-    <mergeCell ref="D151:D156"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="B89:B113"/>
-    <mergeCell ref="C89:C113"/>
-    <mergeCell ref="D89:D113"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="C132:C141"/>
-    <mergeCell ref="D132:D141"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="D126:D131"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="D121:D125"/>
-    <mergeCell ref="E121:J121"/>
-    <mergeCell ref="E132:J132"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="C221:C227"/>
-    <mergeCell ref="D221:D227"/>
-    <mergeCell ref="E221:J221"/>
-    <mergeCell ref="B164:B177"/>
-    <mergeCell ref="C164:C177"/>
-    <mergeCell ref="D164:D177"/>
-    <mergeCell ref="E164:J164"/>
-    <mergeCell ref="E151:J151"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="D157:D160"/>
-    <mergeCell ref="E157:J157"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="E142:J142"/>
-    <mergeCell ref="B210:B220"/>
-    <mergeCell ref="C210:C220"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A164:A177"/>
-    <mergeCell ref="A89:A113"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A31:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="A228:A242"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A57:A83"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A178:A209"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="A210:A220"/>
-    <mergeCell ref="A221:A227"/>
-    <mergeCell ref="M31:M49"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M214:M216"/>
-    <mergeCell ref="E247:J247"/>
-    <mergeCell ref="D247:D256"/>
-    <mergeCell ref="C247:C256"/>
-    <mergeCell ref="A247:A256"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="E257:J257"/>
-    <mergeCell ref="D257:D263"/>
-    <mergeCell ref="C257:C263"/>
-    <mergeCell ref="B257:B263"/>
-    <mergeCell ref="A257:A263"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="B31:B49"/>
-    <mergeCell ref="C31:C49"/>
-    <mergeCell ref="D31:D49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E126:J126"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="D114:D120"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="M172:M174"/>
-    <mergeCell ref="M218:M220"/>
-    <mergeCell ref="M241:M242"/>
-    <mergeCell ref="E264:J264"/>
-    <mergeCell ref="D264:D291"/>
-    <mergeCell ref="C264:C291"/>
-    <mergeCell ref="B264:B291"/>
-    <mergeCell ref="A264:A291"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="D243:D246"/>
-    <mergeCell ref="E243:J243"/>
-    <mergeCell ref="D210:D220"/>
-    <mergeCell ref="E210:J210"/>
-    <mergeCell ref="B178:B209"/>
-    <mergeCell ref="C178:C209"/>
-    <mergeCell ref="D178:D209"/>
-    <mergeCell ref="E178:J178"/>
-    <mergeCell ref="B228:B242"/>
-    <mergeCell ref="C228:C242"/>
-    <mergeCell ref="D228:D242"/>
-    <mergeCell ref="E228:J228"/>
-    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
